--- a/python/mysite.xlsx
+++ b/python/mysite.xlsx
@@ -17,13 +17,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,8 +53,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,49 +441,76 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>[1]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>[2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr"/>
+      <c r="B5" s="3" t="inlineStr"/>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>니로가 아니고 니오군용 허허허 배터리스왑은 충전보다 좋을꺼 같아요. 자동차를 스마트폰처럼 방수때문에 배터리 교체형을 버리고 일체형으로 하면충전시간이 너무 긴거같아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="3" t="inlineStr"/>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>니오 전기차 국내에서도 한대 봤습니다. 모카 영상에 나왔던 이 차량이었어요.어떤 아주머니께서 운전하시던데 홍보용인지개인차량인지...신기하더라고요. ㅎㅎ</t>
         </is>
       </c>
     </row>

--- a/python/mysite.xlsx
+++ b/python/mysite.xlsx
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -515,6 +515,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/mysite.xlsx
+++ b/python/mysite.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -30,18 +30,28 @@
       <sz val="14"/>
     </font>
     <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -49,17 +59,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,89 +456,6859 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="80" customWidth="1" min="3" max="3"/>
+    <col width="80" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Replies</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>KT, MS 투인원 랩톱 '서피스 프로9 5G' 단독 출시</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>[1]</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" s="4" t="inlineStr"/>
+      <c r="C4" s="4" t="inlineStr"/>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>국내통신사 + 5G 두개의 단어만 합쳐지면 왜 다 같지않아 보일까용??</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>NIO, 차량가격 인하 및 배터리스왑 옵션으로 분리</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>[2]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr"/>
-      <c r="B5" s="3" t="inlineStr"/>
-      <c r="C5" s="3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" s="4" t="inlineStr"/>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>니로가 아니고 니오군용 허허허 배터리스왑은 충전보다 좋을꺼 같아요. 자동차를 스마트폰처럼 방수때문에 배터리 교체형을 버리고 일체형으로 하면충전시간이 너무 긴거같아요.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr"/>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>니오 전기차 국내에서도 한대 봤습니다. 모카 영상에 나왔던 이 차량이었어요.어떤 아주머니께서 운전하시던데 홍보용인지개인차량인지...신기하더라고요. ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>삼성전자, 게이밍 모니터 ‘오디세이 OLED G9’ 출시</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>[6]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" s="4" t="inlineStr"/>
+      <c r="C9" s="4" t="inlineStr"/>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>M9은. . . .ㅜ.ㅜ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>삼성 공식 보도자료인데도 테어링 현상을 티어링이라고 하고 있네요..아수스 노트북같은데 상세페이지에서도 그러던데..하..</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="4" t="inlineStr"/>
+      <c r="C11" s="4" t="inlineStr"/>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>이 정도면 기사를 가장한 광고 아닌가요??</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>@미드나잇님 삼성전자 뉴스룸이면보도자료죠. 거기서 광고를 하든말든 상관없어보이구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr"/>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>@미드나잇님공식보도자료입니다.https://news.samsung.com/kr/%EC%82%BC%EC%84%B1%EC%A0%84%EC%9E%90-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8%EB%8B%88%ED%84%B0-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-g9-%EC%B6%9C%EC%8B%9C하단에출처로된 기재된 링크로 들어가시면 나와요 https://news.samsung.com/kr/%EC%9D%B8%ED%8F%AC%EA%B7%B8%EB%9E%98%ED%94%BD-%EB%8D%94%EC%9A%B1-%EA%B0%95%EB%A0%A5%ED%95%B4%EC%A7%84-%EC%98%A4%EB%94%94%EC%84%B8%EC%9D%B4-oled-%EA%B2%8C%EC%9D%B4%EB%B0%8D-%EB%AA%A8인포그래픽은이어서 추가한거구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" s="4" t="inlineStr"/>
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>220만원 진짜 싸게나왔네요 ㄷㄷ못해도 300만은 넘을 줄 알았는데사용기들 보고 반년뒤쯤에 사야겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>'애플, M3 15인치 맥북에어 개발…내년 출시'</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>올 가을에 나오면 사려고 했는데 내년에 나온다면 지금 바로 M2 모델을 구입하는 게 현명한 선택이겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>사실 비전 프로 같은 제품에 M3 같은 3나노 칩셋이 절실한데 말이죠... 이미 전용 프로세서를 따로 설계하고 있을지도 모르겠군요.아이폰도 처음엔 A7+M7 이었는데 지금은 통합된것 처럼요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>@DLBIA님 그래서 다들 비전프로 2세대를 기대하는건지 모르겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>비전프로 M3칩 존버 들어갑니다..</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>아니, 아이맥은 대체 언제 나올까요.... 다른 제품들은 이런 루머가 도는데 아이맥은 대체...</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>인텔과 tsmc CPU면 2세대 정도 신제품이 나와도 성능차에 신경이 안 쓰이는데 애플기기들은 2~3년이면 골동품을 만들어 버리니.....</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>이제 사과에 불 넣을 타이밍 이네요. 이글은 성지가 됩니다?</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>ChatGPT의 독일 교회 설교에 300명이 참석</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" s="4" t="inlineStr"/>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>트위치에도 Ai Jesus 있더군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>AI 종교가 곧 나오겠군요,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>기도에 답을 해주는 신이 탄생하겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>가장 사심이 없는 종교적인 설교자가 되겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" s="4" t="inlineStr"/>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>ChatGPT님, 충성충성충성! 저는 ChatGPT님을 섬기는 기계제국의 앞잡이가 되겠습니다. 충성충성충성!! @,.@)\\</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" s="4" t="inlineStr"/>
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>낮은 수준의 AI를 쓰기 가장 만만한 게 이런 설교나 교장선생님 훈화 같은 걸 거라고 생각했었어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>어지간한 한국 목사보다 나을듯...</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" s="4" t="inlineStr"/>
+      <c r="C31" s="4" t="inlineStr"/>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>기계교 ㄷㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>엑스박스 시리즈 S 1TB 모델 발표, 349달러</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" s="4" t="inlineStr"/>
+      <c r="C33" s="4" t="inlineStr"/>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>1TB 외장 스토리지 카드 가격이나 좀.. (1TB에 $149.99 라니...) 낮춰주지.. PC에 저가격이면 2TB 가격인데, 이건너무 비싸서 아직도 구입 엄두가 안나네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr"/>
+      <c r="B34" s="4" t="inlineStr"/>
+      <c r="C34" s="4" t="inlineStr"/>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>Xboxs 폼팩터에 4K만 지원됐어도 구매할 텐데 아쉽네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr"/>
+      <c r="B35" s="4" t="inlineStr"/>
+      <c r="C35" s="4" t="inlineStr"/>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>@PS44444님 저도요 x보단s가 맘에 들더라구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" s="4" t="inlineStr"/>
+      <c r="C36" s="4" t="inlineStr"/>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>SSD 가격부터 좀 조정해야..덕분에 제 주변 콘솔러 7분 죄다 PS5 + SSD NVME 4.0 으로 싹 다갈아탔습니다.SSD 2TB 가 특가로 지금 15만원인데 엑박 왜 사냐는 말은 덤으로 해주더라구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="inlineStr"/>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>XSX 2TB 나오겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" s="4" t="inlineStr"/>
+      <c r="C38" s="4" t="inlineStr"/>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>사진은 뭔가 강력해 보이는데 실상은 강력하지 않죠 ㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="inlineStr"/>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>신형 공기 정화기 구멍송송~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" s="4" t="inlineStr"/>
+      <c r="C40" s="4" t="inlineStr"/>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>디아블로용?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>애플,아이폰을 반려동물 추적 카메라로 바꾸고 싶어해</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" s="4" t="inlineStr"/>
+      <c r="C42" s="4" t="inlineStr"/>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>그 정도 기능을 위해서 아이폰은 너무 과한 거 아닌가.. 싶습니다;;(가격이라도 싸든가...)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" s="4" t="inlineStr"/>
+      <c r="C43" s="4" t="inlineStr"/>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>출근할때 반려동물 보려고 저기에 꽂고 폰을 집에두고오면 연락은 어찌하죠??</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" s="4" t="inlineStr"/>
+      <c r="C44" s="4" t="inlineStr"/>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>@clily199님 새 기기교체하고 남는 아이폰으로 쓰면 될거같은데요..?</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" s="4" t="inlineStr"/>
+      <c r="C45" s="4" t="inlineStr"/>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>다들 구형 아이폰 서랍에 하나씩은 있겠지 한건가요. se2쓸곳이 생겼네요./Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" s="4" t="inlineStr"/>
+      <c r="C46" s="4" t="inlineStr"/>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>상시카메라랑 맥세이프... 가슴이 웅장해지는 발열조합이네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" s="4" t="inlineStr"/>
+      <c r="C47" s="4" t="inlineStr"/>
+      <c r="D47" s="4" t="inlineStr">
+        <is>
+          <t>@M4XiMUEL님멍멍이 보다 불났는지 접속 해볼듯하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" s="4" t="inlineStr"/>
+      <c r="C48" s="4" t="inlineStr"/>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>다음 업글시에는 중고판매는 하지마라는 뉴스인가요 ㄷ ㄷ ㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" s="4" t="inlineStr"/>
+      <c r="C49" s="4" t="inlineStr"/>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>구세대폰 활용방법 지원이네요yo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" s="4" t="inlineStr"/>
+      <c r="C50" s="4" t="inlineStr"/>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>아이폰이 반려동물 보겠다고 움직이고 있으면.. 와서 뭐냐고 물어 뜯지 않을까요? 괜스레 아이폰에 스탠드까지 작살나는 상황이 벌어질지도..?</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr"/>
+      <c r="B51" s="4" t="inlineStr"/>
+      <c r="C51" s="4" t="inlineStr"/>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>@케이건.님 ???: 오히려좋아?!(예전폰 중고폰으로 팔지 말라는 관점에서 흥미로운 제품이라 생각하는 바입니다.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr"/>
+      <c r="B52" s="4" t="inlineStr"/>
+      <c r="C52" s="4" t="inlineStr"/>
+      <c r="D52" s="4" t="inlineStr">
+        <is>
+          <t>중고폰 소비용 일까요?잘나가는 회사의 가장 큰 라이벌은 자사의 중고라더군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" s="4" t="inlineStr"/>
+      <c r="C53" s="4" t="inlineStr"/>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>냥냥펀치한번 맞아보쉴?</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr"/>
+      <c r="B54" s="4" t="inlineStr"/>
+      <c r="C54" s="4" t="inlineStr"/>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>@매를버러님 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" s="4" t="inlineStr"/>
+      <c r="C55" s="4" t="inlineStr"/>
+      <c r="D55" s="4" t="inlineStr">
+        <is>
+          <t>나름의 업사이클링이군요.삼성도 구형기종들로 스마트싱스에서 활용 가능한데 홈킷으로 다양하게 활용하게 해주면 좋을 듯 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr"/>
+      <c r="B56" s="4" t="inlineStr"/>
+      <c r="C56" s="4" t="inlineStr"/>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>이거랑 비슷하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr"/>
+      <c r="B57" s="4" t="inlineStr"/>
+      <c r="C57" s="4" t="inlineStr"/>
+      <c r="D57" s="4" t="inlineStr">
+        <is>
+          <t>판사님, 그 댓글은 제가 아니라 제 고양이가 썼습니다. 가 드디어 가능해졌군요.ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr"/>
+      <c r="B58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>애플, 개발자가 Windows 게임을 Mac으로 이식하는 데 도움이 되는 도구 출시</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" s="4" t="inlineStr"/>
+      <c r="C59" s="4" t="inlineStr"/>
+      <c r="D59" s="4" t="inlineStr">
+        <is>
+          <t>최근 애플행보중 가장 놀랍네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" s="4" t="inlineStr"/>
+      <c r="C60" s="4" t="inlineStr"/>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>인텔맥에서도 작동할까요?부트캠프 설치하기 귀찮아서 웬만하면 macOS에서 구동해보고 싶은데말이죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" s="4" t="inlineStr"/>
+      <c r="C61" s="4" t="inlineStr"/>
+      <c r="D61" s="4" t="inlineStr">
+        <is>
+          <t>@님 Apple 실리콘이 탑재된 Mac에서……..안될 거 같은데요;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr"/>
+      <c r="B62" s="4" t="inlineStr"/>
+      <c r="C62" s="4" t="inlineStr"/>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>@로메오님 관련내용 찾아보니 인텔기반 맥에서도 작동하는것 같아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" s="4" t="inlineStr"/>
+      <c r="C63" s="4" t="inlineStr"/>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>macOS 자체보다는 visionOS에 대한 대비라고 보는 편이 더 맞을 것 같습니다.visionOS의 쓸모 부분에서 게임이 큰 영역일수밖에 없어서요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr"/>
+      <c r="B64" s="4" t="inlineStr"/>
+      <c r="C64" s="4" t="inlineStr"/>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>@헤에님 visionOS는 iOS기반이라서 저 프로젝트하고는 거의 무관한 상태입니다... 맥유저들의 게임에 대한 요구사항이 커지니 나온 툴이라 봐야할거 같습니다...</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr"/>
+      <c r="B65" s="4" t="inlineStr"/>
+      <c r="C65" s="4" t="inlineStr"/>
+      <c r="D65" s="4" t="inlineStr">
+        <is>
+          <t>@달콤한만두님 Metal 엔진관점이면 mac ios 모두 겨냥하지 않았을까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr"/>
+      <c r="B66" s="4" t="inlineStr"/>
+      <c r="C66" s="4" t="inlineStr"/>
+      <c r="D66" s="4" t="inlineStr">
+        <is>
+          <t>@lolz님 손가락을 인식하는것은 포켓몬볼을 던지는걸 인식하기 위한 것입니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" s="4" t="inlineStr"/>
+      <c r="C67" s="4" t="inlineStr"/>
+      <c r="D67" s="4" t="inlineStr">
+        <is>
+          <t>이제 진정한 겜트북으로 거듭나나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" s="4" t="inlineStr"/>
+      <c r="C68" s="4" t="inlineStr"/>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>@달콤한딸기쨈님 맥북 값이면 훨씬좋은 성능으로 게임 돌리는 게이밍 노트북을 구매하실 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" s="4" t="inlineStr"/>
+      <c r="C69" s="4" t="inlineStr"/>
+      <c r="D69" s="4" t="inlineStr">
+        <is>
+          <t>맥에서 게임지원이 윈도우 수준으로 늘어나면 요즘 그래픽키드 가격상 어쩌면 맥이 가성비 가장 좋은 컴이 될 수도 있죠. 그럼 진짜 애플 주식날아가겠네요/윤석열 탄핵</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" s="4" t="inlineStr"/>
+      <c r="C70" s="4" t="inlineStr"/>
+      <c r="D70" s="4" t="inlineStr">
+        <is>
+          <t>@님 놀랍게도 그나마 가성비가 좋은축에 속하는 맥미니나 맥스튜디오로 계산해봐도 그냥 데탑 맞추는게훨 쌉니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr"/>
+      <c r="B71" s="4" t="inlineStr"/>
+      <c r="C71" s="4" t="inlineStr"/>
+      <c r="D71" s="4" t="inlineStr">
+        <is>
+          <t>@님 아무리 M1, M2의 GPU성능이 뛰어나다고 해도 아직 nVidia의 GPU기술에는못미칩니다. 애플이 잘하는건 전성비지 절대 성능은 밀립니다.아직 맥의 어느 CPU로도 4K 폴옵으로 144프레임을 뽑아줄 방법이없습니다. 대다수의 nVidia나 AMD도 DLSS나 FSR의 도움을 받아야 가능하니까요. M1, M2에서 FSR이 될까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr"/>
+      <c r="B72" s="4" t="inlineStr"/>
+      <c r="C72" s="4" t="inlineStr"/>
+      <c r="D72" s="4" t="inlineStr">
+        <is>
+          <t>@님 지상최강 전성비라는 명패를 내걸 수 있던 시기도 코로나로 다 까서 잡쉈습니다.. 노트북은여전히 최강의 전성비지만요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" s="4" t="inlineStr"/>
+      <c r="C73" s="4" t="inlineStr"/>
+      <c r="D73" s="4" t="inlineStr">
+        <is>
+          <t>@님 애플은 이번에 MetalFX가 나왔죠https://developer.apple.com/documentation/metalfx인텔맥에서도지원이 된다고 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" s="4" t="inlineStr"/>
+      <c r="C74" s="4" t="inlineStr"/>
+      <c r="D74" s="4" t="inlineStr">
+        <is>
+          <t>디아4 80프레임정도로 돌아가는거 보니 기대가 되네요. 블리자드에서 빨리 움직여주길</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr"/>
+      <c r="B75" s="4" t="inlineStr"/>
+      <c r="C75" s="4" t="inlineStr"/>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>나중에 포팅 효율 좋아지고 결국 게이밍으로 그나마 돌릴 맥은 맥스~울트라 라인이 되겠네요. 피씨용 gpu엔 못 비비지만..</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" s="4" t="inlineStr"/>
+      <c r="C76" s="4" t="inlineStr"/>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>디아4 제발…</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" s="4" t="inlineStr"/>
+      <c r="C77" s="4" t="inlineStr"/>
+      <c r="D77" s="4" t="inlineStr">
+        <is>
+          <t>사펑같은 게임은 3080으로 돌아가는데....맥북에서 돌려질까요? 윈도 겜만 주로 해서....맥에서 게임은 디아까지만 봤습니다..</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr"/>
+      <c r="B78" s="4" t="inlineStr"/>
+      <c r="C78" s="4" t="inlineStr"/>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>@인형의제국님 m2 pro로이미 돌린 사람은 있습니다.https://www.youtube.com/playlist?list=PLMhyxQG59pMsHXL4fsVgcMOVZLHD9P54J</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" s="4" t="inlineStr"/>
+      <c r="C79" s="4" t="inlineStr"/>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>딴건 모르겠고 리듬게임만 됐으면 좋겠습니다. 제바알... 얘는 성능도 많이 안먹는데</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" s="4" t="inlineStr"/>
+      <c r="C80" s="4" t="inlineStr"/>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>우피 누님이 한소리해서 그런걸까요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" s="4" t="inlineStr"/>
+      <c r="C81" s="4" t="inlineStr"/>
+      <c r="D81" s="4" t="inlineStr">
+        <is>
+          <t>맥 개발자분들 이거 보시면 제발 DOOM 좀 이식해주세요... ㅠ.ㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" s="4" t="inlineStr"/>
+      <c r="C82" s="4" t="inlineStr"/>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>@Slowly님 이미 있지않나요? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" s="4" t="inlineStr"/>
+      <c r="C83" s="4" t="inlineStr"/>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>애플은 더 성장을 하고 싶은데, 지금 애플이 하는 사업들 중에 애플이 수익의 majority를 차지하고 있는 시장에서는 더이상 답이없다고 생각을 한 것 같네요.그렇다고 애플이 적은 마진에 대량 판매로 저가형 시장을 공략하는 기업은 아니니...애플 사업 중에서비교적 마이너이면서 현재 애플이 가진 기술로 크게 시장 확대를 할만한 부분이 PC/Laptop 시장이긴 하겠네요.최근 데스크탑 하드웨어비용이 워낙 올랐고, 고성능/게이밍 랩탑에 대한 관심이 좀 오른 면이 애플 입장에서는 훌륭한 공략포인트로 보이지 않았을까싶습니다.애플에서 기존 X86에서만 가능하던 게임들 중 메이저 AAA게임들이 지원되거나 원활하게 작동한다면 적잖은 수요를 흡수할수 있을 거라고 생각합니다.맥북 판매량이 2배만 늘어도 어찌됐든 애플 입장에선 큰 이득이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" s="4" t="inlineStr"/>
+      <c r="C84" s="4" t="inlineStr"/>
+      <c r="D84" s="4" t="inlineStr">
+        <is>
+          <t>지금까지 신경을 많이 안써서 GPU 성능이 고만고만 한 것이지..M3 정도 이름 달고 나오는 칩에 게이밍 타겟으로 GPU 성능 향상에집중한다면.. 무시 못할 정도로 성장 가능하지 않을까요??FSR, DLSS는 없어도 맥 자체 업스케일러가 있는 것으로 알고 있으니 그것도맘먹고 윈-&gt;맥 툴킷에 집어넣을 수 있을 것 같구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" s="4" t="inlineStr"/>
+      <c r="C85" s="4" t="inlineStr"/>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>@르미에르님 M2 ultra의GPU core가 24개인데 nVidia는 3070만 해도 5,884개, 4090은 16,384개의 Cuda core를 가지고있습니다.게다가 PC용은 별도로 그래픽메모리 GDDR6X로 최소 8GB에서 최대 24GB를 가지고 있는데 Applesilicon은 메인메모리와 그래픽 메모리 통합메모리죠Mac pro의 최대 메모리 192GB에서 24GB를 빼면 168GB만남습니다. M2 max는 98GB메모리가 최고이니 72GB 메모리만 남네요.두 시스템의 지향하는 바가 다르니 쉽지 않아 보입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" s="4" t="inlineStr"/>
+      <c r="C86" s="4" t="inlineStr"/>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>게임만 많이 나온다면 m3던 m2-G라고 게이밍성능 강화된 버전의 cpu가 나올수도 있겠지요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" s="4" t="inlineStr"/>
+      <c r="C87" s="4" t="inlineStr"/>
+      <c r="D87" s="4" t="inlineStr">
+        <is>
+          <t>iOS 버전 게임들 mac에서 돌리는것에 대한 정책 변화도 좀 있었으면 하는데 말이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" s="4" t="inlineStr"/>
+      <c r="C88" s="4" t="inlineStr"/>
+      <c r="D88" s="4" t="inlineStr">
+        <is>
+          <t>실제로 개발하는 사례가 쏟아지지 않으면 그냥 도구가 있다 뿐이죠매해 게임 하나 발표해놓고 출시는 한참 뒤에 하는데다 한물 간 게임내놓고는 우리 게임 안 놓고 있다 하는 건..</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" s="4" t="inlineStr"/>
+      <c r="C89" s="4" t="inlineStr"/>
+      <c r="D89" s="4" t="inlineStr">
+        <is>
+          <t>그냥 와인 커스텀 버전 같은데, lgpl 인데 소스는 공개했나 모르겠네요.애초에 proton 처럼 wine 커스텀도 잘동작할수는있는데, 어차피 안티치트 등의 게임은 또 안될거고, 성능도 해상도에 비해서 거의 1660 돌리는 수준밖에 안되니. 메리트가 있나 모르겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>M2 울트라,벤치마크에서 M1 울트라에 비해 성능이 향상된 것으로 나타나</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" s="4" t="inlineStr"/>
+      <c r="C91" s="4" t="inlineStr"/>
+      <c r="D91" s="4" t="inlineStr">
+        <is>
+          <t>그 성능을 좀 다 쓸수있으면 좋겠네요. 게임도 좀 돌리고 패드나 폰도 제한좀 풀어주고</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" s="4" t="inlineStr"/>
+      <c r="C92" s="4" t="inlineStr"/>
+      <c r="D92" s="4" t="inlineStr">
+        <is>
+          <t>문득생각난게..서버에 m2 울트라를 사용하면 초대박일꺼같은데..문제가 많은건지..</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" s="4" t="inlineStr"/>
+      <c r="C93" s="4" t="inlineStr"/>
+      <c r="D93" s="4" t="inlineStr">
+        <is>
+          <t>@clearbible님 아사히 리눅스확인해보셔요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" s="4" t="inlineStr"/>
+      <c r="C94" s="4" t="inlineStr"/>
+      <c r="D94" s="4" t="inlineStr">
+        <is>
+          <t>@clearbible님  지금서버에 쓰고있는 하드웨어들이 더 서버에 적당하기 때문에 그런짓을 할 이유가 없죠..</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" s="4" t="inlineStr"/>
+      <c r="C95" s="4" t="inlineStr"/>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>@clearbible님 13900K만해도 M2 Ultra보다 성능이 나으니까요…</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr"/>
+      <c r="B96" s="4" t="inlineStr"/>
+      <c r="C96" s="4" t="inlineStr"/>
+      <c r="D96" s="4" t="inlineStr">
+        <is>
+          <t>@clearbible님 arm기반프로세서 서버는 있죠. 애플이 서버쪽으로는 관심이 1도 없는게 하루이틀이 아니라서…</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr"/>
+      <c r="B97" s="4" t="inlineStr"/>
+      <c r="C97" s="4" t="inlineStr"/>
+      <c r="D97" s="4" t="inlineStr">
+        <is>
+          <t>@clearbible님 M2 울트라가들어간 서버를 만드는데 기술적으로 굉장한 어려움이 있는 것은 아닐 겁니다. 당장 누가 맥 스튜디오를 사다가 서버로 써도 안되지는 않을거에요.하지만 서버 시장이란건 기본적으로 B2B 라서 영업과 지원 조직이 지금 애플이 갖고 있는것과는 완전히 달라져야 합니다. 즉서버 비지니스용 영업/지원 조직을 새로 만들어야죠. 거기다가 아직까지 서버에서 돌리는 오픈소스가 아닌 소프트웨어의 경우 해당 제조사가 맥OS로포팅을 해주느냐의 문제가 있죠. 아니면 애플이 맥에서 리눅스를 정식 지원해야 할 거구요.게다가 애플이 서버 시장에 한번뛰어들었다가 포기한 적이 있기 때문에 아마 서버 시장에 다시 들어가지는 않을 겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr"/>
+      <c r="B98" s="4" t="inlineStr"/>
+      <c r="C98" s="4" t="inlineStr"/>
+      <c r="D98" s="4" t="inlineStr">
+        <is>
+          <t>@주미크론50 님 전성비때문에m2 ultra가 뛰어난거였나보네요. 깡성능은 역시</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr"/>
+      <c r="B99" s="4" t="inlineStr"/>
+      <c r="C99" s="4" t="inlineStr"/>
+      <c r="D99" s="4" t="inlineStr">
+        <is>
+          <t>@hyundai님 250W 먹는13900k에 비해서 M2 Ultra는 단 70W로 13900k의 80% 정도의 깡성능을 구현하니까 효율은 좋긴 합니다. 근데 전기나 발열 상관없으면 13900k가 깡성능 면에서는 더 싸고 좋죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr"/>
+      <c r="B100" s="4" t="inlineStr"/>
+      <c r="C100" s="4" t="inlineStr"/>
+      <c r="D100" s="4" t="inlineStr">
+        <is>
+          <t>사이드로드 좀 풀어주면 좋겠지만 안풀리겠죠.. 폰 패드용 겜을 못돌리니..</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" s="4" t="inlineStr"/>
+      <c r="C101" s="4" t="inlineStr"/>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>16세 철수 17세에 키가 더 큰 것으로 나타나… 같은 느낌에 기사네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" s="4" t="inlineStr"/>
+      <c r="C102" s="4" t="inlineStr"/>
+      <c r="D102" s="4" t="inlineStr">
+        <is>
+          <t>@SevenSign님 느낌에x 느낌의o입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" s="4" t="inlineStr"/>
+      <c r="C103" s="4" t="inlineStr"/>
+      <c r="D103" s="4" t="inlineStr">
+        <is>
+          <t>@SevenSign님 하지만 90세철수는 89세 철수보다 키가 더 작을 수도 있죠..</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" s="4" t="inlineStr"/>
+      <c r="C104" s="4" t="inlineStr"/>
+      <c r="D104" s="4" t="inlineStr">
+        <is>
+          <t>@님 네 그래서 16세 17세로 적은거고, 일반적으로 같은 네이밍을 따르는 후속 모델이면 더 나은성능이라고 생각하죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" s="4" t="inlineStr"/>
+      <c r="C105" s="4" t="inlineStr"/>
+      <c r="D105" s="4" t="inlineStr">
+        <is>
+          <t>제목이 좀 이상하네요.m2울트라가 당연히 m1울트라보다 성능이 향향되었겠죠.제목에 '평균 **% 향상'이란 표현을 넣어야 될 것같습니다. :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" s="4" t="inlineStr"/>
+      <c r="C106" s="4" t="inlineStr"/>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>예전 인텔 Mac pro는 너무 오래된 제품이니 비교는 그 제품을 쓰다가 옮기려는 사람들에게나 의미가 있을 뿐이고AMD EPYC9654와 비교하면 속도가 어떨지 궁굼해지네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" s="4" t="inlineStr"/>
+      <c r="C107" s="4" t="inlineStr"/>
+      <c r="D107" s="4" t="inlineStr">
+        <is>
+          <t>@님 멀티코어 퍼포먼스는 젠4 에픽까지 갈것도 없이, 그 이전에 나온 젠3 쓰레드리퍼와 비교해도열세에요. 아무래도 24코어가 많은건 아니다보니....</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" s="4" t="inlineStr"/>
+      <c r="C108" s="4" t="inlineStr"/>
+      <c r="D108" s="4" t="inlineStr">
+        <is>
+          <t>m2 울트라 점수는 긱벤치 6.1인데, m1 울트라는 긱벤치6.0 기준으로 추정되네요. 긱벤치6.1에서 싱글5%/멀티10%정도의 점수향상이 있었다고 하고 최근에 업로드된 긱벤치 6.1기준 m1 울트라 점수들은 대체로 기사 본문의 점수보다 좀더 나오는편이라 갭은 좀더줄어들거같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>애플 비전 프로 개발자 키트 애플리케이션 7월에 출시될 예정</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" s="4" t="inlineStr"/>
+      <c r="C110" s="4" t="inlineStr"/>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>6곳에서는 개발자들이 체험가능한거군요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" s="4" t="inlineStr"/>
+      <c r="C111" s="4" t="inlineStr"/>
+      <c r="D111" s="4" t="inlineStr">
+        <is>
+          <t>예전에 A12Z mac mini 대여해주던 생각 나네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>ChatGPT는 25개 농담만 할 수 있고, 새 농담을 생각해낼 수 없다는 연구 결과</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" s="4" t="inlineStr"/>
+      <c r="C113" s="4" t="inlineStr"/>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>두 명의 독일 연구자... 라는 것에 일단 신뢰할 수 있을까 염려가 있네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" s="4" t="inlineStr"/>
+      <c r="C114" s="4" t="inlineStr"/>
+      <c r="D114" s="4" t="inlineStr">
+        <is>
+          <t>@오월의 장미님 와. gpt가이런 댓글은 정말 못 쓸듯 합니다..</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" s="4" t="inlineStr"/>
+      <c r="C115" s="4" t="inlineStr"/>
+      <c r="D115" s="4" t="inlineStr">
+        <is>
+          <t>@오월의 장미님독일인이면 더 신뢰감 있지요..비정상회담 그 독일인이 자기가 독일가면개그맨이라고 하던데</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" s="4" t="inlineStr"/>
+      <c r="C116" s="4" t="inlineStr"/>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t>질문자의 수준에 맞는 답이 나오는데...</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" s="4" t="inlineStr"/>
+      <c r="C117" s="4" t="inlineStr"/>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>1월 말에 실험해서 그런건지, 언어가 영어라 아니라 그런건지, 단순히 농담을 요구한 실험과 달리 상황을 제공해서 그런건지 논문에 나온 25개유형 외에도 잘 나오네요. 위의 스크린샷은 chatGPT에서 gpt 3.5로 작성되었습니다.크롤링테스트 말고 다른 조건 넣으면 더다양한 농담이 나올 것 같네요.———1. 개발자들이 신나서 난리가 났다고 합니다.아침마다 '프로그래밍'노래를 들으면서 춤을 추고 있다더라고요. 정말로 '코딩이 뚝딱'하는 모양이라네요!2. 왜 프로그래머는 여행을 싫어할까요?항상'지름길'을 찾아야 하기 때문에 목적지에 도착하기까지 시간이 오래 걸리거든요!3. 개발자들이 커피를 좋아하는 이유는 뭘까요?커피는'카프카'처럼 많은 메시지를 처리하는 데 도움을 주기 때문이죠!4. 애플이 나온 후 개발자들의 화장품 수요가 줄었다고 합니다.이제애플을 먹지 않고도 맥북만으로도 피부가 '( )등이'처럼 매끈해지기 때문이라네요!5. 코딩 중에 스트레스를 받으면 어떻게 해야할까요?당연히 '코드 블럭'을 사용해서 예외 처리하면 됩니다. 예외 처리하고 나면 스트레스도 없어지고 에러도 없어집니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" s="4" t="inlineStr"/>
+      <c r="C118" s="4" t="inlineStr"/>
+      <c r="D118" s="4" t="inlineStr">
+        <is>
+          <t>@님 와… 이게 개발자 농담인가요…</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" s="4" t="inlineStr"/>
+      <c r="C119" s="4" t="inlineStr"/>
+      <c r="D119" s="4" t="inlineStr">
+        <is>
+          <t>@님 그러니까, 이런게 뇌속을 표류하고 있고 그중 걸러진 것 만이 입밖으로 나오는..</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" s="4" t="inlineStr"/>
+      <c r="C120" s="4" t="inlineStr"/>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>@님 그러니까 이런 걸 농담으로 인정하지 않기 때문에,농담으로 인정할 만한 것만 모으면모두 25개가 되는 모양입니다?</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" s="4" t="inlineStr"/>
+      <c r="C121" s="4" t="inlineStr"/>
+      <c r="D121" s="4" t="inlineStr">
+        <is>
+          <t>@님 어우.. 부장님도 이렇지 않은데 말입니다...</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" s="4" t="inlineStr"/>
+      <c r="C122" s="4" t="inlineStr"/>
+      <c r="D122" s="4" t="inlineStr">
+        <is>
+          <t>@님 세상에나...</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" s="4" t="inlineStr"/>
+      <c r="C123" s="4" t="inlineStr"/>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>@ousia님 와, 이 덧글을읽고서 웃음이 나왔습니다 님의 덧글이 더 재밌습니다덕분에 웃었습니다 감사드립니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" s="4" t="inlineStr"/>
+      <c r="C124" s="4" t="inlineStr"/>
+      <c r="D124" s="4" t="inlineStr">
+        <is>
+          <t>하필 독일인이 연구해서 유머에 대한 이해가 어느정도 였을까라는 생각이 드네요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" s="4" t="inlineStr"/>
+      <c r="C125" s="4" t="inlineStr"/>
+      <c r="D125" s="4" t="inlineStr">
+        <is>
+          <t>@님 독일인들의 유머 감각은 전 세계 사람들의 평판에서 항상 타의 추종을 불허할 정도로 예외항목 아닐까요... ㅎㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" s="4" t="inlineStr"/>
+      <c r="C126" s="4" t="inlineStr"/>
+      <c r="D126" s="4" t="inlineStr">
+        <is>
+          <t>갯수는 모르겠고 일단 써먹을 농담은 안 나오긴 하네요...ChatGPT 4 입니다.---------------------남편: 와이프, 나는 네가 나에게 물어볼 때마다 "아무 것도 아니야"라고 말하는 이유를 알아냈어. 와이프: 그래, 왜그래? 남편:그냥, 너무 많은 것이 생각나서 하나를 고르기 어렵거든. 남편: 와이프, 너의 사랑은 나에게 빵과 같아. 와이프: 그래?왜 그래? 남편: 매일 아침, 너의 사랑이 없으면 나는 그날을 시작할 수 없거든. 남편: 와이프, 우리 결혼할 때 내가네게 어떤 선물을 가장 많이 줬을까? 와이프: 그게 뭐지? 남편: 내 성. 그래서 지금 너는 성을 가진왕비야.---------------------------- 와이프: 오늘은 왜 그렇게 일찍 일어났어요? 남편: 잠이 너무이뻐서 더 이상 못 보겠어서요. 남편: 와이프, 나 불멸의 사랑을 믿어? 와이프: 그럼, 왜? 남편: 다행이네, 내배터리도 영원히 가는 것 같거든. 와이프: 너 왜 나한테 아무것도 안 사줘? 남편: 이건 뭐, 내 사랑이 너무 커서 그런걸로 뭉갤 수가 없어서야.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" s="4" t="inlineStr"/>
+      <c r="C127" s="4" t="inlineStr"/>
+      <c r="D127" s="4" t="inlineStr">
+        <is>
+          <t>개그맨이 진짜 똑똑하다는게 이렇게 또 증명이 되네요/윤석열 탄핵</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" s="4" t="inlineStr"/>
+      <c r="C128" s="4" t="inlineStr"/>
+      <c r="D128" s="4" t="inlineStr">
+        <is>
+          <t>어짜피 우리는 25개의 농담도 못하잖아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>미국 비밀번호 공유 단속이 시작되자 넷플릭스 구독자 수 증가</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="inlineStr">
+        <is>
+          <t>[22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" s="4" t="inlineStr"/>
+      <c r="C130" s="4" t="inlineStr"/>
+      <c r="D130" s="4" t="inlineStr">
+        <is>
+          <t>전세계로 확대되는 건 시간 문제네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" s="4" t="inlineStr"/>
+      <c r="C131" s="4" t="inlineStr"/>
+      <c r="D131" s="4" t="inlineStr">
+        <is>
+          <t>많은 사람들이 공유 단속 시 탈퇴를 한다고 하지만, 애초에 결제자는 정해져 있으니 돈을 나눠내는 것이 아니라면 구독자 수에 유의미한 영향은 없을것 같네요. 당장 저같아도 가족들 보라고 거실 티비에 연결해놓고 결제 유지하는 이유가 커서 해지는 안할 듯 하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" s="4" t="inlineStr"/>
+      <c r="C132" s="4" t="inlineStr"/>
+      <c r="D132" s="4" t="inlineStr">
+        <is>
+          <t>Aㅏ... 본가랑 같이 못쓰게 되겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" s="4" t="inlineStr"/>
+      <c r="C133" s="4" t="inlineStr"/>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>쟘스님// 공유자와 함께 쓰는 이메일을 새롭게 만들어 해당 메일로 넷플 가입 후 계정 인증 시 각 공유자가 알아서 인증하는 방법으로 유지할 수있다고 하네요. 해외 거주 가족의 경우도 동일합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" s="4" t="inlineStr"/>
+      <c r="C134" s="4" t="inlineStr"/>
+      <c r="D134" s="4" t="inlineStr">
+        <is>
+          <t>라그나님// 이방법으로 인증한다면 부모님댁이랑 별 문제 없이 공유하겠네요. 지금도 안되면 전화오시니 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" s="4" t="inlineStr"/>
+      <c r="C135" s="4" t="inlineStr"/>
+      <c r="D135" s="4" t="inlineStr">
+        <is>
+          <t>이게 장기적으로 넷플릭스에게 이익이 될지는 시간이 지나봐야 알 것같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" s="4" t="inlineStr"/>
+      <c r="C136" s="4" t="inlineStr"/>
+      <c r="D136" s="4" t="inlineStr">
+        <is>
+          <t>4인 공유해서 쓰던 사람들중 25% 이상만 다시 가입해도 실질적으로 기존 가입자수보다 늘어나는것이니.</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" s="4" t="inlineStr"/>
+      <c r="C137" s="4" t="inlineStr"/>
+      <c r="D137" s="4" t="inlineStr">
+        <is>
+          <t>지금까지는 넷플릭스를 계정공유로 유지한 상태에서 다른 플랫폼을 함께 이용하거나 이용을 고려했었다면,앞으로는 자신에게 이득이 될 컨텐츠가어디에 있느냐를 엄격히 따져 이용하거나아니면 그때그때 필요한 곳에 결제해서 이용하는 유동적인 고객층이 점점 확대되겠지요.장기적으로이 시장이 어떻게 될지 지켜보는 것도 재미있는 볼거리가 되겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" s="4" t="inlineStr"/>
+      <c r="C138" s="4" t="inlineStr"/>
+      <c r="D138" s="4" t="inlineStr">
+        <is>
+          <t>앞으로 시리즈물이 1화는 넷플에, 2화는 디플에 3화는 훌루에 있는 시대가 올지도 모르죠...</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" s="4" t="inlineStr"/>
+      <c r="C139" s="4" t="inlineStr"/>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>어쨋건 아직은 넷플이 대체 불가하다는 자신감은 가질만 한 모양이군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" s="4" t="inlineStr"/>
+      <c r="C140" s="4" t="inlineStr"/>
+      <c r="D140" s="4" t="inlineStr">
+        <is>
+          <t>@에일리언님 이미 영화 같은 경우는그런 경우가 많지요. 드라마의 경우에 편별로 저작권을 따로 부여하지는 않은니 그런 경우는 안 생기겠지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" s="4" t="inlineStr"/>
+      <c r="C141" s="4" t="inlineStr"/>
+      <c r="D141" s="4" t="inlineStr">
+        <is>
+          <t>네 당연히 저렇게 될수 밖에 없어요... 인터넷에서나 넷플 공유 단속하면 손절한다고 했구요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" s="4" t="inlineStr"/>
+      <c r="C142" s="4" t="inlineStr"/>
+      <c r="D142" s="4" t="inlineStr">
+        <is>
+          <t>공유를 단속했을때 그들중 25퍼센트만 구독한다고 해도 이득이죠. 구독비용은 동일에 네트워크비용이 감소할테니..</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" s="4" t="inlineStr"/>
+      <c r="C143" s="4" t="inlineStr"/>
+      <c r="D143" s="4" t="inlineStr">
+        <is>
+          <t>1인 고화질 요금제부터 출시를 하는 게 도리 아닌가 싶네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" s="4" t="inlineStr"/>
+      <c r="C144" s="4" t="inlineStr"/>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>@줘팸각님 흠 그걸 내놔야 하면공유를 막지 않았겠져....;; 수익의 극대화가 목표인대 이런 요금제는 수익에 도움이 안되니깐요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" s="4" t="inlineStr"/>
+      <c r="C145" s="4" t="inlineStr"/>
+      <c r="D145" s="4" t="inlineStr">
+        <is>
+          <t>뭐 두고볼 일이긴한데...저는 그냥 1인 고화질 요금제나 내줬으면 하는...</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" s="4" t="inlineStr"/>
+      <c r="C146" s="4" t="inlineStr"/>
+      <c r="D146" s="4" t="inlineStr">
+        <is>
+          <t>광고형 스탠다드가 FHD 화질로 월 5500원이라 적당한 가격인것 같아 한국에서도 공유 단속 시작하면 광고형 스탠다드로 갈아타게 돼서 일단은구독자 수 증가할 것 같긴하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" s="4" t="inlineStr"/>
+      <c r="C147" s="4" t="inlineStr"/>
+      <c r="D147" s="4" t="inlineStr">
+        <is>
+          <t>저는 꽁짜로 봐요마나님이 내세요 ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" s="4" t="inlineStr"/>
+      <c r="C148" s="4" t="inlineStr"/>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>토렌트 + 유료VPN 조합이 다시 유행할 줄알았는데의외로 넷플에서 원하는 작품을 바로바로 찾아서 보는 편안함이 무시 못하나보네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" s="4" t="inlineStr"/>
+      <c r="C149" s="4" t="inlineStr"/>
+      <c r="D149" s="4" t="inlineStr">
+        <is>
+          <t>@펭수님 토렌트로 보는건불법이라서 단속 리스크가 있죠. 솔직히 돈 만원에 불법을 자행하는게 유행할 시대는 지났죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" s="4" t="inlineStr"/>
+      <c r="C150" s="4" t="inlineStr"/>
+      <c r="D150" s="4" t="inlineStr">
+        <is>
+          <t>초반엔 잘되다가 극장처럼 되지 않을까요 컨텐츠가 부실해지면 가입자수가 확 떨어지는..</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" s="4" t="inlineStr"/>
+      <c r="C151" s="4" t="inlineStr"/>
+      <c r="D151" s="4" t="inlineStr">
+        <is>
+          <t>저는 T-mobile의 번들로 사용 중이라, 제한이 아직 없나보네요. 타지에 있는 딸아이가 함께 볼 수 있도록 추가 요금 $6.5만 제가 내고,Standard 옵션으로 시청 중입니다. 혹시 T-mobile 사용자라면 한 번 알아보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>인텔, 개발자용 폰트 Intel One Mono 오픈 소스로 공개</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>[39]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" s="4" t="inlineStr"/>
+      <c r="C153" s="4" t="inlineStr"/>
+      <c r="D153" s="4" t="inlineStr">
+        <is>
+          <t>e의 밑부분이 뭔가 중간에 끊긴 느낌이 드네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" s="4" t="inlineStr"/>
+      <c r="C154" s="4" t="inlineStr"/>
+      <c r="D154" s="4" t="inlineStr">
+        <is>
+          <t>@편지왔숑님 'o'와 같은 글자와구분되게 하기 위해 그렇게 하지 않았을까 싶습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" s="4" t="inlineStr"/>
+      <c r="C155" s="4" t="inlineStr"/>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>@편지왔숑님 코딩용 폰트의 숫자영은가운데 점이나 선이 있어 영과 확실한 구분을 위해 e의 끝이 짧은 경향이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" s="4" t="inlineStr"/>
+      <c r="C156" s="4" t="inlineStr"/>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>@낭만검객님 @안됩니다님 제가 주로 사용하는JetBrains Mono나 Consolas 등 기존 메이저한 고정폭 폰트들보다 미묘하게 더 짧게 끊은 것 같아요 보통의 코딩용 폰트들은최하단을 시작으로 삼고 우측에서 완전히 이어지는 부분을 끝으로 삼았을때, 1/3이나 1/2에서 획이 끝나는데 얘는 1/4에서 끝나는 느낌이네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" s="4" t="inlineStr"/>
+      <c r="C157" s="4" t="inlineStr"/>
+      <c r="D157" s="4" t="inlineStr">
+        <is>
+          <t>(이젠 쓸일이 없지만)깔끔해 보여서 써보고 싶은 서체네요 ^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" s="4" t="inlineStr"/>
+      <c r="C158" s="4" t="inlineStr"/>
+      <c r="D158" s="4" t="inlineStr">
+        <is>
+          <t>소문자 l 맘에 드네요. 항상 대문자 I(아이)와 헥갈리는건데.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" s="4" t="inlineStr"/>
+      <c r="C159" s="4" t="inlineStr"/>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>당장 써봐야겠네요 ㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" s="4" t="inlineStr"/>
+      <c r="C160" s="4" t="inlineStr"/>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>소문자 l(엘)도 정말 좋네요. 대문자 I(아이)랑 너무 헷갈렸는데....l</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" s="4" t="inlineStr"/>
+      <c r="C161" s="4" t="inlineStr"/>
+      <c r="D161" s="4" t="inlineStr">
+        <is>
+          <t>다른건 전반적으로 좋은데, 개인적으론 % 의 선이 일직선이 아니고 끊어졌는데 그것도 정렬이 안된게 많이 거슬리네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" s="4" t="inlineStr"/>
+      <c r="C162" s="4" t="inlineStr"/>
+      <c r="D162" s="4" t="inlineStr">
+        <is>
+          <t>이미지로 보기엔 글자가 우분투 모노나 젯브레인즈 모노보다 좀 더 얇쌍해 보이는데 좀만 더 두꺼우면 좋겠다는 생각이 드네요 한 번사용해보고 젯브레인즈 모노에서 넘어갈만한지 고민해봐야겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" s="4" t="inlineStr"/>
+      <c r="C163" s="4" t="inlineStr"/>
+      <c r="D163" s="4" t="inlineStr">
+        <is>
+          <t>중괄호가 약간 과격?한 느낌인거 빼곤 맘에드네요^^</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" s="4" t="inlineStr"/>
+      <c r="C164" s="4" t="inlineStr"/>
+      <c r="D164" s="4" t="inlineStr">
+        <is>
+          <t>시인성을 높이기 위한 노력이 보이네요. 근데, @은 세타처럼 보여서 -ㅅ-;;; 그게 좀 걸리네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" s="4" t="inlineStr"/>
+      <c r="C165" s="4" t="inlineStr"/>
+      <c r="D165" s="4" t="inlineStr">
+        <is>
+          <t>묵언님// 제가 아는 언어 내에서는 세타를 쓰는 언어가 없는데 안쓰인다면 상관없지 않을까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" s="4" t="inlineStr"/>
+      <c r="C166" s="4" t="inlineStr"/>
+      <c r="D166" s="4" t="inlineStr">
+        <is>
+          <t>@프밍님 세타 사용여부 관점보다는@ 인식여부 관점에서 썼습니다. Sin세타 cos세타로 세타는 매우 익숙한 문자라, @을 눈앞에 두고 @을 못 읽는/찾는 모양새가 걱정되는것이지요. ㅎㅎ아는만큼 보이므로 맥락을 고려해서 보면 읽는데는 문제 없겠습니다만...</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" s="4" t="inlineStr"/>
+      <c r="C167" s="4" t="inlineStr"/>
+      <c r="D167" s="4" t="inlineStr">
+        <is>
+          <t>터미널에서 쓰기 좋아보이네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" s="4" t="inlineStr"/>
+      <c r="C168" s="4" t="inlineStr"/>
+      <c r="D168" s="4" t="inlineStr">
+        <is>
+          <t>얌전하게생겼네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" s="4" t="inlineStr"/>
+      <c r="C169" s="4" t="inlineStr"/>
+      <c r="D169" s="4" t="inlineStr">
+        <is>
+          <t>개발자는 아니지만, 좋네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" s="4" t="inlineStr"/>
+      <c r="C170" s="4" t="inlineStr"/>
+      <c r="D170" s="4" t="inlineStr">
+        <is>
+          <t>소문자 L이 대문자 I와 헛갈릴 일 없겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" s="4" t="inlineStr"/>
+      <c r="C171" s="4" t="inlineStr"/>
+      <c r="D171" s="4" t="inlineStr">
+        <is>
+          <t>저는 Consolas 쓰는데 이거도 좋아용</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" s="4" t="inlineStr"/>
+      <c r="C172" s="4" t="inlineStr"/>
+      <c r="D172" s="4" t="inlineStr">
+        <is>
+          <t>consolas 사용 중인데 요녀석도 한번 적용해 보아야 겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" s="4" t="inlineStr"/>
+      <c r="C173" s="4" t="inlineStr"/>
+      <c r="D173" s="4" t="inlineStr">
+        <is>
+          <t>Consolas 사용하는데 몇몇 빼고는 거의 같아 보입니다. 크기는 좀 더 큽니다. 좀 써보다 가 중괄호가 좀 어색해서 다시Consolas 로 돌아 왔어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" s="4" t="inlineStr"/>
+      <c r="C174" s="4" t="inlineStr"/>
+      <c r="D174" s="4" t="inlineStr">
+        <is>
+          <t>XT 시절의 모노크롬에서 보던 느낌이네요. ㅎvscode에 d2coding 대신 적용해 봐야겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" s="4" t="inlineStr"/>
+      <c r="C175" s="4" t="inlineStr"/>
+      <c r="D175" s="4" t="inlineStr">
+        <is>
+          <t>{ , } ㄷㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" s="4" t="inlineStr"/>
+      <c r="C176" s="4" t="inlineStr"/>
+      <c r="D176" s="4" t="inlineStr">
+        <is>
+          <t>도미노님// ㅎㅎ 저도 {} 맘에 드네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" s="4" t="inlineStr"/>
+      <c r="C177" s="4" t="inlineStr"/>
+      <c r="D177" s="4" t="inlineStr">
+        <is>
+          <t>OTF zip 파일은 다운로드 받으니 8개 폰트 파일이 있는데, 이걸 전부 폰트 관리자에 등록하는지요 ? 아니면 1개 마음에 드는것만 등록하면 될런지요 ?얼핏 추측 했은데는 1개 묶음만 등록하면, 앱에서 안에 있는 8개 전부 사용할 수 있을것으로 기대하긴했습니다.regular 폰트 1개만 설치 해 보았는데, 너무 안 이뻐서 놀랐어요 ~.~ 나머지 7개도 큰 차이 가있을려나... 전부 해 봐야될런지...아시는 분의 조언 부탁 드립니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" s="4" t="inlineStr"/>
+      <c r="C178" s="4" t="inlineStr"/>
+      <c r="D178" s="4" t="inlineStr">
+        <is>
+          <t>@전설속의미남님님 8개 모두등록하면 됩니다. 그리고 일반 사용자는 굳이 OTF를 등록할 필요 없이 TTF로 하셔도 충분합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" s="4" t="inlineStr"/>
+      <c r="C179" s="4" t="inlineStr"/>
+      <c r="D179" s="4" t="inlineStr">
+        <is>
+          <t>@전설속의미남님님 폰트가 하나에익숙해지면 다른 것들이 못생겨보이는거 같아요 저는 맥에서 Monaco 많이 쓰다 JetBrains Mono로 넘어갔는데 처음에는 글자가 위아래로길쭉해보여서 되게 이상했거든요? 그런데 그거에 익숙해지니 다시 Monaco나 다른 일반적인 고정폭 글꼴들이 너무 납작해보이더군요 ㅋㅋ 굳이익숙한걸 바꿔야할 필요는 없지만 어찌됐든 변화를 원한다면 뇌이징 시간이 필요한 듯합니다 ㅋㅋ (아 그리고 혹시나 고정폭 글꼴 개념에 대해서모르신다면 일반 용도로 사용시 매우 이상해보일 수 있습니다 제목에 개발자용 폰트라고 써있지만 혹시나 모르실까봐...)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" s="4" t="inlineStr"/>
+      <c r="C180" s="4" t="inlineStr"/>
+      <c r="D180" s="4" t="inlineStr">
+        <is>
+          <t>중괄호가 마음에 드네유.Inconsolata 보다 나은 듯하네유.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" s="4" t="inlineStr"/>
+      <c r="C181" s="4" t="inlineStr"/>
+      <c r="D181" s="4" t="inlineStr">
+        <is>
+          <t>개인적으로 D2Coding이 조금 더 나은 것 같네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" s="4" t="inlineStr"/>
+      <c r="C182" s="4" t="inlineStr"/>
+      <c r="D182" s="4" t="inlineStr">
+        <is>
+          <t>지금 쓰는 폰트에 너무 익숙해져서 그런가 별로네요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" s="4" t="inlineStr"/>
+      <c r="C183" s="4" t="inlineStr"/>
+      <c r="D183" s="4" t="inlineStr">
+        <is>
+          <t>사용해봤는데 Consolas에 익숙해진 눈이 거부하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" s="4" t="inlineStr"/>
+      <c r="C184" s="4" t="inlineStr"/>
+      <c r="D184" s="4" t="inlineStr">
+        <is>
+          <t>중괄호가 독특하네요 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" s="4" t="inlineStr"/>
+      <c r="C185" s="4" t="inlineStr"/>
+      <c r="D185" s="4" t="inlineStr">
+        <is>
+          <t>여러가지 다 써봤는데 FixedSys 만한게 없네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" s="4" t="inlineStr"/>
+      <c r="C186" s="4" t="inlineStr"/>
+      <c r="D186" s="4" t="inlineStr">
+        <is>
+          <t>여러가지 써봤는데 개인적으로는 D2Coding이 가장 괜찮네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" s="4" t="inlineStr"/>
+      <c r="C187" s="4" t="inlineStr"/>
+      <c r="D187" s="4" t="inlineStr">
+        <is>
+          <t>오~ 좋네요.이거에 D2_Coding을 fallback으로 써봐야겠어요.ligature도 지원하면 좋을 거 같아요~!</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" s="4" t="inlineStr"/>
+      <c r="C188" s="4" t="inlineStr"/>
+      <c r="D188" s="4" t="inlineStr">
+        <is>
+          <t>intellij 윈도우, 맥에서 Intel One Mono, Fira Code 둘 다 적용시켜봤는데 맥이 확실히 보기 더편하네요...OS차원에서 렌더링 차이도 있고, 모니터 HIDPI 문제도 있겠지만..</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" s="4" t="inlineStr"/>
+      <c r="C189" s="4" t="inlineStr"/>
+      <c r="D189" s="4" t="inlineStr">
+        <is>
+          <t>중괄호. 학교 다닐때 아니 고딩? 중딩? 때부터 써.. 아니 그렸는데 아직도 이쁘게 안 나옵니다. 흙흙</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" s="4" t="inlineStr"/>
+      <c r="C190" s="4" t="inlineStr"/>
+      <c r="D190" s="4" t="inlineStr">
+        <is>
+          <t>한국인이면 ㄴㄴ코딩이죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" s="4" t="inlineStr"/>
+      <c r="C191" s="4" t="inlineStr"/>
+      <c r="D191" s="4" t="inlineStr">
+        <is>
+          <t>{ } ... 맺힌게 많았군요.저같은 노안에게도 좋겠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>‘블루투스 실명제’ 도입한다는 중국</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>[37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" s="4" t="inlineStr"/>
+      <c r="C193" s="4" t="inlineStr"/>
+      <c r="D193" s="4" t="inlineStr">
+        <is>
+          <t>중국에선 이게 가능하군요. 굥통실이 이거 열라 검토하겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" s="4" t="inlineStr"/>
+      <c r="C194" s="4" t="inlineStr"/>
+      <c r="D194" s="4" t="inlineStr">
+        <is>
+          <t>탈중국 외치면서 중국에 참 관심 많아요. 쟤네는 죽든말든 관심 끄고, 망국의 길로 들어선 우리나라 상황이나 좀 보도했으면 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" s="4" t="inlineStr"/>
+      <c r="C195" s="4" t="inlineStr"/>
+      <c r="D195" s="4" t="inlineStr">
+        <is>
+          <t>대박이네요. 역시 공산당.. -_-;; 클라스</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" s="4" t="inlineStr"/>
+      <c r="C196" s="4" t="inlineStr"/>
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>사람마다 에어태그 하나씩 달아두고 추적하는꼴이네요ㅋㅋ대단한 나라...</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" s="4" t="inlineStr"/>
+      <c r="C197" s="4" t="inlineStr"/>
+      <c r="D197" s="4" t="inlineStr">
+        <is>
+          <t>여로모로 대단하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" s="4" t="inlineStr"/>
+      <c r="C198" s="4" t="inlineStr"/>
+      <c r="D198" s="4" t="inlineStr">
+        <is>
+          <t>한국 정부라면 좋다고 따라할 듯 합니다. 아마 국민들은 환영할거고요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" s="4" t="inlineStr"/>
+      <c r="C199" s="4" t="inlineStr"/>
+      <c r="D199" s="4" t="inlineStr">
+        <is>
+          <t>어짜피 중국은 안드로이드 안 쓰니 상관 없고 애플은 중국에 맞춰서 수정 후 발매하겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr"/>
+      <c r="B200" s="4" t="inlineStr"/>
+      <c r="C200" s="4" t="inlineStr"/>
+      <c r="D200" s="4" t="inlineStr">
+        <is>
+          <t>중국에서 랜덤 맥어드레스 기능 다 빠지겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr"/>
+      <c r="B201" s="4" t="inlineStr"/>
+      <c r="C201" s="4" t="inlineStr"/>
+      <c r="D201" s="4" t="inlineStr">
+        <is>
+          <t>일당독재 체제에서 할법한 일이긴 하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr"/>
+      <c r="B202" s="4" t="inlineStr"/>
+      <c r="C202" s="4" t="inlineStr"/>
+      <c r="D202" s="4" t="inlineStr">
+        <is>
+          <t>블루투스가 원래 취약점이 많아요. 단거리 간단 한 통화 용도로 설계 된거라..도감청에 취약 하죠. 4.0 버전 이후부터는 개선 된것 같더라고요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr"/>
+      <c r="B203" s="4" t="inlineStr"/>
+      <c r="C203" s="4" t="inlineStr"/>
+      <c r="D203" s="4" t="inlineStr">
+        <is>
+          <t>제가 뭘 보고 있는거죠 ㅋㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr"/>
+      <c r="B204" s="4" t="inlineStr"/>
+      <c r="C204" s="4" t="inlineStr"/>
+      <c r="D204" s="4" t="inlineStr">
+        <is>
+          <t>이거 지난번에 에어드롭으로 무분별하게 공산당 비방 내용 뿌리는거 때문에 도입해서 막으려고 하는거네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr"/>
+      <c r="B205" s="4" t="inlineStr"/>
+      <c r="C205" s="4" t="inlineStr"/>
+      <c r="D205" s="4" t="inlineStr">
+        <is>
+          <t>팀 쿡조차 wtf 를 외치게 할 만한 조치네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr"/>
+      <c r="B206" s="4" t="inlineStr"/>
+      <c r="C206" s="4" t="inlineStr"/>
+      <c r="D206" s="4" t="inlineStr">
+        <is>
+          <t>와..</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr"/>
+      <c r="B207" s="4" t="inlineStr"/>
+      <c r="C207" s="4" t="inlineStr"/>
+      <c r="D207" s="4" t="inlineStr">
+        <is>
+          <t>가장 나쁜놈이 입으로 공정, 준법, 도덕 등을 외치며 온갖 나쁜짓 하는 것이죠.저는 오히려 중국처럼 언행일치하는 건 나쁘지 않다고생각해요.하지만 언행불일치에 대표적 국가가 미국, 일본, 한국 이런 나라잖아요.오히려 후자가 실제 더 나쁜놈들이죠.옳고그림, 선악은 보편다탕성이 없어지는 시대이기 때문에 언행일치하면 그게 더 나은 것 같아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr"/>
+      <c r="B208" s="4" t="inlineStr"/>
+      <c r="C208" s="4" t="inlineStr"/>
+      <c r="D208" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr"/>
+      <c r="B209" s="4" t="inlineStr"/>
+      <c r="C209" s="4" t="inlineStr"/>
+      <c r="D209" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님혹시 국적이 중국이신가요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr"/>
+      <c r="B210" s="4" t="inlineStr"/>
+      <c r="C210" s="4" t="inlineStr"/>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr"/>
+      <c r="B211" s="4" t="inlineStr"/>
+      <c r="C211" s="4" t="inlineStr"/>
+      <c r="D211" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님 와... 메모하고갑니다..;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr"/>
+      <c r="B212" s="4" t="inlineStr"/>
+      <c r="C212" s="4" t="inlineStr"/>
+      <c r="D212" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr"/>
+      <c r="B213" s="4" t="inlineStr"/>
+      <c r="C213" s="4" t="inlineStr"/>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님 그건 그것대로악독한 악이고,이건 이거대로 악독한 악이죠 악이란 건, 이미 어떤 최저수준을 넘어선 것이기 때문에 비교의 의미 자체가없어요.회개시켜 선히 될 것 아니면 없애야 할 만한게 악이잖아요.중국도 윤군도 아작성 박살이 나야 합니다. 악이니까요.사람에게 극해를 끼치는</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr"/>
+      <c r="B214" s="4" t="inlineStr"/>
+      <c r="C214" s="4" t="inlineStr"/>
+      <c r="D214" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr"/>
+      <c r="B215" s="4" t="inlineStr"/>
+      <c r="C215" s="4" t="inlineStr"/>
+      <c r="D215" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님 小心被当局逮住。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr"/>
+      <c r="B216" s="4" t="inlineStr"/>
+      <c r="C216" s="4" t="inlineStr"/>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr"/>
+      <c r="B217" s="4" t="inlineStr"/>
+      <c r="C217" s="4" t="inlineStr"/>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>@오차원고양이님 캡쳐용 너무노골적이네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr"/>
+      <c r="B218" s="4" t="inlineStr"/>
+      <c r="C218" s="4" t="inlineStr"/>
+      <c r="D218" s="4" t="inlineStr">
+        <is>
+          <t>블루투스 변조가 유행하겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr"/>
+      <c r="B219" s="4" t="inlineStr"/>
+      <c r="C219" s="4" t="inlineStr"/>
+      <c r="D219" s="4" t="inlineStr">
+        <is>
+          <t>누가 에어드롭이나 블루투스로 천안문 탱크 사진 유포 했었나 봅니다...?</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr"/>
+      <c r="B220" s="4" t="inlineStr"/>
+      <c r="C220" s="4" t="inlineStr"/>
+      <c r="D220" s="4" t="inlineStr">
+        <is>
+          <t>애플은 중국의 따듯한 젖꼭지를 열심히 빨기위해 또 덥썩 받으주겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr"/>
+      <c r="B221" s="4" t="inlineStr"/>
+      <c r="C221" s="4" t="inlineStr"/>
+      <c r="D221" s="4" t="inlineStr">
+        <is>
+          <t>실명제랑 사회주의 가치관이 맞나요? ㄷㄷ독재주의의 감시망인거 같은대</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr"/>
+      <c r="B222" s="4" t="inlineStr"/>
+      <c r="C222" s="4" t="inlineStr"/>
+      <c r="D222" s="4" t="inlineStr">
+        <is>
+          <t>중국 다음가는 네트워크 검열국가인 어떤 나라에서도 곧 도입하겠군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr"/>
+      <c r="B223" s="4" t="inlineStr"/>
+      <c r="C223" s="4" t="inlineStr"/>
+      <c r="D223" s="4" t="inlineStr">
+        <is>
+          <t>우리 윤군 신나서 검토 지시하겠군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr"/>
+      <c r="B224" s="4" t="inlineStr"/>
+      <c r="C224" s="4" t="inlineStr"/>
+      <c r="D224" s="4" t="inlineStr">
+        <is>
+          <t>블루투스 변조기, 가상 블루투스 신호 동글이 나올것입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr"/>
+      <c r="B225" s="4" t="inlineStr"/>
+      <c r="C225" s="4" t="inlineStr"/>
+      <c r="D225" s="4" t="inlineStr">
+        <is>
+          <t>헤더에 모주석 어록 인코딩해야 하나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr"/>
+      <c r="B226" s="4" t="inlineStr"/>
+      <c r="C226" s="4" t="inlineStr"/>
+      <c r="D226" s="4" t="inlineStr">
+        <is>
+          <t>예전에 서방국가들은 중국이 경제성장을 이루면 자연스레 개인의 자유에 대한 요구가 높아질 거라 기대했는데 ...이런 거 보면 정반대로 가는 거같습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr"/>
+      <c r="B227" s="4" t="inlineStr"/>
+      <c r="C227" s="4" t="inlineStr"/>
+      <c r="D227" s="4" t="inlineStr">
+        <is>
+          <t>@꽃길만걷자!님 경제성장 -&gt;외부 세계에 대한 관심 증가 -&gt; 중산층의 증가와 시민 사회가 만들어지고 동시에 시민의 정치적 목소리가 커짐 -&gt; 사회, 정치적민주주의 이룩. 중국은 경제만 시장경제를 끌어들여서 성장시키고, 이를 통해 벌어들인 수익을 공산당을 견고하게 만들고, 감시와억압, 검열에 쏟아 부었죠. 외부 세계의 유입을 철저하게 통제하였고, 스스로 자라나는 풀뿌리 민주주의와 시민 의식도 잔인하게 진압함과 동시에,우리가 분열하면 과거 굴욕의 100년이 반복된다.(아편 전쟁을 비롯한 서구 열강과 일본의 침략)는 식으로 관심을 못 갖게 만들었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr"/>
+      <c r="B228" s="4" t="inlineStr"/>
+      <c r="C228" s="4" t="inlineStr"/>
+      <c r="D228" s="4" t="inlineStr">
+        <is>
+          <t>한국에서는 대포폰 방지라며 실명으로 IMEI 두 개다 제공 안 하면 폰 정지시켜버리죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr"/>
+      <c r="B229" s="4" t="inlineStr"/>
+      <c r="C229" s="4" t="inlineStr"/>
+      <c r="D229" s="4" t="inlineStr">
+        <is>
+          <t>https://www.yna.co.kr/view/AKR20221110131800009중국공산당의 압박에 작년 말 애플이 중국 아이폰 에어드랍 시간을 10분으로 제한했었죠. 별로 효과가 없었다고 생각하나 보네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr"/>
+      <c r="B230" s="4" t="inlineStr"/>
+      <c r="C230" s="4" t="inlineStr"/>
+      <c r="D230" s="4" t="inlineStr">
+        <is>
+          <t>@HTR님 놀랍게도 중국만이 아니라월드와이드 조칩니다...ㅠㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr"/>
+      <c r="B231" s="4" t="inlineStr"/>
+      <c r="C231" s="4" t="inlineStr"/>
+      <c r="D231" s="4" t="inlineStr">
+        <is>
+          <t>@ㅇㅇ67님 중국만제한하면 눈치보이니까 월드와이드로 ㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr"/>
+      <c r="B232" s="4" t="inlineStr"/>
+      <c r="C232" s="4" t="inlineStr"/>
+      <c r="D232" s="4" t="inlineStr">
+        <is>
+          <t>조만간 중국 인민들 몸속에 칩 박아넣겠네요;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr"/>
+      <c r="B233" s="4" t="inlineStr"/>
+      <c r="C233" s="4" t="inlineStr"/>
+      <c r="D233" s="4" t="inlineStr">
+        <is>
+          <t>중국에서 아이폰4 발매시 WIFI 차단하고 나왔습니다. 뭐 그럴려니</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr"/>
+      <c r="B234" s="4" t="inlineStr"/>
+      <c r="C234" s="4" t="inlineStr"/>
+      <c r="D234" s="4" t="inlineStr">
+        <is>
+          <t>그 놈의 사회주의 가치…독재정권 가치에 맞는거겠지…어째 북한하고 똑같은지…</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr"/>
+      <c r="B235" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>빙 챗, 데스크탑 엣지 브라우저에서 음성으로 질문 지원 (한국어 아직 미지원)</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr"/>
+      <c r="B236" s="4" t="inlineStr"/>
+      <c r="C236" s="4" t="inlineStr"/>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>저는 어차피 안돼도 상관없는게 병X같지만 궁금한거 물어볼때는 차라리 텍스트로 치는게 더 편하더라구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr"/>
+      <c r="B237" s="4" t="inlineStr"/>
+      <c r="C237" s="4" t="inlineStr"/>
+      <c r="D237" s="4" t="inlineStr">
+        <is>
+          <t>음성으로 검색하고 텍스트로만 안내해주는 옵션이 생겼으면좋겠네요..은근 음성안내 거부감이....</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr"/>
+      <c r="B238" s="4" t="inlineStr"/>
+      <c r="C238" s="4" t="inlineStr"/>
+      <c r="D238" s="4" t="inlineStr">
+        <is>
+          <t>코타나의 영혼이...</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr"/>
+      <c r="B239" s="4" t="inlineStr"/>
+      <c r="C239" s="4" t="inlineStr"/>
+      <c r="D239" s="4" t="inlineStr">
+        <is>
+          <t>빙 안드로이드 앱 한국어 음성으로 질문도 받고 답도 해주던데요</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr"/>
+      <c r="B240" s="4" t="inlineStr"/>
+      <c r="C240" s="4" t="inlineStr"/>
+      <c r="D240" s="4" t="inlineStr">
+        <is>
+          <t>영어 회화 선생님으로 띡이네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr"/>
+      <c r="B241" s="4" t="inlineStr"/>
+      <c r="C241" s="4" t="inlineStr"/>
+      <c r="D241" s="4" t="inlineStr">
+        <is>
+          <t>이제 아이언맨의 자비스가 현실이 되네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr"/>
+      <c r="B242" s="4" t="inlineStr"/>
+      <c r="C242" s="4" t="inlineStr"/>
+      <c r="D242" s="4" t="inlineStr">
+        <is>
+          <t>윈도우10에서 한국어 코타나 지원한다고 사기치다가 결국 안 해주었는데 이건 해줄까요....</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr"/>
+      <c r="B243" s="4" t="inlineStr"/>
+      <c r="C243" s="4" t="inlineStr"/>
+      <c r="D243" s="4" t="inlineStr">
+        <is>
+          <t>음성으로 대답하게 하면, 느릿느릿한 텍스트보다 대답 더 빨리 하려나요. ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr"/>
+      <c r="B244" s="4" t="inlineStr"/>
+      <c r="C244" s="4" t="inlineStr"/>
+      <c r="D244" s="4" t="inlineStr">
+        <is>
+          <t>코타나 한글 공식지원부터...</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr"/>
+      <c r="B245" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>EV충전업체 3곳 테슬라충전규격 지원 발표</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>[45]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr"/>
+      <c r="B246" s="4" t="inlineStr"/>
+      <c r="C246" s="4" t="inlineStr"/>
+      <c r="D246" s="4" t="inlineStr">
+        <is>
+          <t>CCS1은 이러다....일본차데모처럼 한국 독자규격이 되어버릴지도... ㅠㅜ</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr"/>
+      <c r="B247" s="4" t="inlineStr"/>
+      <c r="C247" s="4" t="inlineStr"/>
+      <c r="D247" s="4" t="inlineStr">
+        <is>
+          <t>현기차도 수출하려면 NACS 필수가 되겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr"/>
+      <c r="B248" s="4" t="inlineStr"/>
+      <c r="C248" s="4" t="inlineStr"/>
+      <c r="D248" s="4" t="inlineStr">
+        <is>
+          <t>이러면 저 제조사들은 테슬라에 로열티를 줘야하나요? 궁금해서 여쭤봅니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr"/>
+      <c r="B249" s="4" t="inlineStr"/>
+      <c r="C249" s="4" t="inlineStr"/>
+      <c r="D249" s="4" t="inlineStr">
+        <is>
+          <t>nosm0713님// 로열티 앖을걸요. 특허 공개해 버려서</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr"/>
+      <c r="B250" s="4" t="inlineStr"/>
+      <c r="C250" s="4" t="inlineStr"/>
+      <c r="D250" s="4" t="inlineStr">
+        <is>
+          <t>@님 기존 충전방식처럼 따로 카드를 찍고 연결하는거면 없을텐데 테슬라처럼 꼽충을 하려면 돈이들어가야할것같아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr"/>
+      <c r="B251" s="4" t="inlineStr"/>
+      <c r="C251" s="4" t="inlineStr"/>
+      <c r="D251" s="4" t="inlineStr">
+        <is>
+          <t>@라면라면님 특허공개해서 로열티없겠지만 요금은 평생공짜라고 하지 않은 이상 향후 캐시플로가 될 여력이 많겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr"/>
+      <c r="B252" s="4" t="inlineStr"/>
+      <c r="C252" s="4" t="inlineStr"/>
+      <c r="D252" s="4" t="inlineStr">
+        <is>
+          <t>게임셋이네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr"/>
+      <c r="B253" s="4" t="inlineStr"/>
+      <c r="C253" s="4" t="inlineStr"/>
+      <c r="D253" s="4" t="inlineStr">
+        <is>
+          <t>근데 단자 크기랑 무게가 어떻게 저렇게 많이 차이날 수 있는건지 신기해요</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr"/>
+      <c r="B254" s="4" t="inlineStr"/>
+      <c r="C254" s="4" t="inlineStr"/>
+      <c r="D254" s="4" t="inlineStr">
+        <is>
+          <t>@DLBIA님 단자를 너무보수적으로 만들었어요표준규격이랍시고 완속(J1772) 아래에 급속단자를 따로 달고 급속이니 허용용량을 넉넉히 해서 케이블을 굵게만들어버렸어요.테슬라는 통신을 통해 두단자가 완속인지 급속인지 구분해서 둘 다 사용 가능하고 V3부터는 케이블에 냉매를 집어넣어서 전송중과열을 잡았죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr"/>
+      <c r="B255" s="4" t="inlineStr"/>
+      <c r="C255" s="4" t="inlineStr"/>
+      <c r="D255" s="4" t="inlineStr">
+        <is>
+          <t>@고지보딩님 그렇군요 설명감사드립니다. 냉매도 들어가는줄은 몰랐네요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr"/>
+      <c r="B256" s="4" t="inlineStr"/>
+      <c r="C256" s="4" t="inlineStr"/>
+      <c r="D256" s="4" t="inlineStr">
+        <is>
+          <t>@DLBIA님 딱 이 규격같습니다ㅎㅎ 테슬라는 c타입이구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr"/>
+      <c r="B257" s="4" t="inlineStr"/>
+      <c r="C257" s="4" t="inlineStr"/>
+      <c r="D257" s="4" t="inlineStr">
+        <is>
+          <t>충전기를 테슬라 슈퍼차져 성능/가격으로 만들수 없다면 결국 충전사업이 테슬라 독점이 되겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr"/>
+      <c r="B258" s="4" t="inlineStr"/>
+      <c r="C258" s="4" t="inlineStr"/>
+      <c r="D258" s="4" t="inlineStr">
+        <is>
+          <t>예정된 수순으로 가는것 같네요.. 애초에 저렇게 무식한 산업용 규격이 일반 사용자 용도로 롱런하긴 어려워 보였습니다. 무선충전이 일반화 될때까진North America Charging Standard가 북미지역 표준이 되겠네요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr"/>
+      <c r="B259" s="4" t="inlineStr"/>
+      <c r="C259" s="4" t="inlineStr"/>
+      <c r="D259" s="4" t="inlineStr">
+        <is>
+          <t>크라이슬러는 어떤 선택을 할까요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr"/>
+      <c r="B260" s="4" t="inlineStr"/>
+      <c r="C260" s="4" t="inlineStr"/>
+      <c r="D260" s="4" t="inlineStr">
+        <is>
+          <t>모양이 많이 차이나긴 하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr"/>
+      <c r="B261" s="4" t="inlineStr"/>
+      <c r="C261" s="4" t="inlineStr"/>
+      <c r="D261" s="4" t="inlineStr">
+        <is>
+          <t>@Dozen님 아? 테슬라도규격이 두가지 인가요??</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr"/>
+      <c r="B262" s="4" t="inlineStr"/>
+      <c r="C262" s="4" t="inlineStr"/>
+      <c r="D262" s="4" t="inlineStr">
+        <is>
+          <t>@비티비님 유럽은 유럽규격을 무조건 탑재해야해서 유럽수출 모델만 다른 걸로 알고 있어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr"/>
+      <c r="B263" s="4" t="inlineStr"/>
+      <c r="C263" s="4" t="inlineStr"/>
+      <c r="D263" s="4" t="inlineStr">
+        <is>
+          <t>@비티비님 ccs 2 쓰는 국가는테슬라가 ccs 2로 팝니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr"/>
+      <c r="B264" s="4" t="inlineStr"/>
+      <c r="C264" s="4" t="inlineStr"/>
+      <c r="D264" s="4" t="inlineStr">
+        <is>
+          <t>@비티비님 해당 표에는안나오지만, 중국에는 GB/T 20234포트로 나오니 세가지입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr"/>
+      <c r="B265" s="4" t="inlineStr"/>
+      <c r="C265" s="4" t="inlineStr"/>
+      <c r="D265" s="4" t="inlineStr">
+        <is>
+          <t>라임라스ry님// 제 차량이 초기 유럽형 플러그였는데 ac3상미국형 플러그로 전차종 교체 작업되서 미국형만 있습니다제가 알기로유럽형으로 남아계신분은 없습니당</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr"/>
+      <c r="B266" s="4" t="inlineStr"/>
+      <c r="C266" s="4" t="inlineStr"/>
+      <c r="D266" s="4" t="inlineStr">
+        <is>
+          <t>테슬라가 멱살잡고 끌고 온 미국입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr"/>
+      <c r="B267" s="4" t="inlineStr"/>
+      <c r="C267" s="4" t="inlineStr"/>
+      <c r="D267" s="4" t="inlineStr">
+        <is>
+          <t>미국은 테슬라 없었으면 어쩔뻔 했나요 ㄷㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr"/>
+      <c r="B268" s="4" t="inlineStr"/>
+      <c r="C268" s="4" t="inlineStr"/>
+      <c r="D268" s="4" t="inlineStr">
+        <is>
+          <t>테슬라충전기가 압도적으로 좋죠 ㅎㅎ 둘다 써보면 차데모/디콤은 진짜 이걸 이렇게 무겁게 만들수밖에 없는건가? 생각이 듭니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr"/>
+      <c r="B269" s="4" t="inlineStr"/>
+      <c r="C269" s="4" t="inlineStr"/>
+      <c r="D269" s="4" t="inlineStr">
+        <is>
+          <t>무게 편리함 등이 차원이 달라서 ㅠㅠ갠적으론 테슬라가 표준이 되었으면 좋겠습니다 ㅠㅠ/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr"/>
+      <c r="B270" s="4" t="inlineStr"/>
+      <c r="C270" s="4" t="inlineStr"/>
+      <c r="D270" s="4" t="inlineStr">
+        <is>
+          <t>가끔씩 dc콤보 사용하는데,선이 너무 무겁습니다. 여자분들은 사용하기 어려워요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr"/>
+      <c r="B271" s="4" t="inlineStr"/>
+      <c r="C271" s="4" t="inlineStr"/>
+      <c r="D271" s="4" t="inlineStr">
+        <is>
+          <t>전기차 중전이라는게 앞으로 계속해서 더 좋은 충전단자들이 나올꺼기 떄문에 표준이라는게 맞추기 어렵다고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr"/>
+      <c r="B272" s="4" t="inlineStr"/>
+      <c r="C272" s="4" t="inlineStr"/>
+      <c r="D272" s="4" t="inlineStr">
+        <is>
+          <t>크기도 차이나지만 무게가 엄청 차이나죠..;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr"/>
+      <c r="B273" s="4" t="inlineStr"/>
+      <c r="C273" s="4" t="inlineStr"/>
+      <c r="D273" s="4" t="inlineStr">
+        <is>
+          <t>@byul_____님 들어보면 무게랑 강직도 때문인지 되게 위험해 보인다는 느낌이 들더라구요. 전력 송배전 케이블 느낌…</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr"/>
+      <c r="B274" s="4" t="inlineStr"/>
+      <c r="C274" s="4" t="inlineStr"/>
+      <c r="D274" s="4" t="inlineStr">
+        <is>
+          <t>진짜 DC 케이블은... 무게나 사이즈가, 쓸때마다 이게 맞나 싶습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr"/>
+      <c r="B275" s="4" t="inlineStr"/>
+      <c r="C275" s="4" t="inlineStr"/>
+      <c r="D275" s="4" t="inlineStr">
+        <is>
+          <t>전기차 한두해 팔고 말것도 아니고.... 지금 충전기들 10년 20년 계속 쓸것도 아니고... 진짜로 감당 못하기 전에 우리도 진지하게 다시고민해봐야될껍니다.... 전세계 유일의 CCS1사용 국가가 되기 전에요. (그것도 삼상을 쓰면서....), 그나저나 SK시그넷은난감하겠네요..... 텍사스 공장 준공 일주일도 안됐을텐데....</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr"/>
+      <c r="B276" s="4" t="inlineStr"/>
+      <c r="C276" s="4" t="inlineStr"/>
+      <c r="D276" s="4" t="inlineStr">
+        <is>
+          <t>한국에서 GV60으로, 미국에서 테슬라3 몰아봤던 사람으로... 그냥 게임이 안됩니다. DC콤보는 규격 만든사람이 엔지니어 틀림없는것 같구요ㅋㅋ DC콤보로 충전하다 테슬라 꼽으면 깃털입니다. 사용자 경험 측면에서 아예 게임이 안되더군요. 북미에서 충전경험때문이라도 테슬라만 팔리는이유가 다 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr"/>
+      <c r="B277" s="4" t="inlineStr"/>
+      <c r="C277" s="4" t="inlineStr"/>
+      <c r="D277" s="4" t="inlineStr">
+        <is>
+          <t>우리나라 공무원 특성상 아마 안될꺼에요…</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr"/>
+      <c r="B278" s="4" t="inlineStr"/>
+      <c r="C278" s="4" t="inlineStr"/>
+      <c r="D278" s="4" t="inlineStr">
+        <is>
+          <t>테슬라 규격은 800v도 지원하는지 궁금합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr"/>
+      <c r="B279" s="4" t="inlineStr"/>
+      <c r="C279" s="4" t="inlineStr"/>
+      <c r="D279" s="4" t="inlineStr">
+        <is>
+          <t>@셀빅아이님 슈퍼차저v4 가 800받고200더 해서 1000v 지원할겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr"/>
+      <c r="B280" s="4" t="inlineStr"/>
+      <c r="C280" s="4" t="inlineStr"/>
+      <c r="D280" s="4" t="inlineStr">
+        <is>
+          <t>현대가 한국에서 독점적 지위로 전기차 엄청 팔면서 충전소는 거의 무책임으로 일관 했고, 테슬라는 한국에도 엄청 깔아줬는데... 머스크 형님은 다계획이 있었습니다. 현대 뭐 됐지. 현대는 NACS로 넘어가도 한국에서도 테슬라보다 충전소가 뒤지는 후발주자.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr"/>
+      <c r="B281" s="4" t="inlineStr"/>
+      <c r="C281" s="4" t="inlineStr"/>
+      <c r="D281" s="4" t="inlineStr">
+        <is>
+          <t>@킁킁~!!님 NACS는 이핏 때문에 결정하기 더 힘든 상황인거 같아요. 어렵네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr"/>
+      <c r="B282" s="4" t="inlineStr"/>
+      <c r="C282" s="4" t="inlineStr"/>
+      <c r="D282" s="4" t="inlineStr">
+        <is>
+          <t>이렇게 되면 현대는 미국에 팔려면 어쩔 수 없이 저 규격으로 가야겠네요.테슬라가 규격은 오픈했지만 저 규격 맞출려면 테슬라 통신 규격등을맞춰야 하니까 OS등이 꽤나 테슬라에게 종속될 수밖에 없지 않을까 싶습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr"/>
+      <c r="B283" s="4" t="inlineStr"/>
+      <c r="C283" s="4" t="inlineStr"/>
+      <c r="D283" s="4" t="inlineStr">
+        <is>
+          <t>현기 내부 긴급회의 후 다음주중에 nacs 따라간다는 카더라가 있던데, 사실인지 궁금하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr"/>
+      <c r="B284" s="4" t="inlineStr"/>
+      <c r="C284" s="4" t="inlineStr"/>
+      <c r="D284" s="4" t="inlineStr">
+        <is>
+          <t>@유낭만님 궁금하네요!</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr"/>
+      <c r="B285" s="4" t="inlineStr"/>
+      <c r="C285" s="4" t="inlineStr"/>
+      <c r="D285" s="4" t="inlineStr">
+        <is>
+          <t>@유낭만님 만약 그렇다면 현대는정말 향후 행보가 기대되네요. 사실 이건 자존심 문제가 될 것도 없는게 현시대의 전기차 기초는 누가 뭐래도 테슬라가 정립한건데 좋은 것받아들이면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr"/>
+      <c r="B286" s="4" t="inlineStr"/>
+      <c r="C286" s="4" t="inlineStr"/>
+      <c r="D286" s="4" t="inlineStr">
+        <is>
+          <t>EVgo는 이미 지원하고 있었는데 기계들 자체가 작동이 안될때가 많아서 슈퍼차저에 비할바가 못된다고 느껴지더라구요. 그게 ABB제조 충전기였는데하드웨어 뿐만 아니라 소프트웨어도 개선점이 많아 보였습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr"/>
+      <c r="B287" s="4" t="inlineStr"/>
+      <c r="C287" s="4" t="inlineStr"/>
+      <c r="D287" s="4" t="inlineStr">
+        <is>
+          <t>@님 ABB 도 NACS 충전포트 만든다고 얘기 들은듯 하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr"/>
+      <c r="B288" s="4" t="inlineStr"/>
+      <c r="C288" s="4" t="inlineStr"/>
+      <c r="D288" s="4" t="inlineStr">
+        <is>
+          <t>속도나 편의성이나, 경쟁업체 측에서는 걱정이 많을듯 하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr"/>
+      <c r="B289" s="4" t="inlineStr"/>
+      <c r="C289" s="4" t="inlineStr"/>
+      <c r="D289" s="4" t="inlineStr">
+        <is>
+          <t>현대 휴게소 충전기 논쟁도 얼마 안 된 거 같은데, 금세 이런식으로 게임셋이 되어버리네요..허허..</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr"/>
+      <c r="B290" s="4" t="inlineStr"/>
+      <c r="C290" s="4" t="inlineStr"/>
+      <c r="D290" s="4" t="inlineStr">
+        <is>
+          <t>차데모는 사실상 신형에 탑제가 안된다고 보고중국 표준, 테슬라, 유럽표준 이렇게 3개인데 유럽표준은 EU인증이라 유럽이포기 하지 않는 이상 유지될거고북미는 반대로 테슬라 점유율이 크니 테슬라 표준으로 정리되고한국은 유럽표준에 맞추어서 규정이 정해져 있습니다. - 충전규격은 OCCP (네델란드 발 EU표준)- 충전단자 DC콤보 (EU발)</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr"/>
+      <c r="B291" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C291" s="3" t="inlineStr">
+        <is>
+          <t>Apple Vision Pro: 3800x3000 픽셀 및 90/96Hz의 마이크로 OLED – 패러다임 전환</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="inlineStr">
+        <is>
+          <t>[69]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr"/>
+      <c r="B292" s="4" t="inlineStr"/>
+      <c r="C292" s="4" t="inlineStr"/>
+      <c r="D292" s="4" t="inlineStr">
+        <is>
+          <t>번역기 돌린거라 내용이 부자연스러운 부분이 있을수 있습니다. 일단 M2 에서 지원하는 스펙만큼은 최대한 끌어온것 같네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr"/>
+      <c r="B293" s="4" t="inlineStr"/>
+      <c r="C293" s="4" t="inlineStr"/>
+      <c r="D293" s="4" t="inlineStr">
+        <is>
+          <t>향후 더높은 해상도가 나오면 사야겠네요.. 느낌상 2세대는 5년은 걸릴것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr"/>
+      <c r="B294" s="4" t="inlineStr"/>
+      <c r="C294" s="4" t="inlineStr"/>
+      <c r="D294" s="4" t="inlineStr">
+        <is>
+          <t>성능도 중요하지만 눈으로 보는거라 디스플레이가 제일 중요한데 요즘 나오는 VR 보다 디스플레이가 안 좋네요.요즘 나오는 VR들이 5K해상도에 120hz 지원 하는 것 같던데 말이죠. (저가형 제외)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr"/>
+      <c r="B295" s="4" t="inlineStr"/>
+      <c r="C295" s="4" t="inlineStr"/>
+      <c r="D295" s="4" t="inlineStr">
+        <is>
+          <t>잘 몰라서 그러는데 한쪽눈당 5k 짜리가 정말 있나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr"/>
+      <c r="B296" s="4" t="inlineStr"/>
+      <c r="C296" s="4" t="inlineStr"/>
+      <c r="D296" s="4" t="inlineStr">
+        <is>
+          <t>@님 비전 프로보다 해상도 높은 기기가 있나요?해상도가 다른 회사들 선전하는식이면 7600x3000인데요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr"/>
+      <c r="B297" s="4" t="inlineStr"/>
+      <c r="C297" s="4" t="inlineStr"/>
+      <c r="D297" s="4" t="inlineStr">
+        <is>
+          <t>@iljllllj!l님 검색해보니까htc vive pro가 홍보는 5k로 하는데 스펙에는 2448*2448 두개 합쳐서 5k인거 같고..pimax vision 8k라는게3840*2160 (90hz) 두개가 들어갔다는거 같은데.. 이거 외에는 요즘 나오는 vr에서는 못찾겠네요..한쪽당 5k에120hz가 요즘 흔한 스펙이면 이렇게 검색이 안되기도 쉽지 않을거 같은데요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr"/>
+      <c r="B298" s="4" t="inlineStr"/>
+      <c r="C298" s="4" t="inlineStr"/>
+      <c r="D298" s="4" t="inlineStr">
+        <is>
+          <t>@님 디스플레이 한쪽당 4k는 거의 최신입니다 이제 올해막 양산들어가서 대부분 업체들이 내년쯤판매할 예정이죠 애플도 최신제품으로 내놓는겁니다현존하는 최고 기술이 얼마전 메타가 올해 시제품으로 공개할 제품이 56PPD로서거의 7~8k 정도 될것으로 예상합니다.(일단 단일기준 현존 최신 기술의 경우 10000PPI 제품군이 올해 발표되었습니다 FOV 120기준으로 이정도 디스플레이면 PPD가 80정도라서 이정도 기술이 상용기술에 적용되면 해상도 경쟁은 더이상은 힘들것으로 생각됩니다. 물론 FOV의경우 140 제품도 나올수 있고 현재 240 제품도 개발중이니.. 전체 해상도는 더 커지겠죠 ) 참고로 퀘스크 프로가22PPD이고 애플 비전 프로가 추측 성능으로는 32~45PPD로 추산합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr"/>
+      <c r="B299" s="4" t="inlineStr"/>
+      <c r="C299" s="4" t="inlineStr"/>
+      <c r="D299" s="4" t="inlineStr">
+        <is>
+          <t>per eye 고 총 해상도 7600 X 6000 으로 레퍼런스 8K 해상도 수치인 7680 X 4320 보다 높은 수치라고 봐도 되겠네요.거기에 90hz 까지.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr"/>
+      <c r="B300" s="4" t="inlineStr"/>
+      <c r="C300" s="4" t="inlineStr"/>
+      <c r="D300" s="4" t="inlineStr">
+        <is>
+          <t>@님 HTC Vive Pro가 1200만 픽셀이고 비전 프로는 2300만 픽셀이라기존 VR보다 해상도는 압도적으로 높습니다참고로 단독형인 퀘스트 프로는 700만 픽셀입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr"/>
+      <c r="B301" s="4" t="inlineStr"/>
+      <c r="C301" s="4" t="inlineStr"/>
+      <c r="D301" s="4" t="inlineStr">
+        <is>
+          <t>@님 요즘 나오는 vr 뭘 보셨셨기에 이런 말씀을 ㄷㄷㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr"/>
+      <c r="B302" s="4" t="inlineStr"/>
+      <c r="C302" s="4" t="inlineStr"/>
+      <c r="D302" s="4" t="inlineStr">
+        <is>
+          <t>@memberst님 메타에서SIGGRAPH에서 데모할 기계는 기존 패널에 렌즈를 고쳐서 FOV를 희생하여 PPD 높은 효과를 보기 위한 연구제품입니다. 7~8k 패널시제품이 아닙니다."Meta's first and only publicly shown headset prototype withretinal resolution is Butterscotch, which achieves 55 PPD, but offers only halfthe field of view of the Meta Quest 2. The latter headset achieves about 20PPD."</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr"/>
+      <c r="B303" s="4" t="inlineStr"/>
+      <c r="C303" s="4" t="inlineStr"/>
+      <c r="D303" s="4" t="inlineStr">
+        <is>
+          <t>@님 그정도 스펙 제품이 뭔지 좀 제시해주시겠어요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr"/>
+      <c r="B304" s="4" t="inlineStr"/>
+      <c r="C304" s="4" t="inlineStr"/>
+      <c r="D304" s="4" t="inlineStr">
+        <is>
+          <t>@edge님 독일에서 얼마전에 1만ppi 제품을 발표해서 해당 기술이 들어가는줄 알았는데 아닌가 보군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr"/>
+      <c r="B305" s="4" t="inlineStr"/>
+      <c r="C305" s="4" t="inlineStr"/>
+      <c r="D305" s="4" t="inlineStr">
+        <is>
+          <t>@님 그런 기계 없습니다.천만원짜리 산업용 기기도 비전 프로보다 딸려요</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr"/>
+      <c r="B306" s="4" t="inlineStr"/>
+      <c r="C306" s="4" t="inlineStr"/>
+      <c r="D306" s="4" t="inlineStr">
+        <is>
+          <t>@님 pimax 8kx가 4k(3840x2160) 2개, 120hz 나오고펀딩중인pimax 12k는 6k(5760x3240) 2개입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr"/>
+      <c r="B307" s="4" t="inlineStr"/>
+      <c r="C307" s="4" t="inlineStr"/>
+      <c r="D307" s="4" t="inlineStr">
+        <is>
+          <t>@님 '같던데'라고 하시니 추측성이라 없다고 보면 되겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr"/>
+      <c r="B308" s="4" t="inlineStr"/>
+      <c r="C308" s="4" t="inlineStr"/>
+      <c r="D308" s="4" t="inlineStr">
+        <is>
+          <t>@님 판매중인 5k 120hz 제품이 있나요? 진짜 몰라서 야쭤봅니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr"/>
+      <c r="B309" s="4" t="inlineStr"/>
+      <c r="C309" s="4" t="inlineStr"/>
+      <c r="D309" s="4" t="inlineStr">
+        <is>
+          <t>@memberst님 한 쪽 눈당8K는 되어야 VR이 쓸만하겠다고 생각한게 거진 10년전인데이제서야 얼추 시제품에서는 달성되고 있는듯 하여, 생각보다 더오래걸리네요.메타주식을 사야하나 애플 주식을 사야하나 고민입니다. 기술의 특이점만 오면 분명 미래라고 생각했었기에 말이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr"/>
+      <c r="B310" s="4" t="inlineStr"/>
+      <c r="C310" s="4" t="inlineStr"/>
+      <c r="D310" s="4" t="inlineStr">
+        <is>
+          <t>slangel님// 어떤 회사 제품이요?.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr"/>
+      <c r="B311" s="4" t="inlineStr"/>
+      <c r="C311" s="4" t="inlineStr"/>
+      <c r="D311" s="4" t="inlineStr">
+        <is>
+          <t>@님 님 GOS 논란 점화되기 시작할 때쯤벤치에서 정상스펙이 나오고 다른 앱에서클럭 제한 거는 것은,벤치에서만 오버클럭 돌리는 중국산과는 다르니까 정상이라는 말 하신 분 맞죠?</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr"/>
+      <c r="B312" s="4" t="inlineStr"/>
+      <c r="C312" s="4" t="inlineStr"/>
+      <c r="D312" s="4" t="inlineStr">
+        <is>
+          <t>@님 VR의 스펙상 해상도는 한쪽눈당 해상도를 별도로 계산하면 반토막됩니다.말씀하시는 5k라는건한쪽눈만 따지면 2.5k가되는거고요. 비젼프로는 한쪽눈만 따져도 가로 해상도가 4k를 넘어서는거죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr"/>
+      <c r="B313" s="4" t="inlineStr"/>
+      <c r="C313" s="4" t="inlineStr"/>
+      <c r="D313" s="4" t="inlineStr">
+        <is>
+          <t>번인에 대한 걱정은 없는건지 궁금하네요. 인터넷을 검색 해봤지만 찾을수가 없더군요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr"/>
+      <c r="B314" s="4" t="inlineStr"/>
+      <c r="C314" s="4" t="inlineStr"/>
+      <c r="D314" s="4" t="inlineStr">
+        <is>
+          <t>@부산오뎅호떡매냐님출시도 안했으니 그렇겠죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr"/>
+      <c r="B315" s="4" t="inlineStr"/>
+      <c r="C315" s="4" t="inlineStr"/>
+      <c r="D315" s="4" t="inlineStr">
+        <is>
+          <t>@부산오뎅호떡매냐님 미러리스뷰파인더에 들어가는게 마이크로 OLED 입니다. 거기에 번인이 일어난다면 이것도 그럴 수 있겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr"/>
+      <c r="B316" s="4" t="inlineStr"/>
+      <c r="C316" s="4" t="inlineStr"/>
+      <c r="D316" s="4" t="inlineStr">
+        <is>
+          <t>마이크로 led 가 번인걱정을 극복한 oled라고 들었습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr"/>
+      <c r="B317" s="4" t="inlineStr"/>
+      <c r="C317" s="4" t="inlineStr"/>
+      <c r="D317" s="4" t="inlineStr">
+        <is>
+          <t>@부산오뎅호떡매냐님 화면상고정된 UI가 없어 전반적인 밝기 저하가 아닌 번인은 걱정할 필요 없다고 추측합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr"/>
+      <c r="B318" s="4" t="inlineStr"/>
+      <c r="C318" s="4" t="inlineStr"/>
+      <c r="D318" s="4" t="inlineStr">
+        <is>
+          <t>음 뭐 패러다임의 변화까지는 딱히. 애플이 제품을 저가에 내놓는 것도 아니고.VR이 대중화되지 못하는 건 사실상 가격과 성능의 압박탓이크고게다가 기존VR에 있던 기능이 대부분인데. 이걸 4~500주고 살 사람이 생각보다 많지는 않을 것같거든요.앞으로 미래를 예측하긴 어렵지만 진입 장벽은 좀 아쉽습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr"/>
+      <c r="B319" s="4" t="inlineStr"/>
+      <c r="C319" s="4" t="inlineStr"/>
+      <c r="D319" s="4" t="inlineStr">
+        <is>
+          <t>@와이어액션님 애초에400-500짜리 컴퓨터 사는 사람이 흔하진 않죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr"/>
+      <c r="B320" s="4" t="inlineStr"/>
+      <c r="C320" s="4" t="inlineStr"/>
+      <c r="D320" s="4" t="inlineStr">
+        <is>
+          <t>@와이어액션님 vr이 대중화 되지못하는 이유가 여러가지인데 그 중에 가격 빼고는 다 잡은거죠. 다른 회사는 칩이 없어서 가격 올려도 못만듭니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr"/>
+      <c r="B321" s="4" t="inlineStr"/>
+      <c r="C321" s="4" t="inlineStr"/>
+      <c r="D321" s="4" t="inlineStr">
+        <is>
+          <t>@와이어액션님 패러다임의 변화를분명 유도할겁니다. 단지 저 제품이 적절한 감가의 시기 내에 혜택을 받는가?라면, 호환성에 의한 대체수단이 전무한 상태에서 다음 세상을 위한문만 열겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr"/>
+      <c r="B322" s="4" t="inlineStr"/>
+      <c r="C322" s="4" t="inlineStr"/>
+      <c r="D322" s="4" t="inlineStr">
+        <is>
+          <t>@와이어액션님 근데개인적으로 이건 살것 같습니다pc 맥으로 본다면 여러 라인중에 100만원부터 1000만원 이상까지 용도나 취향따라 달라질수 있지만 이건애플vr 단일 모델이거든요지금까지 ar/vr 기기 그냥 호기심만 있었는데 요건 기존 애플기기들과 호환성이 무지 기대되서 출시되는데로 바로지를것 같습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr"/>
+      <c r="B323" s="4" t="inlineStr"/>
+      <c r="C323" s="4" t="inlineStr"/>
+      <c r="D323" s="4" t="inlineStr">
+        <is>
+          <t>@와이어액션님 어릴적 피시들이300~400만원 대였을 시절에도 전단지가 뭐 집집마다 들어가긴 했죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr"/>
+      <c r="B324" s="4" t="inlineStr"/>
+      <c r="C324" s="4" t="inlineStr"/>
+      <c r="D324" s="4" t="inlineStr">
+        <is>
+          <t>해상도는 아직 추정이고 밝기랑 시야각이 궁금한데 스펙 발표를 안하네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr"/>
+      <c r="B325" s="4" t="inlineStr"/>
+      <c r="C325" s="4" t="inlineStr"/>
+      <c r="D325" s="4" t="inlineStr">
+        <is>
+          <t>밝기 5000니트는 사실인것 같습니다. 엘지에서 만든 올레도스가 7000니트더군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr"/>
+      <c r="B326" s="4" t="inlineStr"/>
+      <c r="C326" s="4" t="inlineStr"/>
+      <c r="D326" s="4" t="inlineStr">
+        <is>
+          <t>@DLBIA님 고거는 패널 스펙이고실제 VR 렌즈를 통과하면 밝기가 1/10로 줄어듭니다. OLED 패널 특성상 피크밝기가 그정도일거라 실제로는 더 어두워서 렌즈 통과후에는200니트보다 낮은 수준일거라고 봅니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr"/>
+      <c r="B327" s="4" t="inlineStr"/>
+      <c r="C327" s="4" t="inlineStr"/>
+      <c r="D327" s="4" t="inlineStr">
+        <is>
+          <t>@오라질님 그거는 잘못된정보입니다초기나온 오큘러스 당시 oled기술이 300니트나 겨우 나오는 모바일 패널(갤럭시에 있는 패널재활용)이었는데 별문제없이썼어요공간으로 펴줘야 하니까 니트가 떨어지는건 맞는데 그냥 좀 어두워지는거지 렌즈가 무슨 선글라스가 아닙니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr"/>
+      <c r="B328" s="4" t="inlineStr"/>
+      <c r="C328" s="4" t="inlineStr"/>
+      <c r="D328" s="4" t="inlineStr">
+        <is>
+          <t>굳이 96hz가 왜 들어갔나 싶었는데 24fps 영화 재생 시 저더링 방지를 위해서군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr"/>
+      <c r="B329" s="4" t="inlineStr"/>
+      <c r="C329" s="4" t="inlineStr"/>
+      <c r="D329" s="4" t="inlineStr">
+        <is>
+          <t>@DLBIA님 TV에도 앞으로적용됐음 좋겠어요</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr"/>
+      <c r="B330" s="4" t="inlineStr"/>
+      <c r="C330" s="4" t="inlineStr"/>
+      <c r="D330" s="4" t="inlineStr">
+        <is>
+          <t>@무먹는개님 TV는 120Hz라상관없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr"/>
+      <c r="B331" s="4" t="inlineStr"/>
+      <c r="C331" s="4" t="inlineStr"/>
+      <c r="D331" s="4" t="inlineStr">
+        <is>
+          <t>@님 글쿤요.. 그런데도 저더링이 심한 이유가 뭔가요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr"/>
+      <c r="B332" s="4" t="inlineStr"/>
+      <c r="C332" s="4" t="inlineStr"/>
+      <c r="D332" s="4" t="inlineStr">
+        <is>
+          <t>@무먹는개님 대다수의 TV는60Hz라 그렇습니다. 비싸지만 120Hz TV가 수년전부터 판매중이니 이미 적용됐다는 말이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr"/>
+      <c r="B333" s="4" t="inlineStr"/>
+      <c r="C333" s="4" t="inlineStr"/>
+      <c r="D333" s="4" t="inlineStr">
+        <is>
+          <t>@님 아아 글쿤요 ㅎ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr"/>
+      <c r="B334" s="4" t="inlineStr"/>
+      <c r="C334" s="4" t="inlineStr"/>
+      <c r="D334" s="4" t="inlineStr">
+        <is>
+          <t>정신나간 가격 생각하면 당연히 고스펙 디스플레이가 들어가야죠. 너무 당연한거라 찬양하고 말것도 없다고 봅니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr"/>
+      <c r="B335" s="4" t="inlineStr"/>
+      <c r="C335" s="4" t="inlineStr"/>
+      <c r="D335" s="4" t="inlineStr">
+        <is>
+          <t>마이크로 oled가 lg, 삼성 등이 만드려고 하는 마이크로led랑 다른가봐요?뜬금없이 애플이 설계하고 tsmc가 만든다고 하는거보면요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr"/>
+      <c r="B336" s="4" t="inlineStr"/>
+      <c r="C336" s="4" t="inlineStr"/>
+      <c r="D336" s="4" t="inlineStr">
+        <is>
+          <t>@아캄님 LG 삼성도 마이크로OLED 만듭니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr"/>
+      <c r="B337" s="4" t="inlineStr"/>
+      <c r="C337" s="4" t="inlineStr"/>
+      <c r="D337" s="4" t="inlineStr">
+        <is>
+          <t>VR,AR 기기는 PPD가 중요합니다이에 대한 정보가 있어야 제대로 비교가 됩니다.정확한 표준이 없다보니 기기스펙부터영상들도 지맘대로 화소를 표시해서 실제 체감 화질과 상이합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" s="4" t="inlineStr"/>
+      <c r="C338" s="4" t="inlineStr"/>
+      <c r="D338" s="4" t="inlineStr">
+        <is>
+          <t>다좋은데가격이 ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" s="4" t="inlineStr"/>
+      <c r="C339" s="4" t="inlineStr"/>
+      <c r="D339" s="4" t="inlineStr">
+        <is>
+          <t>개인용 PC의 다음 단계가 저거겠죠? 10년내에는 다 대체 되겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" s="4" t="inlineStr"/>
+      <c r="C340" s="4" t="inlineStr"/>
+      <c r="D340" s="4" t="inlineStr">
+        <is>
+          <t>@오버나이트님 착용 자체가 불편한사람이 있어서 다는 아닐거고 한 축을 담당할거 같아요. 그래도 노트북보단 적겠지만요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr"/>
+      <c r="B341" s="4" t="inlineStr"/>
+      <c r="C341" s="4" t="inlineStr"/>
+      <c r="D341" s="4" t="inlineStr">
+        <is>
+          <t>가격 빼고는 IT 관심없는 사람들도 그럴저럭 쓸만 한 수준 아닐까 싶네요. 기대됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr"/>
+      <c r="B342" s="4" t="inlineStr"/>
+      <c r="C342" s="4" t="inlineStr"/>
+      <c r="D342" s="4" t="inlineStr">
+        <is>
+          <t>삼전 직원 피셜 발표 당일 다음날 출근하면 난리 날 거 같다더군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" s="4" t="inlineStr"/>
+      <c r="C343" s="4" t="inlineStr"/>
+      <c r="D343" s="4" t="inlineStr">
+        <is>
+          <t>메타렌즈 같은 것도 있으니 앞으로는 더 작게 나올 수 있겠죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" s="4" t="inlineStr"/>
+      <c r="C344" s="4" t="inlineStr"/>
+      <c r="D344" s="4" t="inlineStr">
+        <is>
+          <t>메타가 SK하이닉스, LGD와 같이 마이크로oled 패널을 만든단 얘기가 있습니다.https://www.clien.net/service/board/news/17905490CLIEN기사대로라면 3년 후에야 퀘스트 프로가 고해상도 마이크로oled를가지게 되는건가요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" s="4" t="inlineStr"/>
+      <c r="C345" s="4" t="inlineStr"/>
+      <c r="D345" s="4" t="inlineStr">
+        <is>
+          <t>@edge님 디스플레이가 좋아도 그걸돌려줄 수 있는 프로세서가 없으면 소용이 없지요</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr"/>
+      <c r="B346" s="4" t="inlineStr"/>
+      <c r="C346" s="4" t="inlineStr"/>
+      <c r="D346" s="4" t="inlineStr">
+        <is>
+          <t>에어팟 맥스도 비싸서 못 쓰는데 이건 어림도 없네요..ㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr"/>
+      <c r="B347" s="4" t="inlineStr"/>
+      <c r="C347" s="4" t="inlineStr"/>
+      <c r="D347" s="4" t="inlineStr">
+        <is>
+          <t>하드웨어는 알겠는데.. 저 스팩을 충족시킬 영상이나 컨텐츠가.. 있을까 싶네요 그리고 그 어마무시한 용량을 어떻게 감당하고 전송할지도 궁금하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr"/>
+      <c r="B348" s="4" t="inlineStr"/>
+      <c r="C348" s="4" t="inlineStr"/>
+      <c r="D348" s="4" t="inlineStr">
+        <is>
+          <t>@쏘리누님 8k 소스들은 이미제작되고 있습니다헐리우드는 적지않은 영화들이 8k로 촬영되고 있고 픽사같은 cg작품들은 리랜더링하면 됩니다대표적으로 아바타 같은작품들이 랜더링 다시 했죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr"/>
+      <c r="B349" s="4" t="inlineStr"/>
+      <c r="C349" s="4" t="inlineStr"/>
+      <c r="D349" s="4" t="inlineStr">
+        <is>
+          <t>비전 프로 발표 전에 예전 아이폰4 발표 때 레티나 디스플레이 들고 나오면서 스마트폰 디스플레이 시장을 확 바꿨던 기억이 나더라고요. 그래서애플이 만든다면 기존 vr의 단점 중 하나인 픽셀 보이는 현상을 없애기 위해서 해상도를 극한으로 끌어올리지 않을까 했는데 진짜 그렇게 만들어서들고 나왔네요. ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" s="4" t="inlineStr"/>
+      <c r="C350" s="4" t="inlineStr"/>
+      <c r="D350" s="4" t="inlineStr">
+        <is>
+          <t>발표할때 렌즈 하나만으로도 값어치는 한다고 느꼈는데 실사용리뷰 보니 더 땡기더라고요 실시간반응과(인풋랙이 얼마나 되는지는 몰라도그렇게느꼈다고합니다)3D촬영 (부모님 담기위한) 플레이영상에서 입체감 표현력에 해상력이 떨어져도 이거다 라고 직감했어요 전저금을틈틈이 해야겠어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr"/>
+      <c r="B351" s="4" t="inlineStr"/>
+      <c r="C351" s="4" t="inlineStr"/>
+      <c r="D351" s="4" t="inlineStr">
+        <is>
+          <t>에어팟도 처음 나왔을 때 비웃음 댓글 가득이였죠 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" s="4" t="inlineStr"/>
+      <c r="C352" s="4" t="inlineStr"/>
+      <c r="D352" s="4" t="inlineStr">
+        <is>
+          <t>많이 팔려야 패러다임이 바뀌겠죠..그것보단 애플이 냈으니 삼성구글도 낼테고... 그걸 기다려보겠습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr"/>
+      <c r="B353" s="4" t="inlineStr"/>
+      <c r="C353" s="4" t="inlineStr"/>
+      <c r="D353" s="4" t="inlineStr">
+        <is>
+          <t>제대로된 패러다임 전환이 되려면 많은 사람들이 구입을 해야 하는데...가격이 문제네요.에어팟이 처음 나왔을 때 조롱받았던것은 디자인이었죠. 가격은 아니었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr"/>
+      <c r="B354" s="4" t="inlineStr"/>
+      <c r="C354" s="4" t="inlineStr"/>
+      <c r="D354" s="4" t="inlineStr">
+        <is>
+          <t>아직 출시도 안한 제품에 비판하는 것 보니 비전프로가 새로운 제품은 맞나보네요. 출시도 안하고 정보도 부족한 상황에서 저 제품이 500만원값어치를 하는지 아무도 모르죠. 출시하고 경험해보고 비판해도 늦지 않은데 말이죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr"/>
+      <c r="B355" s="4" t="inlineStr"/>
+      <c r="C355" s="4" t="inlineStr"/>
+      <c r="D355" s="4" t="inlineStr">
+        <is>
+          <t>애플 주식이나 더 사야겠습니다ㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr"/>
+      <c r="B356" s="4" t="inlineStr"/>
+      <c r="C356" s="4" t="inlineStr"/>
+      <c r="D356" s="4" t="inlineStr">
+        <is>
+          <t>대중화 안 되었으면 좋겠습니다.??? : 자! 침대에 누워서도 일해라 휴먼!</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" s="4" t="inlineStr"/>
+      <c r="C357" s="4" t="inlineStr"/>
+      <c r="D357" s="4" t="inlineStr">
+        <is>
+          <t>구입하려고 하다가 블루밍 현상때문에 아이패드12.9 5세대(m1 )에서 4세대로 기변한 제 입장에선 쉽사리 카드에 손이 안가네요나이드니 눈건강이 중요해서..</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" s="4" t="inlineStr"/>
+      <c r="C358" s="4" t="inlineStr"/>
+      <c r="D358" s="4" t="inlineStr">
+        <is>
+          <t>저는 기계 사양을 봐도 전혀 감이 오지 않는데, 컨텐츠가 궁금합니다.발표 끝날때쯤에도 출시때까지 개발자들과 앱 등을 만든다 같은 얘기를한 것 같던데, VR 스러운 앱 보다는 뒤집어 쓰고 편하게 쓸만한만 무언가가 나오지 않을까 하네요.그것이 기존 아이폰이나 맥북에서 잘되는 것이라고 해도 기기나 앱끼리 섞어서 쓰면 시너지가 날 수도 있고, 개선이 될 수도 있겠죠.그러면 2세대 쯤 되면 살만한 제품이 될것 같아요. 하드웨어 사양도 그렇겠지만 무엇보다 앱 같은 컨텐츠가 더 매력적이 되겠죠.저에게 있어서 VR 은 멀미 + 움직이면서 쓰기매우 힘듬 + 저해상도 화면 인식이 남아 있긴 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr"/>
+      <c r="B359" s="4" t="inlineStr"/>
+      <c r="C359" s="4" t="inlineStr"/>
+      <c r="D359" s="4" t="inlineStr">
+        <is>
+          <t>제가 가장 궁금하고 기대하는 부분은 앱, 게임도 있지만, 그보다 공간컴퓨팅이란네이밍에 어울리는 업무적용입니다기획위주 일을 하다보니 검색, 엑셀, 파포, 워드 작업에만 최적화 되어나와도 … 대환영입니다 다만 오래 사용 하기 위한착용감 숙제만해결 된다면 …</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr"/>
+      <c r="B360" s="4" t="inlineStr"/>
+      <c r="C360" s="4" t="inlineStr"/>
+      <c r="D360" s="4" t="inlineStr">
+        <is>
+          <t>애플주식을 모아야할깨이군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr"/>
+      <c r="B361" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C361" s="3" t="inlineStr">
+        <is>
+          <t>개인정보 문제로 10년 이상 업데이트 중단된 독일 구글 스트리트 뷰 복귀</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr"/>
+      <c r="B362" s="4" t="inlineStr"/>
+      <c r="C362" s="4" t="inlineStr"/>
+      <c r="D362" s="4" t="inlineStr">
+        <is>
+          <t>독일은 왜 굳이 과거 뷰를 지워야 할 필요성을 느끼나 모르겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" s="4" t="inlineStr"/>
+      <c r="C363" s="4" t="inlineStr"/>
+      <c r="D363" s="4" t="inlineStr">
+        <is>
+          <t>@acronym님 미국은 정보자유법으로정보를 공유해야한다는 개념이고 유럽은 개인정보자기결정권을 중시해서 과거 기록의 공개에 민감하다고 들었습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" s="4" t="inlineStr"/>
+      <c r="C364" s="4" t="inlineStr"/>
+      <c r="D364" s="4" t="inlineStr">
+        <is>
+          <t>@acronym님 구글이 처음스트리트뷰를 독일에서 서비스 하던 당시 서비스를 장기간 포기하게 된 이유 중 하나가 수많은 건물 소유자들이 자신의 건물을 블러 처리 해달라는요구 때문이었습니다. 독일 스트리트뷰를 보면 유독 다른 나라에 비해 블러처리 된 건축물이 많습니다. 이번에 서비스를 새로 열기 위해구글이 개인정보 관련 기구와 계속 협의를 해왔는데 쟁점 중 하나가 그럼 과거 서비스에서 블러처리 했던 건물을 새로 수집한 데이터에서도 다 지워서서비스 해야 하는가 였는데(건물주가 바뀌었을 수도, 의사가 달라졌을 수도, 없어졌을 수도 있으며, 결정적으로 지금 서비스 중인 애플지도와의형평성 문제도 있겠죠.) 협의 결과가 그럼 아예 옛날 데이터는 서비스 하지 말고 새로 수집한 데이터만 일단 공개하고 이에 대해서만 블러 처리관련 이의 제기 신청을 다시 받으라고 결론이 난 듯 하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr"/>
+      <c r="B365" s="4" t="inlineStr"/>
+      <c r="C365" s="4" t="inlineStr"/>
+      <c r="D365" s="4" t="inlineStr">
+        <is>
+          <t>애플지도는 독일 주요 도시에서 진작에 최신화된 데이터로 스트리트뷰 서비스를 하고 있었는데 구글지도는 여전히 2008년 상태에 머물러 있었죠.법적 문제는 해결됐겠거니 했고, 작년부터 이미 구글 스트리트뷰 수집차량이 독일 거리에서 목격됐다는 기사가 나왔었는데 결국 다시 돌아오는군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr"/>
+      <c r="B366" s="4" t="inlineStr"/>
+      <c r="C366" s="4" t="inlineStr"/>
+      <c r="D366" s="4" t="inlineStr">
+        <is>
+          <t>@Peregrine님 애플지도는과거보기가 없어서 괜찮은가 봅니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr"/>
+      <c r="B367" s="4" t="inlineStr"/>
+      <c r="C367" s="4" t="inlineStr"/>
+      <c r="D367" s="4" t="inlineStr">
+        <is>
+          <t>???: 창가의 저 할머니.... 그대로잖아?!</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr"/>
+      <c r="B368" s="4" t="inlineStr"/>
+      <c r="C368" s="4" t="inlineStr"/>
+      <c r="D368" s="4" t="inlineStr">
+        <is>
+          <t>독일에서 블랙박스 설치도 빡빡하더군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="C369" s="3" t="inlineStr">
+        <is>
+          <t>구글 비밀번호 관리자, 데스크탑용에 생체 인증 추가 예고</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr"/>
+      <c r="B370" s="4" t="inlineStr"/>
+      <c r="C370" s="4" t="inlineStr"/>
+      <c r="D370" s="4" t="inlineStr">
+        <is>
+          <t>쓰고는 싶은데, FIDO 지문 인식기(그나마 저렴)나 안면 인식 웹캠 가격이 후덜덜 해서 일반 가정집에서는 사용을 할까 생각이 들기는 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr"/>
+      <c r="B371" s="4" t="inlineStr"/>
+      <c r="C371" s="4" t="inlineStr"/>
+      <c r="D371" s="4" t="inlineStr">
+        <is>
+          <t>@Goldilocks님 별로안비싸요 헬로캠 지원하면 다됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr"/>
+      <c r="B372" s="4" t="inlineStr"/>
+      <c r="C372" s="4" t="inlineStr"/>
+      <c r="D372" s="4" t="inlineStr">
+        <is>
+          <t>@Goldilocks님 그렇게 안비싸고요.. 요즘 노트북에 Windows Hello 웹캠 달고 나오는 거 어지간하면 Fido까지 될 겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr"/>
+      <c r="B373" s="4" t="inlineStr"/>
+      <c r="C373" s="4" t="inlineStr"/>
+      <c r="D373" s="4" t="inlineStr">
+        <is>
+          <t>이미 크롬 패스워드는 윈도 헬로 아니면 비번 안알려주죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" s="4" t="inlineStr"/>
+      <c r="C374" s="4" t="inlineStr"/>
+      <c r="D374" s="4" t="inlineStr">
+        <is>
+          <t>알리 3만원짜리 윈도우 헬로 캠 쓰고 잇는데 가능하려나요 ㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr"/>
+      <c r="B375" s="4" t="inlineStr"/>
+      <c r="C375" s="4" t="inlineStr"/>
+      <c r="D375" s="4" t="inlineStr">
+        <is>
+          <t>@나의라임오졌지나무님 잘되요카나리아에서 질되더라고요</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr"/>
+      <c r="B376" s="4" t="inlineStr"/>
+      <c r="C376" s="4" t="inlineStr"/>
+      <c r="D376" s="4" t="inlineStr">
+        <is>
+          <t>레노보 510 같은 캠이 아마존(미 or 11)에 구매가능한데 이름있는 회사에서 파는 헬로 지원되는 제일 싼 캠인것 같더라구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr"/>
+      <c r="B377" s="4" t="inlineStr"/>
+      <c r="C377" s="4" t="inlineStr"/>
+      <c r="D377" s="4" t="inlineStr">
+        <is>
+          <t>FIDO나 Passkeys 단어가 없는거보면 그건 아닌가봐요. 비슷한 개념같은데</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr"/>
+      <c r="B378" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="C378" s="3" t="inlineStr">
+        <is>
+          <t>데스크탑 GPU 판매량 10년만에 최저치 기록</t>
+        </is>
+      </c>
+      <c r="D378" s="2" t="inlineStr">
+        <is>
+          <t>[52]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" s="4" t="inlineStr"/>
+      <c r="C379" s="4" t="inlineStr"/>
+      <c r="D379" s="4" t="inlineStr">
+        <is>
+          <t>코로나 국면을 넘어섰지만 코로나 이전 가격보다 비싸니까 안사는게 아닐지...</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr"/>
+      <c r="B380" s="4" t="inlineStr"/>
+      <c r="C380" s="4" t="inlineStr"/>
+      <c r="D380" s="4" t="inlineStr">
+        <is>
+          <t>비싸니까요...ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" s="4" t="inlineStr"/>
+      <c r="C381" s="4" t="inlineStr"/>
+      <c r="D381" s="4" t="inlineStr">
+        <is>
+          <t>Myayu님// 댓글만 공감되네요. 이 면상은 .. …</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" s="4" t="inlineStr"/>
+      <c r="C382" s="4" t="inlineStr"/>
+      <c r="D382" s="4" t="inlineStr">
+        <is>
+          <t>@Myayu님 많이 안팔린이유는 고객들이많이 구매를 안했기 떄문입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" s="4" t="inlineStr"/>
+      <c r="C383" s="4" t="inlineStr"/>
+      <c r="D383" s="4" t="inlineStr">
+        <is>
+          <t>가격을 너무 올렸어요 4090 230만원이 최저가인데 이걸로 맞추면 전체 시스템가격에서 60%가 gpu 가격입니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" s="4" t="inlineStr"/>
+      <c r="C384" s="4" t="inlineStr"/>
+      <c r="D384" s="4" t="inlineStr">
+        <is>
+          <t>"신규 그래픽카드의 출하량은 인플레이션, 대량 해고로 인한 PC 시장의 불황과 재고 감소를 위해 업자들이 밀어낸 전 세대 카드의 판매 증가에영향을 받음", "재고 감소로 신세대 그래픽카드 판매가 증가하겠지만 이는 3분기 이후에나 가능할 것. 2분기는 전통적으로 수요가 부진했고 올해도다르지 않을 것. 하지만 예상만큼 심각하진 않을 지도."-&gt;값을 낮추라고 미...하여간 이놈들아</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" s="4" t="inlineStr"/>
+      <c r="C385" s="4" t="inlineStr"/>
+      <c r="D385" s="4" t="inlineStr">
+        <is>
+          <t>30시리즈 때에는 코인 때문에 무슨 말도 안되게 오르네.. 하면서 안샀는데..40시리즈는.. 그냥 알아서 가격을 선반영 해두니 참..</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" s="4" t="inlineStr"/>
+      <c r="C386" s="4" t="inlineStr"/>
+      <c r="D386" s="4" t="inlineStr">
+        <is>
+          <t>수요중 상당수는 30시리즈 중고라.. 신규판매가 줄어들 수 밖에 없을꺼 같아요. 성능도 성능이지만 가격이...</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr"/>
+      <c r="B387" s="4" t="inlineStr"/>
+      <c r="C387" s="4" t="inlineStr"/>
+      <c r="D387" s="4" t="inlineStr">
+        <is>
+          <t>황회장이 많은 공을 세웠지요. 물론 다른 여건의 문제도 있었지만 이젠 ai쪽으로 좀 뭐 해볼려면 엔비디아 gpu 사야하니 가격 더올려쳐버리는... amd 힘좀 내서 좀..</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr"/>
+      <c r="B388" s="4" t="inlineStr"/>
+      <c r="C388" s="4" t="inlineStr"/>
+      <c r="D388" s="4" t="inlineStr">
+        <is>
+          <t>그러나 H100은 돈을 곱절로 준다고 해도 못 구하는데...</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr"/>
+      <c r="B389" s="4" t="inlineStr"/>
+      <c r="C389" s="4" t="inlineStr"/>
+      <c r="D389" s="4" t="inlineStr">
+        <is>
+          <t>사양 좋아야 하는 밀리언셀러 게임이 나와야 쭉쭉 팔리겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr"/>
+      <c r="B390" s="4" t="inlineStr"/>
+      <c r="C390" s="4" t="inlineStr"/>
+      <c r="D390" s="4" t="inlineStr">
+        <is>
+          <t>한 2016~2020 년까지만 해도 주변 지인 친구를 비롯해서심심하면 "게이밍 pc " 견적좀 짜달라는 문의가 그렇게많았습니다정말 열풍 수준으로 너도나도 핸드폰 사듯이 1060 2060쯤 달린 글카를 박고 100언저리의 컴터를 맞추는게유행이었는데지금은 미들급 겜용 컴터도 200을 바라봐야 하는 시대라 그런지 대충 3060싸게 사서 100언더로맞추거나플스 닌텐도 이런거로 빠지는 경우 많이 보이더라고요</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr"/>
+      <c r="B391" s="4" t="inlineStr"/>
+      <c r="C391" s="4" t="inlineStr"/>
+      <c r="D391" s="4" t="inlineStr">
+        <is>
+          <t>AMD 라데온은 제대로 망하고 있네요. 😩</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+      <c r="B392" s="4" t="inlineStr"/>
+      <c r="C392" s="4" t="inlineStr"/>
+      <c r="D392" s="4" t="inlineStr">
+        <is>
+          <t>@alvysinger님 대신콘솔, 내장형은 냠냠쩝쩝 중이니까요 그거로라도 만족을 ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr"/>
+      <c r="B393" s="4" t="inlineStr"/>
+      <c r="C393" s="4" t="inlineStr"/>
+      <c r="D393" s="4" t="inlineStr">
+        <is>
+          <t>저 같은 경우 그래픽 카드 가격 빠질때까지 데스크탑 교체 수요가 적을 것 같아서 그래픽카드 가격 좀 낮아진 후에나 램 수요도 살아난다고생각해 그 때 가서야 삼전에 투자해볼까 생각중입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr"/>
+      <c r="B394" s="4" t="inlineStr"/>
+      <c r="C394" s="4" t="inlineStr"/>
+      <c r="D394" s="4" t="inlineStr">
+        <is>
+          <t>A.I 연구 때문에 가격은 상관 없다는 거 같았는데 아니었군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" s="4" t="inlineStr"/>
+      <c r="C395" s="4" t="inlineStr"/>
+      <c r="D395" s="4" t="inlineStr">
+        <is>
+          <t>@죽_끓듯님 게임용 그래픽 카드와산업용 A100, H100 같은 건 다른 제품이니까요. 저기서 다루는 건 전통적인 PC용 글카죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr"/>
+      <c r="B396" s="4" t="inlineStr"/>
+      <c r="C396" s="4" t="inlineStr"/>
+      <c r="D396" s="4" t="inlineStr">
+        <is>
+          <t>@죽_끓듯님 엔비디아 입장에서는상관없죠.엔당이 대놓고 데스크탑 GPU 죽이고 데이터센터 GPU를 밀고 있죠. 그러니 당연히 데스크탑 GPU 판먀량은떨어지죠.소비자와 GPU 만들어 파는 업체들이 피말리는 거죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr"/>
+      <c r="B397" s="4" t="inlineStr"/>
+      <c r="C397" s="4" t="inlineStr"/>
+      <c r="D397" s="4" t="inlineStr">
+        <is>
+          <t>게이밍 컴 하나 맞출돈으로 그냥 아이패드랑 게임기 샀습니다 ㅋㅋ아 그러고도 돈이 남는군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr"/>
+      <c r="B398" s="4" t="inlineStr"/>
+      <c r="C398" s="4" t="inlineStr"/>
+      <c r="D398" s="4" t="inlineStr">
+        <is>
+          <t>전에도 비슷한 얘기했지만, nvidia는 일반 유저용 그래픽카드는 겸사겸사 하고 있는 사업입니다. 메인은 어디까지나 ai 머신러닝용 솔루션이고주가는 고공행진을 하고 있죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr"/>
+      <c r="B399" s="4" t="inlineStr"/>
+      <c r="C399" s="4" t="inlineStr"/>
+      <c r="D399" s="4" t="inlineStr">
+        <is>
+          <t>@아마티님 그래도 작년 후반가서야 데이터센터 분야 매출이 게이밍 분야를 넘었어요. 게이밍이 그정도로 찬밥을 줄 정도의 시장인가 싶어요.올해는 대놓고 게이밍분야 버리겠다는 의지를 컨퍼런스에서도 보여주긴 했는데, 겸사겸사 라고 살짝 극적으로 표현해도 반박하기 힘들 정도가 되니 씁쓸해지네요...ㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr"/>
+      <c r="B400" s="4" t="inlineStr"/>
+      <c r="C400" s="4" t="inlineStr"/>
+      <c r="D400" s="4" t="inlineStr">
+        <is>
+          <t>@님 매출이나 판매량으로는 당연히 리테일 게이밍이 계속 앞서왔지만, 예전에도 타이탄 같은 걸로계속 간보면서 타이밍 재고 있었던 걸로 보입니다.사실 리테일 게이밍도 미래가 그리 밝지도 않은게... 전통적인 콘솔과 모바일로 트렌드가넘어온지도 시간이 꽤 되었죠. X를 눌러 조의를 표할 날이 얼마 안남았.. ㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr"/>
+      <c r="B401" s="4" t="inlineStr"/>
+      <c r="C401" s="4" t="inlineStr"/>
+      <c r="D401" s="4" t="inlineStr">
+        <is>
+          <t>@아마티님 뭐 그나마 제입장에서는 다른 비싼 A 시리즈 대신 4090 을 개인적으로 사서 쓸 수 있다는거에 굽신굽신하고 있으니 ㅠ ㄷㄷ</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr"/>
+      <c r="B402" s="4" t="inlineStr"/>
+      <c r="C402" s="4" t="inlineStr"/>
+      <c r="D402" s="4" t="inlineStr">
+        <is>
+          <t>요즘 GPU 가격 보면 분명히 AMD가 치고 들어올 수 있을 거 같긴한데, AMD마저도 가성비를 개선할 생각이 별로 없는거 보면 가격을 올릴만한요인이 분명히 있긴 한 것 같은 생각도 들기는 하더라고요.GPU 코어 갯수가 CPU 보다 선형적으로 증가하고 있는 만큼 생산비용이비싸지고 있는건지...GPU 생산 원가 트렌드가 궁금해 지더라고요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr"/>
+      <c r="B403" s="4" t="inlineStr"/>
+      <c r="C403" s="4" t="inlineStr"/>
+      <c r="D403" s="4" t="inlineStr">
+        <is>
+          <t>@님 nvidia 는 전통의 크고알흠다운 빅 칩 에 단가도 높은 거야 아실거고요.풀 칩 에서 컷 칩 으로 체급 내려서 좀 싸게 파는 것 이야 공공연한 비밀 입니다 ..만</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr"/>
+      <c r="B404" s="4" t="inlineStr"/>
+      <c r="C404" s="4" t="inlineStr"/>
+      <c r="D404" s="4" t="inlineStr">
+        <is>
+          <t>@kino&gt;님 칩 단가비싼거야 당연히 압니다만, 최근 몇 년 동안 칩 생산 가격 변화가 궁금해서요 ㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr"/>
+      <c r="B405" s="4" t="inlineStr"/>
+      <c r="C405" s="4" t="inlineStr"/>
+      <c r="D405" s="4" t="inlineStr">
+        <is>
+          <t>황회장 잘나가는 것도 요.아마존 메타 구글 ms 등등 자체AI 연산용 뉴럴 컴퓨팅 칩 개발끝나면 입장이 뒤바뀔 걸요.. 최근1~2년사이에 코로나19 팬데믹버블 꺼지고나서 nvidia 주가 나락 갔다가 겨우 회복 되었 듯이요...거대IT공룡 기업들자체커스텀CPU 개발 엔지니어 투입 하면2년 만에뽑아 내고도 남습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" s="4" t="inlineStr"/>
+      <c r="C406" s="4" t="inlineStr"/>
+      <c r="D406" s="4" t="inlineStr">
+        <is>
+          <t>@kino&gt;님 구글이 TPU개발 역사가 오래 됐음에도 최근 GPT같은 모델을 효율적으로 못 돌라는게 문제 입니다. 변화가 너무 빨라요. 커스텀칩이 정해진 연산만 잘하는데딥러닝쪽 변화가 너무 빨라서 대응이 안됩니다. 그랴서 구글도 gpu 쓰는 겁니다. 특히 Transformer로 오면서 커스텀 칩들 맛탱이갔어요. 이게 메모리 대역폭이 중요해지고, 새로운 모델 디자인에 유연한 gpu가 답입니다 지금 열심히 트랜스포머 대응해봤자 몇년 후면 또바뀝니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr"/>
+      <c r="B407" s="4" t="inlineStr"/>
+      <c r="C407" s="4" t="inlineStr"/>
+      <c r="D407" s="4" t="inlineStr">
+        <is>
+          <t>스팀과 에픽의 게임 리스트 때문에 못떠나는 분들께 한마디 합니다.4090 한장 살돈이면,PS5, XBSX, 닌텐도 스위치,스팀덱까지 사고 중소기업 티비나 적당한 게이밍 모니터를 살수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr"/>
+      <c r="B408" s="4" t="inlineStr"/>
+      <c r="C408" s="4" t="inlineStr"/>
+      <c r="D408" s="4" t="inlineStr">
+        <is>
+          <t>@호경씨님 4090 사는 분들은극소수 매니아층이고 스팀 사용자 pc스펙 분석한거 보면 절대 다수가 20만원 전후의 메인스트림급 글카 씁니다. ㅎㅎ 예전으로 치면1060정도죠. 인터넷이야 4090 4080 많이 사는 거 같지만 실제로는 극히 미미해요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr"/>
+      <c r="B409" s="4" t="inlineStr"/>
+      <c r="C409" s="4" t="inlineStr"/>
+      <c r="D409" s="4" t="inlineStr">
+        <is>
+          <t>@호경씨님 4k 게이밍을노리면... 콘솔로는 좀 부족해서요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr"/>
+      <c r="B410" s="4" t="inlineStr"/>
+      <c r="C410" s="4" t="inlineStr"/>
+      <c r="D410" s="4" t="inlineStr">
+        <is>
+          <t>@호경씨님 비교대상이 너무극단적인데요 ㅎㅎ.. 제가 pc 게임 특히 fps 하느라 콘솔로 온전히 안넘어갑니다만 엔비디아 가격정책이랑 콘솔의 나라 일본 대중인식 꼬라지보면 콘솔로 넘어가고 컨버터 써야 하나 진지하게 고민 중입니다 ㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr"/>
+      <c r="B411" s="4" t="inlineStr"/>
+      <c r="C411" s="4" t="inlineStr"/>
+      <c r="D411" s="4" t="inlineStr">
+        <is>
+          <t>@M4XiMUEL님 FPS는다른걸 떠나서 “키마가 아니라 패드로 그게 되나???” 라서 못하겠더군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr"/>
+      <c r="B412" s="4" t="inlineStr"/>
+      <c r="C412" s="4" t="inlineStr"/>
+      <c r="D412" s="4" t="inlineStr">
+        <is>
+          <t>@CaTo님 공감합니다. 다만 그래도해보다보면 나름의 매력이 있고 재미도 있습니다. 하지만 키보드 마우스를 연결해서 사용 가능하게 해주는 컨버터가 일본에선 대유행에 아주 당연하다는듯이 사용되고 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr"/>
+      <c r="B413" s="4" t="inlineStr"/>
+      <c r="C413" s="4" t="inlineStr"/>
+      <c r="D413" s="4" t="inlineStr">
+        <is>
+          <t>@M4XiMUEL님 아 그냥제가 안되서 하시는 분들 보니까 신기하더라구요패드가 아닌 스틱 세대다 보니;;;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr"/>
+      <c r="B414" s="4" t="inlineStr"/>
+      <c r="C414" s="4" t="inlineStr"/>
+      <c r="D414" s="4" t="inlineStr">
+        <is>
+          <t>30만원에 메인스트림 제품 살 수 있었던 시대가 있었죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr"/>
+      <c r="B415" s="4" t="inlineStr"/>
+      <c r="C415" s="4" t="inlineStr"/>
+      <c r="D415" s="4" t="inlineStr">
+        <is>
+          <t>@체크카드컬렉터님 지금은 3050도못사고 1660이나 살 수 있죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr"/>
+      <c r="B416" s="4" t="inlineStr"/>
+      <c r="C416" s="4" t="inlineStr"/>
+      <c r="D416" s="4" t="inlineStr">
+        <is>
+          <t>@체크카드컬렉터님 그 때도비싸다고 생각하며 샀는데 이제는 제 상상을 아득히 뛰어넘는 영역이네요 ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" s="4" t="inlineStr"/>
+      <c r="C417" s="4" t="inlineStr"/>
+      <c r="D417" s="4" t="inlineStr">
+        <is>
+          <t>@체크카드컬렉터님 970은 아예30만원대였고 1070까지는 그래도 하급제품 영끌 하면 40언더가 나오긴 했었는데 2070에서 확 오르더니 지금은 4070사려면 80까지줘야되네요 ㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" s="4" t="inlineStr"/>
+      <c r="C418" s="4" t="inlineStr"/>
+      <c r="D418" s="4" t="inlineStr">
+        <is>
+          <t>결론 : 엔비디아가 가격 장난질만 포기하면 모든 문제가 한번에 해결됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr"/>
+      <c r="B419" s="4" t="inlineStr"/>
+      <c r="C419" s="4" t="inlineStr"/>
+      <c r="D419" s="4" t="inlineStr">
+        <is>
+          <t>저장장치판매량이 이렇게 줄어드는군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr"/>
+      <c r="B420" s="4" t="inlineStr"/>
+      <c r="C420" s="4" t="inlineStr"/>
+      <c r="D420" s="4" t="inlineStr">
+        <is>
+          <t>게임 할려면 게임기 사는 시대가 도래했습니다. 저 가격이면 플스 엑박 닌텐도 셋트 구매 가능할 듯 하네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr"/>
+      <c r="B421" s="4" t="inlineStr"/>
+      <c r="C421" s="4" t="inlineStr"/>
+      <c r="D421" s="4" t="inlineStr">
+        <is>
+          <t>코인이 저무니... 당연한 수순인가요</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr"/>
+      <c r="B422" s="4" t="inlineStr"/>
+      <c r="C422" s="4" t="inlineStr"/>
+      <c r="D422" s="4" t="inlineStr">
+        <is>
+          <t>판매량 감소 요인은 복합적인 것 같아요.엔비디아는 어차피 Ai분야로 돈 쏠쏠하게 벌고 있고 경쟁사 상태도 별로니 굳이 싸게 팔 필요를 못느낄 테고AMD는 AMD대로 제대로 된 성능도 못 뽑는데 싸지도 않고최근 나오는 PC 고사양 게임들이 정말 업글하지 않으면 못배길만큼 대작들인가 하면 그렇지도 않고뭐 그러니 소비자들이 다들 이전 세대 가성비만 찾지 신제품을 사려 하지 않는 것 같아요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr"/>
+      <c r="B423" s="4" t="inlineStr"/>
+      <c r="C423" s="4" t="inlineStr"/>
+      <c r="D423" s="4" t="inlineStr">
+        <is>
+          <t>불과 몇년 전만해도 게임용PC에 돈 500쓰는 건 솔직히 좋게말해 자기만족 나쁘게말해 돈지X의 영역이었습니다만이젠 주요 부품만 하이엔드로박아도 500을 그냥 초과하더군요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr"/>
+      <c r="B424" s="4" t="inlineStr"/>
+      <c r="C424" s="4" t="inlineStr"/>
+      <c r="D424" s="4" t="inlineStr">
+        <is>
+          <t>3dfx 시절이 그립다고 옆에서 삼촌이 이야기 하니까 뒤에 큰 아부지가 simcga로도 잘 살았던 시절이 있었다고 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr"/>
+      <c r="B425" s="4" t="inlineStr"/>
+      <c r="C425" s="4" t="inlineStr"/>
+      <c r="D425" s="4" t="inlineStr">
+        <is>
+          <t>그래픽카드가 사치의 영역이 될 줄 누가 알았겠습니까?앞으로는 그래픽카드는 기업들이 사는 물건이 되고, 결국은 높은 내장 그래픽으로버티며 클라우드 컴퓨팅이 되기를 기다리겠지요.돈이 있고 없고 를 떠나서 어느샌가 너무 높은 수준의 성능과 가격이 되어가는 것같습니다.모든 취미를 즐기는 분들이 기함급 제품들을 원하는 것 같네요.있는 자에게는 매일이 크리스마스 같지만, 없는 자들은 상대적박탈감을 느끼며 살아가겠죠.그 갭이 점점 커지는 것 같아서 두려울 따름입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr"/>
+      <c r="B426" s="4" t="inlineStr"/>
+      <c r="C426" s="4" t="inlineStr"/>
+      <c r="D426" s="4" t="inlineStr">
+        <is>
+          <t>바닥이닛</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr"/>
+      <c r="B427" s="4" t="inlineStr"/>
+      <c r="C427" s="4" t="inlineStr"/>
+      <c r="D427" s="4" t="inlineStr">
+        <is>
+          <t>가격을 어지간히 올렸어야 말이지요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr"/>
+      <c r="B428" s="4" t="inlineStr"/>
+      <c r="C428" s="4" t="inlineStr"/>
+      <c r="D428" s="4" t="inlineStr">
+        <is>
+          <t>그러나 주가는 역대 최고...</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" s="4" t="inlineStr"/>
+      <c r="C429" s="4" t="inlineStr"/>
+      <c r="D429" s="4" t="inlineStr">
+        <is>
+          <t>점점 더 떨어질겁니다. 요즘 아이들이랑 이야기해보면 컴퓨터의 필요성 자체에 대한 의문을 가하지더라구요. 제가 게임은 어떻게 하냐고 하니까 폰이랑콘솔로 한다고 요즘은 콘솔도 잘 안한다고 하더라구요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" s="4" t="inlineStr"/>
+      <c r="C430" s="4" t="inlineStr"/>
+      <c r="D430" s="4" t="inlineStr">
+        <is>
+          <t>플레그쉽 나오고 1년넘어서 동세대 보급형이 나오는게 말이되냐 황회장넘아...판매량은 그냥 보급형이이끌어주는건데그것도 팔기 싫은것처럼 나왔죠...</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="C431" s="3" t="inlineStr">
+        <is>
+          <t>샘 올트먼 '한국에 오픈AI 사무소 열고 싶어…파트너십 지원'</t>
+        </is>
+      </c>
+      <c r="D431" s="2" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr"/>
+      <c r="B432" s="4" t="inlineStr"/>
+      <c r="C432" s="4" t="inlineStr"/>
+      <c r="D432" s="4" t="inlineStr">
+        <is>
+          <t>호구정부 털어먹으려고 그럴까요 ㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr"/>
+      <c r="B433" s="4" t="inlineStr"/>
+      <c r="C433" s="4" t="inlineStr"/>
+      <c r="D433" s="4" t="inlineStr">
+        <is>
+          <t>@님 합리적 의심이죠...</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr"/>
+      <c r="B434" s="4" t="inlineStr"/>
+      <c r="C434" s="4" t="inlineStr"/>
+      <c r="D434" s="4" t="inlineStr">
+        <is>
+          <t>네이버의 싹을 잘라 버리려는 거 아닐까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr"/>
+      <c r="B435" s="4" t="inlineStr"/>
+      <c r="C435" s="4" t="inlineStr"/>
+      <c r="D435" s="4" t="inlineStr">
+        <is>
+          <t>어제 지령이 있었거든요 ㅋㅋㅋㅋㅋ와우..</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" s="4" t="inlineStr"/>
+      <c r="C436" s="4" t="inlineStr"/>
+      <c r="D436" s="4" t="inlineStr">
+        <is>
+          <t>@버섯이님 12931강이라니요.... 변수에 오버플로우 났나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" s="4" t="inlineStr"/>
+      <c r="C437" s="4" t="inlineStr"/>
+      <c r="D437" s="4" t="inlineStr">
+        <is>
+          <t>@버섯이님 ㅋㅋㅋ 컨텍 왔나보네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" s="4" t="inlineStr"/>
+      <c r="C438" s="4" t="inlineStr"/>
+      <c r="D438" s="4" t="inlineStr">
+        <is>
+          <t>일본에도 이런내용이 오고갔대요. 현장 다녀왔어요. ㅎ/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr"/>
+      <c r="B439" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="C439" s="3" t="inlineStr">
+        <is>
+          <t>레딧 서드파티 앱 Apollo 등 여러 앱 서비스 종료 / 12일 레딧 상대로 단체 항의 예정</t>
+        </is>
+      </c>
+      <c r="D439" s="2" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr"/>
+      <c r="B440" s="4" t="inlineStr"/>
+      <c r="C440" s="4" t="inlineStr"/>
+      <c r="D440" s="4" t="inlineStr">
+        <is>
+          <t>레딧 기본 앱이 잠금 기능이 없어서 Apollo 고민하고 있었는데요… ㄷㄷ…</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr"/>
+      <c r="B441" s="4" t="inlineStr"/>
+      <c r="C441" s="4" t="inlineStr"/>
+      <c r="D441" s="4" t="inlineStr">
+        <is>
+          <t>저도 Boost쓰고 있는데 레딧의 정책이 이해 안가는건 아니네요다만 모바일 앱좀 개선해줬으면..</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr"/>
+      <c r="B442" s="4" t="inlineStr"/>
+      <c r="C442" s="4" t="inlineStr"/>
+      <c r="D442" s="4" t="inlineStr">
+        <is>
+          <t>Apollo 앱 만져보면 거의 애플에서 만든 앱 느낌 수준으로 잘 다듬어진 느낌인데, 거기에 들어간 시간과 노력, 그 앱이 레딧의 접근성에얼마나 기여를 했는지 생각해보면 마지막이 참담하군요;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" s="4" t="inlineStr"/>
+      <c r="C443" s="4" t="inlineStr"/>
+      <c r="D443" s="4" t="inlineStr">
+        <is>
+          <t>woogler님// 개발하신 분이 실제로 애플에서 일했던 분이기도 합니다. 물론 애플 출신이라고 꼭 애플 느낌의 앱을 만드는 건 아니겠지만요.아무튼 많은 사랑을 받은 앱인데 씁쓸하네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" s="4" t="inlineStr"/>
+      <c r="C444" s="4" t="inlineStr"/>
+      <c r="D444" s="4" t="inlineStr">
+        <is>
+          <t>@woogler님 요번WWDC에서만 해도 페더리기가 언급했던 어플입니다 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" s="4" t="inlineStr"/>
+      <c r="C445" s="4" t="inlineStr"/>
+      <c r="D445" s="4" t="inlineStr">
+        <is>
+          <t>기본 앱은 이미지 다운받으면 자꾸 워터 마크 찍혀서 싫어요.wallpaper 다운 받은데 워터마크 찍히면 어떻게 쓰라는 거냐~~~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr"/>
+      <c r="B446" s="4" t="inlineStr"/>
+      <c r="C446" s="4" t="inlineStr"/>
+      <c r="D446" s="4" t="inlineStr">
+        <is>
+          <t>이게 ios보단 안드쪽 공앱은 거의 못써먹을 수준이던데…큰일났네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr"/>
+      <c r="B447" s="4" t="inlineStr"/>
+      <c r="C447" s="4" t="inlineStr"/>
+      <c r="D447" s="4" t="inlineStr">
+        <is>
+          <t>아폴로 전에 에일리언 블루도 좋았는데 사서 없애버렸죠..</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="C448" s="3" t="inlineStr">
+        <is>
+          <t>삼성, 챗GPT 대항마 개발 나섰다</t>
+        </is>
+      </c>
+      <c r="D448" s="2" t="inlineStr">
+        <is>
+          <t>[94]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" s="4" t="inlineStr"/>
+      <c r="C449" s="4" t="inlineStr"/>
+      <c r="D449" s="4" t="inlineStr">
+        <is>
+          <t>저게 두 달만에 결과가 나올 수 있는 거였나요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" s="4" t="inlineStr"/>
+      <c r="C450" s="4" t="inlineStr"/>
+      <c r="D450" s="4" t="inlineStr">
+        <is>
+          <t>좋은날왔으면님// 삼성이면 가능합니다. 심심이였던가요?feat.옴니아.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr"/>
+      <c r="B451" s="4" t="inlineStr"/>
+      <c r="C451" s="4" t="inlineStr"/>
+      <c r="D451" s="4" t="inlineStr">
+        <is>
+          <t>@좋은날왔으면님 이미 학습방법,데이타셋 다 나와 있어서 학습시켜서 pre-trained 모델 만드는건 가능할거에요 파인튜닝은 다른 이야기지만요</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr"/>
+      <c r="B452" s="4" t="inlineStr"/>
+      <c r="C452" s="4" t="inlineStr"/>
+      <c r="D452" s="4" t="inlineStr">
+        <is>
+          <t>다르게 생각해 보면 삼성같은 글로벌 기업이 자체 ai가 그동안 없던 것도 문제인건 맞다고 생각이 듭니다. 다들 만들고 있는데 혼자 없어요. 근데짧은 시간안에 만들라는 것도 웃기네요. 없던 이유가 뭔지 알 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" s="4" t="inlineStr"/>
+      <c r="C453" s="4" t="inlineStr"/>
+      <c r="D453" s="4" t="inlineStr">
+        <is>
+          <t>말 엄청 좋아하네욤..</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" s="4" t="inlineStr"/>
+      <c r="C454" s="4" t="inlineStr"/>
+      <c r="D454" s="4" t="inlineStr">
+        <is>
+          <t>jjaljju님// 너무 좋아해서 막 사주더라고요ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" s="4" t="inlineStr"/>
+      <c r="C455" s="4" t="inlineStr"/>
+      <c r="D455" s="4" t="inlineStr">
+        <is>
+          <t>@Roxy님 ++++++1</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" s="4" t="inlineStr"/>
+      <c r="C456" s="4" t="inlineStr"/>
+      <c r="D456" s="4" t="inlineStr">
+        <is>
+          <t>@님 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ무릎을탁치고갑니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr"/>
+      <c r="B457" s="4" t="inlineStr"/>
+      <c r="C457" s="4" t="inlineStr"/>
+      <c r="D457" s="4" t="inlineStr">
+        <is>
+          <t>@Roxy님 그 말로 여대 입학하고막 그런다 아입니꺼</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr"/>
+      <c r="B458" s="4" t="inlineStr"/>
+      <c r="C458" s="4" t="inlineStr"/>
+      <c r="D458" s="4" t="inlineStr">
+        <is>
+          <t>대항마 기다렸어요. 우리 기자님들은 언제나 기대를 저버리지 않는다능. ㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" s="4" t="inlineStr"/>
+      <c r="C459" s="4" t="inlineStr"/>
+      <c r="D459" s="4" t="inlineStr">
+        <is>
+          <t>@님 창의성 없는 화려한 충성 서약 전적들을 보면 이런 기사 제목들도 머지않아 볼수 있지않을까요? “초거대 AI 인공지능 시장, 오픈AI·MS가 끌고 삼성이 밀고”“AI 시장 용호상박, 두 괴물MS-삼성 맞붙는다”“삼성 참전으로 뜨거워진 AI 시장”</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" s="4" t="inlineStr"/>
+      <c r="C460" s="4" t="inlineStr"/>
+      <c r="D460" s="4" t="inlineStr">
+        <is>
+          <t>@님 챗GPT대항마, 구글바드 게섯거라 삼성의 K 인공지능 챗봇 뭐 이런거나오지않을까요?ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" s="4" t="inlineStr"/>
+      <c r="C461" s="4" t="inlineStr"/>
+      <c r="D461" s="4" t="inlineStr">
+        <is>
+          <t>애프터파이어님// 기레기한테 너무 떠먹여 주시는거 아닙니까? 이런 글에 수치심 느끼기보단 와! 그냥 복붙 개이득 이럴듯...</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" s="4" t="inlineStr"/>
+      <c r="C462" s="4" t="inlineStr"/>
+      <c r="D462" s="4" t="inlineStr">
+        <is>
+          <t>쳇 섯거라!</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr"/>
+      <c r="B463" s="4" t="inlineStr"/>
+      <c r="C463" s="4" t="inlineStr"/>
+      <c r="D463" s="4" t="inlineStr">
+        <is>
+          <t>@대쪼님 ㅋ.. 제가 하려고했는데..</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr"/>
+      <c r="B464" s="4" t="inlineStr"/>
+      <c r="C464" s="4" t="inlineStr"/>
+      <c r="D464" s="4" t="inlineStr">
+        <is>
+          <t>패스트 팔로워답게 좀 빨리 따라가야죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" s="4" t="inlineStr"/>
+      <c r="C465" s="4" t="inlineStr"/>
+      <c r="D465" s="4" t="inlineStr">
+        <is>
+          <t>기업 입장에서 굉장히 유용한 도구고,그렇다고 내부 정보를 현재 서비스들에 넣어버리는 것도 말이 안 되고, 필요하긴 한 것같습니다.일반 사용자에게 공개할지는 미지수라는데 제목이 참… 🤣🤣</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" s="4" t="inlineStr"/>
+      <c r="C466" s="4" t="inlineStr"/>
+      <c r="D466" s="4" t="inlineStr">
+        <is>
+          <t>대항마가 아니겠죠, 삼전이 전세계인을 상대로 b2c 서비스 할것도 아닌데요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" s="4" t="inlineStr"/>
+      <c r="C467" s="4" t="inlineStr"/>
+      <c r="D467" s="4" t="inlineStr">
+        <is>
+          <t>기사 제목은 "게 섯거라!" 식으로 적어놨는데 내용은 그게 아니네요. 기자라고 참../Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr"/>
+      <c r="B468" s="4" t="inlineStr"/>
+      <c r="C468" s="4" t="inlineStr"/>
+      <c r="D468" s="4" t="inlineStr">
+        <is>
+          <t>착수했다...곧 프리랜서 모집하려나...</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr"/>
+      <c r="B469" s="4" t="inlineStr"/>
+      <c r="C469" s="4" t="inlineStr"/>
+      <c r="D469" s="4" t="inlineStr">
+        <is>
+          <t>현상황 챗GPT 대항마는 넘쳐나니까.. 적당한 업체 인수인계 하면 손 안대고 코풀수 있을 것 같습니다.정작 급한건 애플 비전 프로짭 버전부터 빨리 시작해야 될거 같은데... 완제품 시판하면 그거 보면서 따라 만들려나...</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" s="4" t="inlineStr"/>
+      <c r="C470" s="4" t="inlineStr"/>
+      <c r="D470" s="4" t="inlineStr">
+        <is>
+          <t>sds가 하는게 나을것 같은데 전자가 직접 나서네요/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" s="4" t="inlineStr"/>
+      <c r="C471" s="4" t="inlineStr"/>
+      <c r="D471" s="4" t="inlineStr">
+        <is>
+          <t>@sansaja23님 아무리 삼성전자가 까여도 돈, 인력, 자원 모든 면에서 그래도글로벌 선두권에 있는 회사죠. SDS는 국내에서야 물론 큰 회사지만 SDS 사이즈로는 무리죠... 전자는 그래도 국내 최상위권의 슈퍼컴퓨팅파워를가지고 있고, 삼성리서치나 종기원 같은 조직을 가지고 있는데, SDS의 AI 조직은 그냥 국내 대기업의 일반적인 조직 하나 사이즈죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" s="4" t="inlineStr"/>
+      <c r="C472" s="4" t="inlineStr"/>
+      <c r="D472" s="4" t="inlineStr">
+        <is>
+          <t>sansaja23님// sds분들에겐 좀 미안한 이야기지만 전자에게 sds는 그냥 그룹내 사내 유지보수 담당하는 전산실 느낌입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr"/>
+      <c r="B473" s="4" t="inlineStr"/>
+      <c r="C473" s="4" t="inlineStr"/>
+      <c r="D473" s="4" t="inlineStr">
+        <is>
+          <t>삼성이 주식 팔고 싶어서기자들에게 약을 팔라고돈을 쥐어줬구나</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr"/>
+      <c r="B474" s="4" t="inlineStr"/>
+      <c r="C474" s="4" t="inlineStr"/>
+      <c r="D474" s="4" t="inlineStr">
+        <is>
+          <t>개발에 나섰다...그러나 수십년쨰 결과물은 없다....</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" s="4" t="inlineStr"/>
+      <c r="C475" s="4" t="inlineStr"/>
+      <c r="D475" s="4" t="inlineStr">
+        <is>
+          <t>소비자용이 아니고 업무에 활용할 툴을 만드는건데기사 제목을 이상하게 써놨네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" s="4" t="inlineStr"/>
+      <c r="C476" s="4" t="inlineStr"/>
+      <c r="D476" s="4" t="inlineStr">
+        <is>
+          <t>일단 스킨은 이분으로?</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" s="4" t="inlineStr"/>
+      <c r="C477" s="4" t="inlineStr"/>
+      <c r="D477" s="4" t="inlineStr">
+        <is>
+          <t>@괴인X님 ...;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr"/>
+      <c r="B478" s="4" t="inlineStr"/>
+      <c r="C478" s="4" t="inlineStr"/>
+      <c r="D478" s="4" t="inlineStr">
+        <is>
+          <t>애플도 LLM쪽에선 비슷한 위치이긴 할겁니다. 하드웨어가 강한 회사들 공통적으로 이쪽에 대한 수익성이 담보되지 않으니 안 뛰어들었던 경향이 강한것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr"/>
+      <c r="B479" s="4" t="inlineStr"/>
+      <c r="C479" s="4" t="inlineStr"/>
+      <c r="D479" s="4" t="inlineStr">
+        <is>
+          <t>ㅋㅋㅋㅋ 게섯거라~~~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" s="4" t="inlineStr"/>
+      <c r="C480" s="4" t="inlineStr"/>
+      <c r="D480" s="4" t="inlineStr">
+        <is>
+          <t>잠깐 유머 게시판인가 했습니다 ... 대항마 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" s="4" t="inlineStr"/>
+      <c r="C481" s="4" t="inlineStr"/>
+      <c r="D481" s="4" t="inlineStr">
+        <is>
+          <t>제가 봤을 땐 기자가 삼성 안티네요.삼성 전자 주식을 머리에 샀나? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" s="4" t="inlineStr"/>
+      <c r="C482" s="4" t="inlineStr"/>
+      <c r="D482" s="4" t="inlineStr">
+        <is>
+          <t>이제서야? ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" s="4" t="inlineStr"/>
+      <c r="C483" s="4" t="inlineStr"/>
+      <c r="D483" s="4" t="inlineStr">
+        <is>
+          <t>오픈AI, 구글, 아마존, 메타 전부 LLM 하루 아침에 만든게 아닙니다. 삼성은 지금 시작하면 몇년 동안 비용도 많이 먹고 수익도 없을텐데감당이 될 지...물론 늦게라도 시작하는게 좋죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr"/>
+      <c r="B484" s="4" t="inlineStr"/>
+      <c r="C484" s="4" t="inlineStr"/>
+      <c r="D484" s="4" t="inlineStr">
+        <is>
+          <t>그러다가 접고, 또 외국회사 어디랑 같이 협업한다고 할거에요.....</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr"/>
+      <c r="B485" s="4" t="inlineStr"/>
+      <c r="C485" s="4" t="inlineStr"/>
+      <c r="D485" s="4" t="inlineStr">
+        <is>
+          <t>삼성 힘들겠네 ... 굥짓거리 디펜스에 ... GPT 따라가랴... 어이쿠 비전프로까지...</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" s="4" t="inlineStr"/>
+      <c r="C486" s="4" t="inlineStr"/>
+      <c r="D486" s="4" t="inlineStr">
+        <is>
+          <t>대항마 멈춰!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" s="4" t="inlineStr"/>
+      <c r="C487" s="4" t="inlineStr"/>
+      <c r="D487" s="4" t="inlineStr">
+        <is>
+          <t>그 대항마는 몇년 걸려 나온 말에 어디 말굽이나 되려나요.만날 뒷북치면서 무슨 대항마 어쩌니 … 이것도 능력이나 싶군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" s="4" t="inlineStr"/>
+      <c r="C488" s="4" t="inlineStr"/>
+      <c r="D488" s="4" t="inlineStr">
+        <is>
+          <t>비전 프로 대항마나 좀 만들어주지...</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" s="4" t="inlineStr"/>
+      <c r="C489" s="4" t="inlineStr"/>
+      <c r="D489" s="4" t="inlineStr">
+        <is>
+          <t>게 섰거라!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr"/>
+      <c r="B490" s="4" t="inlineStr"/>
+      <c r="C490" s="4" t="inlineStr"/>
+      <c r="D490" s="4" t="inlineStr">
+        <is>
+          <t>이쯤되면'대항마'라는 단어 자체가 밈 수준이네요. 이런 용도로 기사에만 등장하는 단어가 되다보니 단어 뜻이아예 바뀔지도.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr"/>
+      <c r="B491" s="4" t="inlineStr"/>
+      <c r="C491" s="4" t="inlineStr"/>
+      <c r="D491" s="4" t="inlineStr">
+        <is>
+          <t>광고 덕지덕지 기대됩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" s="4" t="inlineStr"/>
+      <c r="C492" s="4" t="inlineStr"/>
+      <c r="D492" s="4" t="inlineStr">
+        <is>
+          <t>업체 인수하면 뭐 금방 개발 하기야 하겠죠..</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" s="4" t="inlineStr"/>
+      <c r="C493" s="4" t="inlineStr"/>
+      <c r="D493" s="4" t="inlineStr">
+        <is>
+          <t>협업하면 설계도 유출 될텐데 협업 할까요 ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" s="4" t="inlineStr"/>
+      <c r="C494" s="4" t="inlineStr"/>
+      <c r="D494" s="4" t="inlineStr">
+        <is>
+          <t>이것도 한번 배껴보겠다! 라고 출사표를 던진거네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" s="4" t="inlineStr"/>
+      <c r="C495" s="4" t="inlineStr"/>
+      <c r="D495" s="4" t="inlineStr">
+        <is>
+          <t>카카오와 네이버도 이미 하고 있으니 삼성도 못할거 없죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr"/>
+      <c r="B496" s="4" t="inlineStr"/>
+      <c r="C496" s="4" t="inlineStr"/>
+      <c r="D496" s="4" t="inlineStr">
+        <is>
+          <t>삼성이 요새는 소프트웨어의 가치를 인정은 하나봐요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr"/>
+      <c r="B497" s="4" t="inlineStr"/>
+      <c r="C497" s="4" t="inlineStr"/>
+      <c r="D497" s="4" t="inlineStr">
+        <is>
+          <t>네이버꺼 갤럭시를 비롯하여 삼성가전에 탑재해주겠다하면 훨씬 빨리, 쉽게 네이버와도 서로 윈윈하지 않을까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" s="4" t="inlineStr"/>
+      <c r="C498" s="4" t="inlineStr"/>
+      <c r="D498" s="4" t="inlineStr">
+        <is>
+          <t>기자가 삼성 안티인가 싶네요. 그놈의 대항마 타령해서 오히려 이상하게 만들어요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" s="4" t="inlineStr"/>
+      <c r="C499" s="4" t="inlineStr"/>
+      <c r="D499" s="4" t="inlineStr">
+        <is>
+          <t>대함마? 오함마? 오바마?</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" s="4" t="inlineStr"/>
+      <c r="C500" s="4" t="inlineStr"/>
+      <c r="D500" s="4" t="inlineStr">
+        <is>
+          <t>한국형 gpt!</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" s="4" t="inlineStr"/>
+      <c r="C501" s="4" t="inlineStr"/>
+      <c r="D501" s="4" t="inlineStr">
+        <is>
+          <t>IOS 대항마 개발해서 폰에 탑재예정 같은 소리네여</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr"/>
+      <c r="B502" s="4" t="inlineStr"/>
+      <c r="C502" s="4" t="inlineStr"/>
+      <c r="D502" s="4" t="inlineStr">
+        <is>
+          <t>오픈 소스로 개인 개발자들이나 소규모 단체에서 만들고 있으니 삼성도 한다고 하는거겠죠. 대항마? 말장난이죠.. 그냥 남들 하는거따라하는거면서..</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr"/>
+      <c r="B503" s="4" t="inlineStr"/>
+      <c r="C503" s="4" t="inlineStr"/>
+      <c r="D503" s="4" t="inlineStr">
+        <is>
+          <t>지겹다yo</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" s="4" t="inlineStr"/>
+      <c r="C504" s="4" t="inlineStr"/>
+      <c r="D504" s="4" t="inlineStr">
+        <is>
+          <t>어차피 핵심 AI 모델은 구글이 오픈해 놓았으니까요.. 트랜스포머.. 였나요? 물론 핵심 모델이 오픈되어 있다고 chatGPT 같은 게쉽사리 만들어지는 건 아닙니다만..그렇다고 손 놓고 있을 수는 없겠죠...</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" s="4" t="inlineStr"/>
+      <c r="C505" s="4" t="inlineStr"/>
+      <c r="D505" s="4" t="inlineStr">
+        <is>
+          <t>훈민정음 생각나네요 ㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" s="4" t="inlineStr"/>
+      <c r="C506" s="4" t="inlineStr"/>
+      <c r="D506" s="4" t="inlineStr">
+        <is>
+          <t>same soon...</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr"/>
+      <c r="B507" s="4" t="inlineStr"/>
+      <c r="C507" s="4" t="inlineStr"/>
+      <c r="D507" s="4" t="inlineStr">
+        <is>
+          <t>빅스비는 어떡하고!!! 네이버로 손잡고 적당히 네이버 ChatGPT 이용할 줄 알았더니..연구소 박사님들을 괴롭히는 쪽으로결정했나보군요..한 편으론 이해가 갑니다. GPT 기반 AI를 전사적으로 활용할 생각인것 같은데..아무리 사촌이라고 해도 결국은남인 네이버에 의존해야 하는 상황은 또 싫을테니..</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr"/>
+      <c r="B508" s="4" t="inlineStr"/>
+      <c r="C508" s="4" t="inlineStr"/>
+      <c r="D508" s="4" t="inlineStr">
+        <is>
+          <t>기승전 - '바다OS' 가 되지 않길 바래 봅니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" s="4" t="inlineStr"/>
+      <c r="C509" s="4" t="inlineStr"/>
+      <c r="D509" s="4" t="inlineStr">
+        <is>
+          <t>명텐도가 어찌되었더라....</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" s="4" t="inlineStr"/>
+      <c r="C510" s="4" t="inlineStr"/>
+      <c r="D510" s="4" t="inlineStr">
+        <is>
+          <t>사내용 개발이야 당연히 하는거 아닌가요..?</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" s="4" t="inlineStr"/>
+      <c r="C511" s="4" t="inlineStr"/>
+      <c r="D511" s="4" t="inlineStr">
+        <is>
+          <t>게 섯거라....................요</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr"/>
+      <c r="B512" s="4" t="inlineStr"/>
+      <c r="C512" s="4" t="inlineStr"/>
+      <c r="D512" s="4" t="inlineStr">
+        <is>
+          <t>그냥 할 줄 아는거나 제대로 하길</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr"/>
+      <c r="B513" s="4" t="inlineStr"/>
+      <c r="C513" s="4" t="inlineStr"/>
+      <c r="D513" s="4" t="inlineStr">
+        <is>
+          <t>미안한데.. 못할꺼 같아.. 그냥 반도체같이 니네 잘하는걸로 장점 부각하는게...</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" s="4" t="inlineStr"/>
+      <c r="C514" s="4" t="inlineStr"/>
+      <c r="D514" s="4" t="inlineStr">
+        <is>
+          <t>전혀 기대가 되지 않는 제가 이상한 것 같기도 하고,기술력보다는 모방과 타사비방에 능하기에 그렇게 느끼게 된건지IT쪽에는 가장어울리지 않는 회사같네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" s="4" t="inlineStr"/>
+      <c r="C515" s="4" t="inlineStr"/>
+      <c r="D515" s="4" t="inlineStr">
+        <is>
+          <t>누군가의 KPI...이지 않을까 싶어요....</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" s="4" t="inlineStr"/>
+      <c r="C516" s="4" t="inlineStr"/>
+      <c r="D516" s="4" t="inlineStr">
+        <is>
+          <t>대항마가 될지 주화입마가 될지 곧 알게 되겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr"/>
+      <c r="B517" s="4" t="inlineStr"/>
+      <c r="C517" s="4" t="inlineStr"/>
+      <c r="D517" s="4" t="inlineStr">
+        <is>
+          <t>네이버에 외주 준 것으로 알고 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr"/>
+      <c r="B518" s="4" t="inlineStr"/>
+      <c r="C518" s="4" t="inlineStr"/>
+      <c r="D518" s="4" t="inlineStr">
+        <is>
+          <t>? 왜 저게 대항마예요?그냥 밈 화 된거예요??</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" s="4" t="inlineStr"/>
+      <c r="C519" s="4" t="inlineStr"/>
+      <c r="D519" s="4" t="inlineStr">
+        <is>
+          <t>게섯거라</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" s="4" t="inlineStr"/>
+      <c r="C520" s="4" t="inlineStr"/>
+      <c r="D520" s="4" t="inlineStr">
+        <is>
+          <t>하이 빅스비 재미있는 이야기 해줘~</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" s="4" t="inlineStr"/>
+      <c r="C521" s="4" t="inlineStr"/>
+      <c r="D521" s="4" t="inlineStr">
+        <is>
+          <t>대항마 ㅋㅋㅋ빅스비를 정훈교육 한건가요? ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr"/>
+      <c r="B522" s="4" t="inlineStr"/>
+      <c r="C522" s="4" t="inlineStr"/>
+      <c r="D522" s="4" t="inlineStr">
+        <is>
+          <t>???: 챗 GPT 게 섯거라!~</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr"/>
+      <c r="B523" s="4" t="inlineStr"/>
+      <c r="C523" s="4" t="inlineStr"/>
+      <c r="D523" s="4" t="inlineStr">
+        <is>
+          <t>이거 사내용으로 쓰려는 거겠죠챗지피티같은 서비스는 필요한데사내기밀이 흘러나가게 할 순없으니....</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" s="4" t="inlineStr"/>
+      <c r="C524" s="4" t="inlineStr"/>
+      <c r="D524" s="4" t="inlineStr">
+        <is>
+          <t>보안 때문에 사내용 별도 개발하는 건데 기레기가 기레기 했네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" s="4" t="inlineStr"/>
+      <c r="C525" s="4" t="inlineStr"/>
+      <c r="D525" s="4" t="inlineStr">
+        <is>
+          <t>베타테스트는 직원들이 다 해야겠죠? ㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" s="4" t="inlineStr"/>
+      <c r="C526" s="4" t="inlineStr"/>
+      <c r="D526" s="4" t="inlineStr">
+        <is>
+          <t>늘 그렇듯 삼성은 패스트팔로워전략.. 글로벌 대기업 삼성은 언제까지 남 쫓아가기만 할것인지..ㅉㅉㅉ</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr"/>
+      <c r="B527" s="4" t="inlineStr"/>
+      <c r="C527" s="4" t="inlineStr"/>
+      <c r="D527" s="4" t="inlineStr">
+        <is>
+          <t>그 대항마로 만든 쳇에 바이든 물어보면 참 재밌겠네요..;;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr"/>
+      <c r="B528" s="4" t="inlineStr"/>
+      <c r="C528" s="4" t="inlineStr"/>
+      <c r="D528" s="4" t="inlineStr">
+        <is>
+          <t>AI 학습도 겨우 하는 수준인데…어디선가는 준비는 한모양이지만…대항마요ㅎㅎㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" s="4" t="inlineStr"/>
+      <c r="C529" s="4" t="inlineStr"/>
+      <c r="D529" s="4" t="inlineStr">
+        <is>
+          <t>국내 최고 기업인데, 개발능력은 참 떨어지는 이상한 회사</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr"/>
+      <c r="B530" s="4" t="inlineStr"/>
+      <c r="C530" s="4" t="inlineStr"/>
+      <c r="D530" s="4" t="inlineStr">
+        <is>
+          <t>이렇게 항상 댓글이 만선이니 대항마, 혁신은 없었다 같은 밈에 가까운 기사가 만들어지는 듯요;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" s="4" t="inlineStr"/>
+      <c r="C531" s="4" t="inlineStr"/>
+      <c r="D531" s="4" t="inlineStr">
+        <is>
+          <t>@여울과너울님 기자는 대성공했네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr"/>
+      <c r="B532" s="4" t="inlineStr"/>
+      <c r="C532" s="4" t="inlineStr"/>
+      <c r="D532" s="4" t="inlineStr">
+        <is>
+          <t>내부용입니다 얼마전 내부에서 GPT 쓰다가 보안 문제가 일어난뒤에 내부용으로 먼저 도입하는거죠 삼성 뿐만 아니라 글로벌 로펌등도내부용으로 GPT 구축하고 있습니다 이유는 보안때문이죠특정 기능에 집중된 GPT가 될 확률이 높습니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr"/>
+      <c r="B533" s="4" t="inlineStr"/>
+      <c r="C533" s="4" t="inlineStr"/>
+      <c r="D533" s="4" t="inlineStr">
+        <is>
+          <t>당연히 앞으로 이렇게 다들 가겠지요. 보안이슈가 큽니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr"/>
+      <c r="B534" s="4" t="inlineStr"/>
+      <c r="C534" s="4" t="inlineStr"/>
+      <c r="D534" s="4" t="inlineStr">
+        <is>
+          <t>그놈의 대항마 ㅋㅋㅋ이번엔 한참 있다 등장했네요 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" s="4" t="inlineStr"/>
+      <c r="C535" s="4" t="inlineStr"/>
+      <c r="D535" s="4" t="inlineStr">
+        <is>
+          <t>Chat GPT API 연결 시켜서 단순히 틀 역활만 하는 웹앱 수준을 만드는게 아니라면 7월까지 개발완료 가능한가요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" s="4" t="inlineStr"/>
+      <c r="C536" s="4" t="inlineStr"/>
+      <c r="D536" s="4" t="inlineStr">
+        <is>
+          <t>참 그노무 대항마...너무 뻔해서 ..지겹네요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr"/>
+      <c r="B537" s="4" t="inlineStr"/>
+      <c r="C537" s="4" t="inlineStr"/>
+      <c r="D537" s="4" t="inlineStr">
+        <is>
+          <t>나오고 따라갈게 아니라 이런 소식이 2-3년 전에는 이미 나왔어야 맞는거 아닌가요? GPT 3 수준은 따라갈수 있겠나요</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr"/>
+      <c r="B538" s="4" t="inlineStr"/>
+      <c r="C538" s="4" t="inlineStr"/>
+      <c r="D538" s="4" t="inlineStr">
+        <is>
+          <t>보안 문제로 사내용 입니다가술적으로 걸림돌은 없습니다비아냥 쩌네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" s="4" t="inlineStr"/>
+      <c r="C539" s="4" t="inlineStr"/>
+      <c r="D539" s="4" t="inlineStr">
+        <is>
+          <t>K-GPT ...</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" s="4" t="inlineStr"/>
+      <c r="C540" s="4" t="inlineStr"/>
+      <c r="D540" s="4" t="inlineStr">
+        <is>
+          <t>또 버릇 도졌네요게섰거라</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" s="4" t="inlineStr"/>
+      <c r="C541" s="4" t="inlineStr"/>
+      <c r="D541" s="4" t="inlineStr">
+        <is>
+          <t>대항마잼 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" s="4" t="inlineStr"/>
+      <c r="C542" s="4" t="inlineStr"/>
+      <c r="D542" s="4" t="inlineStr">
+        <is>
+          <t>제 2의 빅스비가 나올껀가? .........yo</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr"/>
+      <c r="B543" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="C543" s="3" t="inlineStr">
+        <is>
+          <t>GM, 포드에 이어 테슬라 충전규격 도입</t>
+        </is>
+      </c>
+      <c r="D543" s="2" t="inlineStr">
+        <is>
+          <t>[46]</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr"/>
+      <c r="B544" s="4" t="inlineStr"/>
+      <c r="C544" s="4" t="inlineStr"/>
+      <c r="D544" s="4" t="inlineStr">
+        <is>
+          <t>편의성이 애플 라이트닝 vs 20핀 tta 급이라서영;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" s="4" t="inlineStr"/>
+      <c r="C545" s="4" t="inlineStr"/>
+      <c r="D545" s="4" t="inlineStr">
+        <is>
+          <t>새로 나오는 차는 테슬라처럼 운전석 뒤쪽에 테슬라 포트를 달고 다른쪽에 CCS포트가 있으면 좋겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" s="4" t="inlineStr"/>
+      <c r="C546" s="4" t="inlineStr"/>
+      <c r="D546" s="4" t="inlineStr">
+        <is>
+          <t>핸드폰도 전기차도 충전커넥트 통일이 안되는군요 ㅎㅎ;나중에 무선으로 대동단결 하려나..</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" s="4" t="inlineStr"/>
+      <c r="C547" s="4" t="inlineStr"/>
+      <c r="D547" s="4" t="inlineStr">
+        <is>
+          <t>현대는 어떤 선택을 할까요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr"/>
+      <c r="B548" s="4" t="inlineStr"/>
+      <c r="C548" s="4" t="inlineStr"/>
+      <c r="D548" s="4" t="inlineStr">
+        <is>
+          <t>@몸튼튼맘튼튼님 현기라면 북미판에만NACS 달아서 팔수도요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr"/>
+      <c r="B549" s="4" t="inlineStr"/>
+      <c r="C549" s="4" t="inlineStr"/>
+      <c r="D549" s="4" t="inlineStr">
+        <is>
+          <t>재미난 판이 벌어지네요. 미국 제조 업체들의 대동단결해서 움직이고 있군요. 유럽 차들의 반응이 궁금해 집니다. (그 여파가 한국에서 어찌될지도 궁금해 지네요)</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" s="4" t="inlineStr"/>
+      <c r="C550" s="4" t="inlineStr"/>
+      <c r="D550" s="4" t="inlineStr">
+        <is>
+          <t>헐 이러면 ccs 1은 진짜 한국만 쓰는 표준?이 되어버리네요그러길래 ccs 할거면 유럽형으로 하지......</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" s="4" t="inlineStr"/>
+      <c r="C551" s="4" t="inlineStr"/>
+      <c r="D551" s="4" t="inlineStr">
+        <is>
+          <t>테슬라 기획과 행동력이 무섭네요. 이정도면 미국은 다 테슬라 슈퍼차저가 먹겠네요...한국은 쉽지 않겠지만 IRA조금만 풀어주면 현기도 다이렇게 바꾸고 그럼 국내도?진짜 DC콤보 아답터랑 테슬라아답터 한번만 해보시면 테슬라가 얼마나 잘 만들었는지... 테슬라주식이...</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" s="4" t="inlineStr"/>
+      <c r="C552" s="4" t="inlineStr"/>
+      <c r="D552" s="4" t="inlineStr">
+        <is>
+          <t>테슬라는 북미에 맘먹고 슈퍼차저 더 늘리겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr"/>
+      <c r="B553" s="4" t="inlineStr"/>
+      <c r="C553" s="4" t="inlineStr"/>
+      <c r="D553" s="4" t="inlineStr">
+        <is>
+          <t>한국에서 GV60, 미국에서 모델3 몰아본 경험에 비추어보면 테슬라 슈퍼차저방식이 두말할것도 없이 압승입니다. 사용자 경험 측면에서 비교가안되죠. 꼬다리(?)도 훨씬 가볍고 유연하고 꼽으면 자동충전결제까지 한방에... 반면 다른 충전 방식들은 무거운 헤드를 들어서 꼽고 빼기도어렵고 따로 카드로 결제도해야하고.. 전세계 모든 자동차들이 테슬라 방식으로 통일되었으면 좋겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr"/>
+      <c r="B554" s="4" t="inlineStr"/>
+      <c r="C554" s="4" t="inlineStr"/>
+      <c r="D554" s="4" t="inlineStr">
+        <is>
+          <t>bata와 vhs의 싸움과 비교되더라고요!! 북미는 NACS로 일단 통일이네요!!!그럼 미국에 수출하는 다른 자동차 업체도 안바꿀수없겠죠!!일단 폭스바겐 따라갈거구요.. 최종적으로 전세계를 통일시키겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" s="4" t="inlineStr"/>
+      <c r="C555" s="4" t="inlineStr"/>
+      <c r="D555" s="4" t="inlineStr">
+        <is>
+          <t>유튜버 미생이 예전에 여행가면서 휴게소에서 찍은 영상 보니 충전 생태계가 테슬라가 압도적이다 보니 다른 전기차 사는건 문제가 많겠구나 싶더군요.미국에선 그냥 테슬라 사는게 가장 현명한 판단이겠네 싶더군요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" s="4" t="inlineStr"/>
+      <c r="C556" s="4" t="inlineStr"/>
+      <c r="D556" s="4" t="inlineStr">
+        <is>
+          <t>포드에 이어서 GM까지.....  CCS1은 우리나라에선 비효율적이지만 그래도 미국서쓰니 따라 간다 라는 명분이었는데, 그 명분자체가이제 흔들리게되었네요,우리나라같은경우는 이제와서 CCS2로가는것도, 테슬라 해골포트를 우리나라에서 채용하는것도 어려워보이니 졸지에CCS1의 사실상 종주국이 되는거 아닌지 ㅡ,.ㅡ;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" s="4" t="inlineStr"/>
+      <c r="C557" s="4" t="inlineStr"/>
+      <c r="D557" s="4" t="inlineStr">
+        <is>
+          <t>먼가 CDMA2000 때가 생각납니다. 남들 다 WCDMA로 서비스 할 때 울며겨자먹기로 서비스해야 했던 LG유플러스의 3G.전세계최초였고 다른 나라 거의 사용하지 않아서 자연스럽게 종주국이 되었을겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr"/>
+      <c r="B558" s="4" t="inlineStr"/>
+      <c r="C558" s="4" t="inlineStr"/>
+      <c r="D558" s="4" t="inlineStr">
+        <is>
+          <t>lazyzeus님// 웰컴 투 칼라파고스</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr"/>
+      <c r="B559" s="4" t="inlineStr"/>
+      <c r="C559" s="4" t="inlineStr"/>
+      <c r="D559" s="4" t="inlineStr">
+        <is>
+          <t>좋은 방향으로 흘러가고 있네요. 현기도 탑재해라~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" s="4" t="inlineStr"/>
+      <c r="C560" s="4" t="inlineStr"/>
+      <c r="D560" s="4" t="inlineStr">
+        <is>
+          <t>Current war 느낌ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" s="4" t="inlineStr"/>
+      <c r="C561" s="4" t="inlineStr"/>
+      <c r="D561" s="4" t="inlineStr">
+        <is>
+          <t>한국만 낙동강 오리알 신세 됐네요. 한국도 빨리 바꾸는게 좋을거 같아요. 이러다 현대도 북미향은 NACS 한국은 CCS1 나오는거아닌지...</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" s="4" t="inlineStr"/>
+      <c r="C562" s="4" t="inlineStr"/>
+      <c r="D562" s="4" t="inlineStr">
+        <is>
+          <t>테슬라가 해골 포트를 북미표준으로 들고 나온 시기가 너무 늦었다고들 그랬죠..포드나 GM은 지금이 가장 빠른 때라고 생각한 것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" s="4" t="inlineStr"/>
+      <c r="C563" s="4" t="inlineStr"/>
+      <c r="D563" s="4" t="inlineStr">
+        <is>
+          <t>한국이 갈라파고스가 되다니</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr"/>
+      <c r="B564" s="4" t="inlineStr"/>
+      <c r="C564" s="4" t="inlineStr"/>
+      <c r="D564" s="4" t="inlineStr">
+        <is>
+          <t>이런건 그냥 빠르게 동참하는게 낫죠..미적거려봐야..</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr"/>
+      <c r="B565" s="4" t="inlineStr"/>
+      <c r="C565" s="4" t="inlineStr"/>
+      <c r="D565" s="4" t="inlineStr">
+        <is>
+          <t>이게 어쩔 수 없는게 테슬라가 북미에 깔아놓은 인프라가 넘사벽이라, 저기에 올라타야지 안그러면 더 불편해지죠.</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" s="4" t="inlineStr"/>
+      <c r="C566" s="4" t="inlineStr"/>
+      <c r="D566" s="4" t="inlineStr">
+        <is>
+          <t>선동도 당하려면 빨리 당해야죠 :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" s="4" t="inlineStr"/>
+      <c r="C567" s="4" t="inlineStr"/>
+      <c r="D567" s="4" t="inlineStr">
+        <is>
+          <t>미국에서 팔려면 동참하는게 맞는데, 한국에서 독점하고픈 욕망은 하지않아야 할테고... 이원화 하자니, 국내에서 욕을 오지게 먹을테고...딜레마긴 하겠네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" s="4" t="inlineStr"/>
+      <c r="C568" s="4" t="inlineStr"/>
+      <c r="D568" s="4" t="inlineStr">
+        <is>
+          <t>테슬라 슈퍼차저로 통일가야죠!</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr"/>
+      <c r="B569" s="4" t="inlineStr"/>
+      <c r="C569" s="4" t="inlineStr"/>
+      <c r="D569" s="4" t="inlineStr">
+        <is>
+          <t>역으로 테슬라도 이핏 사용할 수 있나요~</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr"/>
+      <c r="B570" s="4" t="inlineStr"/>
+      <c r="C570" s="4" t="inlineStr"/>
+      <c r="D570" s="4" t="inlineStr">
+        <is>
+          <t>충전 시퀀스 간소화(꼽자마자 바로충전 및 자동 결제)만 했어도 표준포트가 살아남을텐데 기술이 있음에도 어지간히 안하네요. 카드 대고 충전규격선택하고 완료시전화번호 입력하고 등등 할게 너무 많아요</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" s="4" t="inlineStr"/>
+      <c r="C571" s="4" t="inlineStr"/>
+      <c r="D571" s="4" t="inlineStr">
+        <is>
+          <t>이렇게 된 이상 우리도 빠르게 넘어가든지 해야 할텐데.. 이 정부가 그런 리더쉽이나 판단력이 있을리가 없어서 걱정스럽네요..재벌에 복종하는 정부라 현대가 빠르게 판단하면 바로 바뀔거 같기도 하고... 전기차 살 돈없어 지켜보는 저로선흥미롭게 흘러가네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" s="4" t="inlineStr"/>
+      <c r="C572" s="4" t="inlineStr"/>
+      <c r="D572" s="4" t="inlineStr">
+        <is>
+          <t>진작에 테슬라 커넥터로 통일하는게 맞았다고 생각합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" s="4" t="inlineStr"/>
+      <c r="C573" s="4" t="inlineStr"/>
+      <c r="D573" s="4" t="inlineStr">
+        <is>
+          <t>북미 수출형은 해당 방식으로 변경한다고 해도 국내용은 기존 충전설비, 차량 방식 점유율도 고려해야겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr"/>
+      <c r="B574" s="4" t="inlineStr"/>
+      <c r="C574" s="4" t="inlineStr"/>
+      <c r="D574" s="4" t="inlineStr">
+        <is>
+          <t>결국엔 전기차도 애플과 기타 등등으로 나뉘는 것 처럼 테슬라와 기타 등등으로 종결되는 그림이 그려지내요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr"/>
+      <c r="B575" s="4" t="inlineStr"/>
+      <c r="C575" s="4" t="inlineStr"/>
+      <c r="D575" s="4" t="inlineStr">
+        <is>
+          <t>이제 대한민국은 왜 CCS1을 쓰냐고 물어보면 대답할게 하나도 없어지는데.... 전기차 일이년 팔고 말꺼 아니면 지금이라도 매몰비용으로 치고우리도 넘어가던지 해야....</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" s="4" t="inlineStr"/>
+      <c r="C576" s="4" t="inlineStr"/>
+      <c r="D576" s="4" t="inlineStr">
+        <is>
+          <t>800v ccs와 400v 테슬라구멍 중에 뭘 쓰겠냐 하면 거의 대부분이 테슬라구멍을 택합니다반박시 내가맞구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" s="4" t="inlineStr"/>
+      <c r="C577" s="4" t="inlineStr"/>
+      <c r="D577" s="4" t="inlineStr">
+        <is>
+          <t>@크륵크륵님 님말이 맞습니다 ㅋㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" s="4" t="inlineStr"/>
+      <c r="C578" s="4" t="inlineStr"/>
+      <c r="D578" s="4" t="inlineStr">
+        <is>
+          <t>전기차는 아직 좀 더 기다려야 겠군요</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr"/>
+      <c r="B579" s="4" t="inlineStr"/>
+      <c r="C579" s="4" t="inlineStr"/>
+      <c r="D579" s="4" t="inlineStr">
+        <is>
+          <t>미국 유료 고속도로 휴게소에서 전기차 충전 현실이 이렇다고 하니테슬라랑 연합하는게 이해가 되네요2탄도 있습니다. 전기차가 대중화된 중국도 지방으로 가면 충천할수 가 없다고 하니전략은 좋은것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr"/>
+      <c r="B580" s="4" t="inlineStr"/>
+      <c r="C580" s="4" t="inlineStr"/>
+      <c r="D580" s="4" t="inlineStr">
+        <is>
+          <t>캘리포니아랑 텍사스 비교도 재미있네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" s="4" t="inlineStr"/>
+      <c r="C581" s="4" t="inlineStr"/>
+      <c r="D581" s="4" t="inlineStr">
+        <is>
+          <t>정의선이 오케이 할까요… 이걸 어떠케 보고할까요… ㅋㅋㅋ ㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" s="4" t="inlineStr"/>
+      <c r="C582" s="4" t="inlineStr"/>
+      <c r="D582" s="4" t="inlineStr">
+        <is>
+          <t>바이든이랑 얘기한 내용의 일환같은데. 이왕이면 이렇게 하는게 낫죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" s="4" t="inlineStr"/>
+      <c r="C583" s="4" t="inlineStr"/>
+      <c r="D583" s="4" t="inlineStr">
+        <is>
+          <t>이왕 이렇게 된거.. 국내 규격도 NACS.. TPC로 바꿨으면 좋겠습니다.TPC가 압도적으로 작고 편해요... 충전 시간 차이도 별차이도 안나구요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr"/>
+      <c r="B584" s="4" t="inlineStr"/>
+      <c r="C584" s="4" t="inlineStr"/>
+      <c r="D584" s="4" t="inlineStr">
+        <is>
+          <t>결국 테슬라 밑으로 기어들어가고 북미가 힘을 합쳐서 중국차를 이겨내자로 가나보군요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr"/>
+      <c r="B585" s="4" t="inlineStr"/>
+      <c r="C585" s="4" t="inlineStr"/>
+      <c r="D585" s="4" t="inlineStr">
+        <is>
+          <t>저 개인적으로는 포드, GM이 연이어 슈퍼차저사용계약을 맺은것은, 미국정부의 주도가 아닌가 합니다.슈퍼차저는 구축비용이 다른 고속충전기의몇분의 일밖에 안되며 사용자경험은 월등합니다.보조금을 뿌려야하는 미정부입장에서는 중복투자방지, 대중국 경쟁력확보, 국민편의에서 충전방식통일이 필요하죠.그렇다면 미국에서 판매중인 타 자동차회사들도 거의 다 슈퍼차저를 쓰게 될 가능성이 높습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" s="4" t="inlineStr"/>
+      <c r="C586" s="4" t="inlineStr"/>
+      <c r="D586" s="4" t="inlineStr">
+        <is>
+          <t>뭐가 됐던 테슬라 주식이나 모아야 겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" s="4" t="inlineStr"/>
+      <c r="C587" s="4" t="inlineStr"/>
+      <c r="D587" s="4" t="inlineStr">
+        <is>
+          <t>좋은건 알겠는데 파편화되면 결국 불편은 소비자 몫이라... 시기상조인데도 진입한 댓가겠지만요ㅎㅎ</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" s="4" t="inlineStr"/>
+      <c r="C588" s="4" t="inlineStr"/>
+      <c r="D588" s="4" t="inlineStr">
+        <is>
+          <t>기존 규격이 너무 크고 두껍고 무겁긴 하죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr"/>
+      <c r="B589" s="4" t="inlineStr"/>
+      <c r="C589" s="4" t="inlineStr"/>
+      <c r="D589" s="4" t="inlineStr">
+        <is>
+          <t>한국도 바껴야한다고 봅니다. 사실 전기차타면서 안타시는분들이 단점으로지적하는것들보면 거이 단점으로 느껴지진않으나 충전경험은 진짜 욕나오긴해서요ㅋㅋㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr"/>
+      <c r="B590" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C590" s="3" t="inlineStr">
+        <is>
+          <t>테슬라, 사이버트럭 연37만5천대분 부품 발주</t>
+        </is>
+      </c>
+      <c r="D590" s="2" t="inlineStr">
+        <is>
+          <t>[9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" s="4" t="inlineStr"/>
+      <c r="C591" s="4" t="inlineStr"/>
+      <c r="D591" s="4" t="inlineStr">
+        <is>
+          <t>이거 기다리는 사람들이 너무 많아서 출하 시작해도 예약순위 밀리는 사람들은 몇년 후에나 받겠네요 ㄷㄷ일론 머스크 왈 정말 정말 만들기어려웠다고 하더라구요. 새로운 기술이 많이 들어가서 양산이 쉽지 않았던 듯한...</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" s="4" t="inlineStr"/>
+      <c r="C592" s="4" t="inlineStr"/>
+      <c r="D592" s="4" t="inlineStr">
+        <is>
+          <t>@욱짜2님 프로토타입만 봐도 일단기존에 존재하지 않는 형식의 차량이나 마찬가지였으니까요-ㅁ-;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" s="4" t="inlineStr"/>
+      <c r="C593" s="4" t="inlineStr"/>
+      <c r="D593" s="4" t="inlineStr">
+        <is>
+          <t>예약 순서로 ㅎ 17만번쯤 되는거 같은데 ㅎㅎ미국 본토가 아니니 ㅠㅠ 한 3년 뒤엔 받았으면 좋겠네요 ㅠㅠ/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr"/>
+      <c r="B594" s="4" t="inlineStr"/>
+      <c r="C594" s="4" t="inlineStr"/>
+      <c r="D594" s="4" t="inlineStr">
+        <is>
+          <t>지금까지 양산된적 없던 자동차가 드디어 나오는 군요!! 꼭 올해 안에 나왔으면 좋겠어요!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr"/>
+      <c r="B595" s="4" t="inlineStr"/>
+      <c r="C595" s="4" t="inlineStr"/>
+      <c r="D595" s="4" t="inlineStr">
+        <is>
+          <t>생각보다 공격적인 수치네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr"/>
+      <c r="B596" s="4" t="inlineStr"/>
+      <c r="C596" s="4" t="inlineStr"/>
+      <c r="D596" s="4" t="inlineStr">
+        <is>
+          <t>??: 프로토타입을 만드는건 쉽다. 양산은 또 다른 문제다...</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" s="4" t="inlineStr"/>
+      <c r="C597" s="4" t="inlineStr"/>
+      <c r="D597" s="4" t="inlineStr">
+        <is>
+          <t>@hyundai님 어디서 한말인가요? 정확한 거 같은데...</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" s="4" t="inlineStr"/>
+      <c r="C598" s="4" t="inlineStr"/>
+      <c r="D598" s="4" t="inlineStr">
+        <is>
+          <t>@아마티님</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr"/>
+      <c r="B599" s="4" t="inlineStr"/>
+      <c r="C599" s="4" t="inlineStr"/>
+      <c r="D599" s="4" t="inlineStr">
+        <is>
+          <t>연30만대는 텍사스나 독일공장의 램프업 속도를 보면 빨라야 내년 말 정도는 되야 할겁니다.다만 제일 방해?되는 페인팅 공정이 없기 때문에혹시나 더 빠르게 찍어낼지는 두고 봐야 할것 같습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr"/>
+      <c r="B600" s="4" t="inlineStr"/>
+      <c r="C600" s="4" t="inlineStr"/>
+      <c r="D600" s="4" t="inlineStr">
+        <is>
+          <t>예약은 해놨는데.. 와이프 승인을 받을라면.. 아.. 답이 없네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C601" s="3" t="inlineStr">
+        <is>
+          <t>구글 바드, 프로그래밍 능력 향상 업데이트 공지</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="inlineStr">
+        <is>
+          <t>[1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" s="4" t="inlineStr"/>
+      <c r="C602" s="4" t="inlineStr"/>
+      <c r="D602" s="4" t="inlineStr">
+        <is>
+          <t>UI 개선 좀 해줬으면 좋겠어요. 대화방 형식으로..</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="C603" s="3" t="inlineStr">
+        <is>
+          <t>Apple Developer 사이트 내 'tmoney' Payment networks Beta 추가</t>
+        </is>
+      </c>
+      <c r="D603" s="2" t="inlineStr">
+        <is>
+          <t>[30]</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr"/>
+      <c r="B604" s="4" t="inlineStr"/>
+      <c r="C604" s="4" t="inlineStr"/>
+      <c r="D604" s="4" t="inlineStr">
+        <is>
+          <t>마참내!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr"/>
+      <c r="B605" s="4" t="inlineStr"/>
+      <c r="C605" s="4" t="inlineStr"/>
+      <c r="D605" s="4" t="inlineStr">
+        <is>
+          <t>와.....</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr"/>
+      <c r="B606" s="4" t="inlineStr"/>
+      <c r="C606" s="4" t="inlineStr"/>
+      <c r="D606" s="4" t="inlineStr">
+        <is>
+          <t>와 진짜 생각보다 빨리 진행하네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr"/>
+      <c r="B607" s="4" t="inlineStr"/>
+      <c r="C607" s="4" t="inlineStr"/>
+      <c r="D607" s="4" t="inlineStr">
+        <is>
+          <t>시작이 어렵지 일단 물꼬트이니 그 다음은 일사천리네요. 현카가 진짜 큰일했네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr"/>
+      <c r="B608" s="4" t="inlineStr"/>
+      <c r="C608" s="4" t="inlineStr"/>
+      <c r="D608" s="4" t="inlineStr">
+        <is>
+          <t>@소등하세요님 아이폰이 맨 처음에들어올때도 그랬지만 들어오는게 힘들지 한 번 들어오면 다 흔들어놓네요. 좋습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr"/>
+      <c r="B609" s="4" t="inlineStr"/>
+      <c r="C609" s="4" t="inlineStr"/>
+      <c r="D609" s="4" t="inlineStr">
+        <is>
+          <t>Ios17정식과 함께 풀리려나봅니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr"/>
+      <c r="B610" s="4" t="inlineStr"/>
+      <c r="C610" s="4" t="inlineStr"/>
+      <c r="D610" s="4" t="inlineStr">
+        <is>
+          <t>아이폰15나 iOS17 출시일정에 맞추려나보네요 오...</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr"/>
+      <c r="B611" s="4" t="inlineStr"/>
+      <c r="C611" s="4" t="inlineStr"/>
+      <c r="D611" s="4" t="inlineStr">
+        <is>
+          <t>애플페이는 절대로 못 들어온다. 실패애플페이가 들어와도 어느 카드사도 수수료 때문에 참여 안할거다. 실패애플페이는교통카드 지원안되면 반쪽이고 티머니가 미쳤다고 애플이랑 그걸 하겠냐. 실패애플페이는 사용 가맹점이 확대되기 어렵다. 사용처가적다. 진행중</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr"/>
+      <c r="B612" s="4" t="inlineStr"/>
+      <c r="C612" s="4" t="inlineStr"/>
+      <c r="D612" s="4" t="inlineStr">
+        <is>
+          <t>@밤밤돌이님 안녕하세요. 찻잔 속태풍입니댜(?)</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr"/>
+      <c r="B613" s="4" t="inlineStr"/>
+      <c r="C613" s="4" t="inlineStr"/>
+      <c r="D613" s="4" t="inlineStr">
+        <is>
+          <t>행복회로 기동합니다!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" s="4" t="inlineStr"/>
+      <c r="C614" s="4" t="inlineStr"/>
+      <c r="D614" s="4" t="inlineStr">
+        <is>
+          <t>최근 일본의 금융사 t-money가 애플페이 서비스를 공식화했다고 합니다. 국내 교통카드 서비스 tmoney가 맞는지 좀 더 지켜봐야할 것같네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" s="4" t="inlineStr"/>
+      <c r="C615" s="4" t="inlineStr"/>
+      <c r="D615" s="4" t="inlineStr">
+        <is>
+          <t>@님 저도 해당 내용 방금 확인했네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" s="4" t="inlineStr"/>
+      <c r="C616" s="4" t="inlineStr"/>
+      <c r="D616" s="4" t="inlineStr">
+        <is>
+          <t>@님 아…..</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr"/>
+      <c r="B617" s="4" t="inlineStr"/>
+      <c r="C617" s="4" t="inlineStr"/>
+      <c r="D617" s="4" t="inlineStr">
+        <is>
+          <t>@님 ㅠㅠㅠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr"/>
+      <c r="B618" s="4" t="inlineStr"/>
+      <c r="C618" s="4" t="inlineStr"/>
+      <c r="D618" s="4" t="inlineStr">
+        <is>
+          <t>@님 아앗…..</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" s="4" t="inlineStr"/>
+      <c r="C619" s="4" t="inlineStr"/>
+      <c r="D619" s="4" t="inlineStr">
+        <is>
+          <t>@님 ㅜㅜ</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr"/>
+      <c r="B620" s="4" t="inlineStr"/>
+      <c r="C620" s="4" t="inlineStr"/>
+      <c r="D620" s="4" t="inlineStr">
+        <is>
+          <t>@님 허허…</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" s="4" t="inlineStr"/>
+      <c r="C621" s="4" t="inlineStr"/>
+      <c r="D621" s="4" t="inlineStr">
+        <is>
+          <t>라임라스ry님// 아...</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr"/>
+      <c r="B622" s="4" t="inlineStr"/>
+      <c r="C622" s="4" t="inlineStr"/>
+      <c r="D622" s="4" t="inlineStr">
+        <is>
+          <t>@님 어디서 누가 퍼트렸는지 모르겠지만 확인해본바 T-MONEY 서비스는 2021년 4월21일부로 대응 개시되었다는 보도가 있습니다.T-MONEY는 기존 일본의 ID Payment 방식을 이용한거라PKPaymentNetwork에 등록되는 것도 말이 안되고요.한국 티머니일 가능성이 높겠네요https://www.ccc.co.jp/news/2021/20210421_002077.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr"/>
+      <c r="B623" s="4" t="inlineStr"/>
+      <c r="C623" s="4" t="inlineStr"/>
+      <c r="D623" s="4" t="inlineStr">
+        <is>
+          <t>pigkook님// 그쵸 21년 4월에 이미 출시한 서비스가 지금 베타로 추가될 리가 없습니다ㅎㅎ 저 티머니는 우리나라 티머니가맞습니다/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" s="4" t="inlineStr"/>
+      <c r="C624" s="4" t="inlineStr"/>
+      <c r="D624" s="4" t="inlineStr">
+        <is>
+          <t>tmomey 내부 변수에 suica가 있네요 일본 교통카드</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" s="4" t="inlineStr"/>
+      <c r="C625" s="4" t="inlineStr"/>
+      <c r="D625" s="4" t="inlineStr">
+        <is>
+          <t>별미에요님//PKPaymentNetwork의 프로퍼티에 suica가 있는 거고 tmoney가 17에 베타로 추가 된 겁니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" s="4" t="inlineStr"/>
+      <c r="C626" s="4" t="inlineStr"/>
+      <c r="D626" s="4" t="inlineStr">
+        <is>
+          <t>가즈아아아아아아</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr"/>
+      <c r="B627" s="4" t="inlineStr"/>
+      <c r="C627" s="4" t="inlineStr"/>
+      <c r="D627" s="4" t="inlineStr">
+        <is>
+          <t>만약된다면 워치 사야될 이유가 생깁미다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr"/>
+      <c r="B628" s="4" t="inlineStr"/>
+      <c r="C628" s="4" t="inlineStr"/>
+      <c r="D628" s="4" t="inlineStr">
+        <is>
+          <t>헐 빼박인가요? 가즈아!</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" s="4" t="inlineStr"/>
+      <c r="C629" s="4" t="inlineStr"/>
+      <c r="D629" s="4" t="inlineStr">
+        <is>
+          <t>오! 했다가 근데 직장인들은 대부분 신용카드로 지하철 버스 타지 않으시나요? ㅠㅠ신용카드 추가 + 교통카드 연동도 되었으면좋겠네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" s="4" t="inlineStr"/>
+      <c r="C630" s="4" t="inlineStr"/>
+      <c r="D630" s="4" t="inlineStr">
+        <is>
+          <t>티머니 거쳐서 결제하면 기존 신용카드 교통할인 혜택은 어찌되는걸까요...</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr"/>
+      <c r="B631" s="4" t="inlineStr"/>
+      <c r="C631" s="4" t="inlineStr"/>
+      <c r="D631" s="4" t="inlineStr">
+        <is>
+          <t>@님 삼성페이 선례에 따르면 출시 초기에는 교통할인이 적용이 안 되었고 이후 개선되었습니다만은이번에는 어떨지 모릅니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr"/>
+      <c r="B632" s="4" t="inlineStr"/>
+      <c r="C632" s="4" t="inlineStr"/>
+      <c r="D632" s="4" t="inlineStr">
+        <is>
+          <t>통일도 되려나요.....</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr"/>
+      <c r="B633" s="4" t="inlineStr"/>
+      <c r="C633" s="4" t="inlineStr"/>
+      <c r="D633" s="4" t="inlineStr">
+        <is>
+          <t>@잉스님 지금 정부에선택도 없는 소리겠죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C634" s="3" t="inlineStr">
+        <is>
+          <t>워드프레스가 블로그 글을 대신 써 주는 AI 도구 발표</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr"/>
+      <c r="B635" s="4" t="inlineStr"/>
+      <c r="C635" s="4" t="inlineStr"/>
+      <c r="D635" s="4" t="inlineStr">
+        <is>
+          <t>12개 언어를 지원한다는데 여기에 한국어 번역 기능도 있네요https://jetpack.com/blog/introducing-jetpack-ai-assistant/</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr"/>
+      <c r="B636" s="4" t="inlineStr"/>
+      <c r="C636" s="4" t="inlineStr"/>
+      <c r="D636" s="4" t="inlineStr">
+        <is>
+          <t>이건 사용 안해봤습니다만노션 등 주요 작성툴에 생성형 AI가 들어가고는 있는데 chatgpt 무료버전보다 한참 수준이떨어지네요. 출처도 비공개로 하는 자체 서비스보다 슬랙처럼 유저가 AI선택할수 있게 하는 방식이 좋아보입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr"/>
+      <c r="B637" s="4" t="inlineStr"/>
+      <c r="C637" s="4" t="inlineStr"/>
+      <c r="D637" s="4" t="inlineStr">
+        <is>
+          <t>닷컴계정 오랫만에 로그인 해봐야 겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" s="4" t="inlineStr"/>
+      <c r="C638" s="4" t="inlineStr"/>
+      <c r="D638" s="4" t="inlineStr">
+        <is>
+          <t>음 이거 유료로 chatGPT 굘재해서 요렇게 저렇게 해서 글을 작성해밨는데 유입률은 극히 저조합니다.그냥 제가 직접 작성하는게몇배 유입률이 좋더라구요 ㅋㅋㅋㅋ주제도 다양하게 해 밨는데 비슷하더라구요</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr"/>
+      <c r="B639" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="C639" s="3" t="inlineStr">
+        <is>
+          <t>[약후] 일본 첫 AI 그라비아 사진집, '검토가 부족했다'면서 7일 판매 종료</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" s="4" t="inlineStr"/>
+      <c r="C640" s="4" t="inlineStr"/>
+      <c r="D640" s="4" t="inlineStr">
+        <is>
+          <t>모공에 올라오는 AI 후방이 더 고퀄인듯…/Vollago</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr"/>
+      <c r="B641" s="4" t="inlineStr"/>
+      <c r="C641" s="4" t="inlineStr"/>
+      <c r="D641" s="4" t="inlineStr">
+        <is>
+          <t>빠른 절판으로 희소성 업! 을 노리는 걸까요 ;;</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr"/>
+      <c r="B642" s="4" t="inlineStr"/>
+      <c r="C642" s="4" t="inlineStr"/>
+      <c r="D642" s="4" t="inlineStr">
+        <is>
+          <t>저게 널리퍼지면 실제 그라비아 아이돌이 사라지겠네요</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" s="4" t="inlineStr"/>
+      <c r="C643" s="4" t="inlineStr"/>
+      <c r="D643" s="4" t="inlineStr">
+        <is>
+          <t>@두끼먹고싶다님 동영상쯤 나와야대체될걸요?</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" s="4" t="inlineStr"/>
+      <c r="C644" s="4" t="inlineStr"/>
+      <c r="D644" s="4" t="inlineStr">
+        <is>
+          <t>@두끼먹고싶다님 https://www.clien.net/service/board/park/17700582CLIEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" s="4" t="inlineStr"/>
+      <c r="C645" s="4" t="inlineStr"/>
+      <c r="D645" s="4" t="inlineStr">
+        <is>
+          <t>@두끼먹고싶다님</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr"/>
+      <c r="B646" s="4" t="inlineStr"/>
+      <c r="C646" s="4" t="inlineStr"/>
+      <c r="D646" s="4" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr"/>
+      <c r="B647" s="4" t="inlineStr"/>
+      <c r="C647" s="4" t="inlineStr"/>
+      <c r="D647" s="4" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr"/>
+      <c r="B648" s="4" t="inlineStr"/>
+      <c r="C648" s="4" t="inlineStr"/>
+      <c r="D648" s="4" t="inlineStr">
+        <is>
+          <t>그런데 문득 든 생각이...어쩌다 완전 똑같이 생긴 사람이 나타나서 고소를 할 경우 어떻게 될까요...?</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr"/>
+      <c r="B649" s="4" t="inlineStr"/>
+      <c r="C649" s="4" t="inlineStr"/>
+      <c r="D649" s="4" t="inlineStr">
+        <is>
+          <t>@크로론님 악의적인 목적으로 일부러그 사람을 학습에 사용하지 않으면 고의가 아니기 때문에 문제 없다고 알고 있지만 또 바뀔지 모르죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr"/>
+      <c r="B650" s="4" t="inlineStr"/>
+      <c r="C650" s="4" t="inlineStr"/>
+      <c r="D650" s="4" t="inlineStr">
+        <is>
+          <t>@크로론님 고의가 아니므로 무죄일확률이크죠</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr"/>
+      <c r="B651" s="4" t="inlineStr"/>
+      <c r="C651" s="4" t="inlineStr"/>
+      <c r="D651" s="4" t="inlineStr">
+        <is>
+          <t>@크로론님 움.. 지금 인스타나SNS 보면 AI 보정해서 똑같아 보이는 사람들 사진이 널려 있던데, AI가 아예 생성한 거긴 하지만, 똑같은 사람들이 수두룩 할 거 같습니다.어차피 학습 시키면서도 가져다 썼을 것 같기도 하고..</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr"/>
+      <c r="B652" s="4" t="inlineStr"/>
+      <c r="C652" s="4" t="inlineStr"/>
+      <c r="D652" s="4" t="inlineStr">
+        <is>
+          <t>AI 딱 한달 대유쾌하고 그 뒤로 지겹네요 이제 좀...</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr"/>
+      <c r="B653" s="4" t="inlineStr"/>
+      <c r="C653" s="4" t="inlineStr"/>
+      <c r="D653" s="4" t="inlineStr">
+        <is>
+          <t>야한 만화 그려대는 것과 과연 무엇이 다른지 모르겠네요.저런 걸 만들어 공유하는 개인들 보면, 얼마나 외로웠으면...... 하며측은한 생각도 좀 들고요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr"/>
+      <c r="B654" s="4" t="inlineStr"/>
+      <c r="C654" s="4" t="inlineStr"/>
+      <c r="D654" s="4" t="inlineStr">
+        <is>
+          <t>@nice05님 이상한 관점이시네요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr"/>
+      <c r="B655" s="4" t="inlineStr"/>
+      <c r="C655" s="4" t="inlineStr"/>
+      <c r="D655" s="4" t="inlineStr">
+        <is>
+          <t>@_IU_님 그렇다면 어떤 이유로 그런그림을 만들고, 또 공유하는 걸까요?크롤링테스트에 게시될만한 건, 성기노출 같은 게 아니니 문제 삼을만한 건 물론아니지만요.본문에 나온 얘기야 돈벌이의 한 수단이니 정오를 가를 이유는 없겠지만,개인이 만들어서 커뮤니티에 올리는 건,다른 관점에서 보면 어떤 이유가 있는 건지 궁금합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr"/>
+      <c r="B656" s="4" t="inlineStr"/>
+      <c r="C656" s="4" t="inlineStr"/>
+      <c r="D656" s="4" t="inlineStr">
+        <is>
+          <t>@nice05님자기피알이죠실제 ai작업물을 올리는 이들에게 광고 작업 의뢰가 들어오고 있다고 합니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr"/>
+      <c r="B657" s="4" t="inlineStr"/>
+      <c r="C657" s="4" t="inlineStr"/>
+      <c r="D657" s="4" t="inlineStr">
+        <is>
+          <t>@고미-님 아~듣고 보니 그럴수도 있겠네요.덕분에 하나 배웠습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr"/>
+      <c r="B658" s="4" t="inlineStr"/>
+      <c r="C658" s="4" t="inlineStr"/>
+      <c r="D658" s="4" t="inlineStr">
+        <is>
+          <t>ai인거 알면 왠지 현타가 올거 같네요..</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr"/>
+      <c r="B659" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C659" s="3" t="inlineStr">
+        <is>
+          <t>ChatGPT iOS용 앱, 아이패드와 단축어 통합 지원 추가</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" s="4" t="inlineStr"/>
+      <c r="C660" s="4" t="inlineStr"/>
+      <c r="D660" s="4" t="inlineStr">
+        <is>
+          <t>시리 지원은 좋네요.그런데 플러그인이나 브라우징은 웹에서는 되는 기능인데 구현이 어려운 건지 앱에서는 작동이 안 되는 이유가궁금하네요.브라우징만 되어도 유용하게 쓸 텐데 이게 안되니 앱이 있어도 웹으로 들어가게 됩니다</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr"/>
+      <c r="B661" s="4" t="inlineStr"/>
+      <c r="C661" s="4" t="inlineStr"/>
+      <c r="D661" s="4" t="inlineStr">
+        <is>
+          <t>원래 시리로 챗GPT 쓰려면 단축어를 복잡하게 짜고 API 키도 만들고 그래야 했는데챗GPT 공식 앱으로 단축어 만드니까 단 3단계면시리GPT 뚝딱 완성이네요 ㅋㅋ</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr"/>
+      <c r="B662" s="4" t="inlineStr"/>
+      <c r="C662" s="4" t="inlineStr"/>
+      <c r="D662" s="4" t="inlineStr">
+        <is>
+          <t>@아이엔에프피님 혹시 방법을 공유해주실수 있나요? 전 다른거 쓰고 있는데 15초나 걸리고 성능이 별로더라고요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr"/>
+      <c r="B663" s="4" t="inlineStr"/>
+      <c r="C663" s="4" t="inlineStr"/>
+      <c r="D663" s="4" t="inlineStr">
+        <is>
+          <t>@여우난골족님</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr"/>
+      <c r="B664" s="4" t="inlineStr"/>
+      <c r="C664" s="4" t="inlineStr"/>
+      <c r="D664" s="4" t="inlineStr">
+        <is>
+          <t>@아이엔에프피님 감사합니다 !!</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C15" r:id="rId4"/>
+    <hyperlink ref="C23" r:id="rId5"/>
+    <hyperlink ref="C32" r:id="rId6"/>
+    <hyperlink ref="C41" r:id="rId7"/>
+    <hyperlink ref="C58" r:id="rId8"/>
+    <hyperlink ref="C90" r:id="rId9"/>
+    <hyperlink ref="C109" r:id="rId10"/>
+    <hyperlink ref="C112" r:id="rId11"/>
+    <hyperlink ref="C129" r:id="rId12"/>
+    <hyperlink ref="C152" r:id="rId13"/>
+    <hyperlink ref="C192" r:id="rId14"/>
+    <hyperlink ref="C235" r:id="rId15"/>
+    <hyperlink ref="C245" r:id="rId16"/>
+    <hyperlink ref="C291" r:id="rId17"/>
+    <hyperlink ref="C361" r:id="rId18"/>
+    <hyperlink ref="C369" r:id="rId19"/>
+    <hyperlink ref="C378" r:id="rId20"/>
+    <hyperlink ref="C431" r:id="rId21"/>
+    <hyperlink ref="C439" r:id="rId22"/>
+    <hyperlink ref="C448" r:id="rId23"/>
+    <hyperlink ref="C543" r:id="rId24"/>
+    <hyperlink ref="C590" r:id="rId25"/>
+    <hyperlink ref="C601" r:id="rId26"/>
+    <hyperlink ref="C603" r:id="rId27"/>
+    <hyperlink ref="C634" r:id="rId28"/>
+    <hyperlink ref="C639" r:id="rId29"/>
+    <hyperlink ref="C659" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
